--- a/InputData/trans/BCDTRtSY/BAU Cargo Dist Transported Relative to Start Yr.xlsx
+++ b/InputData/trans/BCDTRtSY/BAU Cargo Dist Transported Relative to Start Yr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shigu\Documents\_swj\_Talanoa\CPSA Fletcher\dados\InputData (BR) 2024\d17 trans\BCDTRtSY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anima\OneDrive\Desktop\Models\eps-brazil-cpl2\InputData\trans\BCDTRtSY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01C255A-E963-452A-9E32-14C72DCDFE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA9C29D-BF0B-47ED-9931-208093D38F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5508" yWindow="1908" windowWidth="17220" windowHeight="9912" tabRatio="742" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="742" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -45,6 +45,7 @@
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="75">
   <si>
     <t>aircraft</t>
   </si>
@@ -282,17 +283,20 @@
   <si>
     <t>The start year column does not have to be included in the outputs but is retained here for visual clarity.</t>
   </si>
+  <si>
+    <t>s</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="###0.00_)"/>
-    <numFmt numFmtId="167" formatCode="#,##0_)"/>
-    <numFmt numFmtId="168" formatCode="#,##0.000"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="###0.00_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0_)"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="46">
     <font>
@@ -573,7 +577,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="32">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -734,6 +738,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,33 +1003,33 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="8">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="8">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="8">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1151,7 +1161,7 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="8">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" applyNumberFormat="0">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="27" borderId="0">
@@ -1199,7 +1209,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1238,12 +1248,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="154"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="155">
     <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1314,7 +1325,7 @@
     <cellStyle name="Hed Top" xfId="69" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
     <cellStyle name="Hed Top - SECTION" xfId="70" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
     <cellStyle name="Hed Top_3-new4" xfId="71" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="Hiperlink" xfId="154" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="154" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
     <cellStyle name="Input 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
     <cellStyle name="Linked Cell 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
@@ -1367,12 +1378,12 @@
     <cellStyle name="Output 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
     <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
     <cellStyle name="Parent row 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Percent" xfId="153" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="121" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
     <cellStyle name="Percent 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
     <cellStyle name="Percent 3" xfId="123" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
     <cellStyle name="Percent 3 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
     <cellStyle name="Percent 4" xfId="125" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="Porcentagem" xfId="153" builtinId="5"/>
     <cellStyle name="Reference" xfId="126" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
     <cellStyle name="Row heading" xfId="127" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
     <cellStyle name="Source Hed" xfId="128" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
@@ -1883,14 +1894,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="107.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.46484375" customWidth="1"/>
+    <col min="2" max="2" width="107.46484375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -2066,36 +2077,38 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:AM10"/>
+  <dimension ref="A1:BG10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="BE13" sqref="BE13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="36.77734375" customWidth="1"/>
+    <col min="1" max="1" width="36.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:59">
       <c r="A1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:59">
       <c r="A2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:59">
       <c r="A3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:59">
       <c r="A5" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:59">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -2213,8 +2226,68 @@
       <c r="AM7" s="3">
         <v>2050</v>
       </c>
-    </row>
-    <row r="8" spans="1:39">
+      <c r="AN7" s="3">
+        <v>2051</v>
+      </c>
+      <c r="AO7" s="3">
+        <v>2052</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>2053</v>
+      </c>
+      <c r="AQ7" s="3">
+        <v>2054</v>
+      </c>
+      <c r="AR7" s="3">
+        <v>2055</v>
+      </c>
+      <c r="AS7" s="3">
+        <v>2056</v>
+      </c>
+      <c r="AT7" s="3">
+        <v>2057</v>
+      </c>
+      <c r="AU7" s="3">
+        <v>2058</v>
+      </c>
+      <c r="AV7" s="3">
+        <v>2059</v>
+      </c>
+      <c r="AW7" s="3">
+        <v>2060</v>
+      </c>
+      <c r="AX7" s="3">
+        <v>2061</v>
+      </c>
+      <c r="AY7" s="3">
+        <v>2062</v>
+      </c>
+      <c r="AZ7" s="3">
+        <v>2063</v>
+      </c>
+      <c r="BA7" s="3">
+        <v>2064</v>
+      </c>
+      <c r="BB7" s="3">
+        <v>2065</v>
+      </c>
+      <c r="BC7" s="3">
+        <v>2066</v>
+      </c>
+      <c r="BD7" s="3">
+        <v>2067</v>
+      </c>
+      <c r="BE7" s="3">
+        <v>2068</v>
+      </c>
+      <c r="BF7" s="3">
+        <v>2069</v>
+      </c>
+      <c r="BG7" s="3">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -2332,8 +2405,88 @@
       <c r="AM8">
         <v>1423934</v>
       </c>
-    </row>
-    <row r="9" spans="1:39">
+      <c r="AN8">
+        <f>_xlfn.FORECAST.ETS(AN$7,$B8:$AM8,$B$7:$AM$7)</f>
+        <v>1475393.4046465396</v>
+      </c>
+      <c r="AO8">
+        <f>_xlfn.FORECAST.ETS(AO$7,$B8:$AM8,$B$7:$AM$7)</f>
+        <v>1530070.6591297321</v>
+      </c>
+      <c r="AP8">
+        <f t="shared" ref="AP8:BG9" si="0">_xlfn.FORECAST.ETS(AP$7,$B8:$AM8,$B$7:$AM$7)</f>
+        <v>1584747.9136129247</v>
+      </c>
+      <c r="AQ8">
+        <f t="shared" si="0"/>
+        <v>1639425.1680961172</v>
+      </c>
+      <c r="AR8">
+        <f t="shared" si="0"/>
+        <v>1694102.4225793099</v>
+      </c>
+      <c r="AS8">
+        <f t="shared" si="0"/>
+        <v>1748779.6770625024</v>
+      </c>
+      <c r="AT8">
+        <f t="shared" si="0"/>
+        <v>1803456.9315456951</v>
+      </c>
+      <c r="AU8">
+        <f t="shared" si="0"/>
+        <v>1858134.1860288875</v>
+      </c>
+      <c r="AV8">
+        <f t="shared" si="0"/>
+        <v>1912811.4405120802</v>
+      </c>
+      <c r="AW8">
+        <f t="shared" si="0"/>
+        <v>1967488.6949952729</v>
+      </c>
+      <c r="AX8">
+        <f t="shared" si="0"/>
+        <v>2022165.9494784654</v>
+      </c>
+      <c r="AY8">
+        <f t="shared" si="0"/>
+        <v>2076843.2039616578</v>
+      </c>
+      <c r="AZ8">
+        <f t="shared" si="0"/>
+        <v>2131520.4584448505</v>
+      </c>
+      <c r="BA8">
+        <f t="shared" si="0"/>
+        <v>2186197.7129280432</v>
+      </c>
+      <c r="BB8">
+        <f t="shared" si="0"/>
+        <v>2240874.9674112359</v>
+      </c>
+      <c r="BC8">
+        <f t="shared" si="0"/>
+        <v>2295552.2218944281</v>
+      </c>
+      <c r="BD8">
+        <f t="shared" si="0"/>
+        <v>2350229.4763776208</v>
+      </c>
+      <c r="BE8">
+        <f t="shared" si="0"/>
+        <v>2404906.7308608135</v>
+      </c>
+      <c r="BF8">
+        <f t="shared" si="0"/>
+        <v>2459583.9853440057</v>
+      </c>
+      <c r="BG8">
+        <f t="shared" si="0"/>
+        <v>2514261.2398271989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2451,8 +2604,88 @@
       <c r="AM9">
         <v>1423934</v>
       </c>
-    </row>
-    <row r="10" spans="1:39">
+      <c r="AN9">
+        <f>_xlfn.FORECAST.ETS(AN$7,$B9:$AM9,$B$7:$AM$7)</f>
+        <v>1475393.4046465396</v>
+      </c>
+      <c r="AO9">
+        <f>_xlfn.FORECAST.ETS(AO$7,$B9:$AM9,$B$7:$AM$7)</f>
+        <v>1530070.6591297321</v>
+      </c>
+      <c r="AP9">
+        <f t="shared" si="0"/>
+        <v>1584747.9136129247</v>
+      </c>
+      <c r="AQ9">
+        <f t="shared" si="0"/>
+        <v>1639425.1680961172</v>
+      </c>
+      <c r="AR9">
+        <f t="shared" si="0"/>
+        <v>1694102.4225793099</v>
+      </c>
+      <c r="AS9">
+        <f t="shared" si="0"/>
+        <v>1748779.6770625024</v>
+      </c>
+      <c r="AT9">
+        <f t="shared" si="0"/>
+        <v>1803456.9315456951</v>
+      </c>
+      <c r="AU9">
+        <f t="shared" si="0"/>
+        <v>1858134.1860288875</v>
+      </c>
+      <c r="AV9">
+        <f t="shared" si="0"/>
+        <v>1912811.4405120802</v>
+      </c>
+      <c r="AW9">
+        <f t="shared" si="0"/>
+        <v>1967488.6949952729</v>
+      </c>
+      <c r="AX9">
+        <f t="shared" si="0"/>
+        <v>2022165.9494784654</v>
+      </c>
+      <c r="AY9">
+        <f t="shared" si="0"/>
+        <v>2076843.2039616578</v>
+      </c>
+      <c r="AZ9">
+        <f t="shared" si="0"/>
+        <v>2131520.4584448505</v>
+      </c>
+      <c r="BA9">
+        <f t="shared" si="0"/>
+        <v>2186197.7129280432</v>
+      </c>
+      <c r="BB9">
+        <f t="shared" si="0"/>
+        <v>2240874.9674112359</v>
+      </c>
+      <c r="BC9">
+        <f t="shared" si="0"/>
+        <v>2295552.2218944281</v>
+      </c>
+      <c r="BD9">
+        <f t="shared" si="0"/>
+        <v>2350229.4763776208</v>
+      </c>
+      <c r="BE9">
+        <f t="shared" si="0"/>
+        <v>2404906.7308608135</v>
+      </c>
+      <c r="BF9">
+        <f t="shared" si="0"/>
+        <v>2459583.9853440057</v>
+      </c>
+      <c r="BG9">
+        <f t="shared" si="0"/>
+        <v>2514261.2398271989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -2464,124 +2697,204 @@
         <v>1.0398307460393583</v>
       </c>
       <c r="J10">
-        <f t="shared" ref="J10:AM10" si="0">J9/$H$9</f>
+        <f t="shared" ref="J10:AO10" si="1">J9/$H$9</f>
         <v>1.085737155483611</v>
       </c>
       <c r="K10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.131643564927864</v>
       </c>
       <c r="L10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1775499743721169</v>
       </c>
       <c r="M10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2234563838163697</v>
       </c>
       <c r="N10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2693627932606224</v>
       </c>
       <c r="O10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3152692027048751</v>
       </c>
       <c r="P10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3611756121491281</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.407082021593381</v>
       </c>
       <c r="R10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4529884310376338</v>
       </c>
       <c r="S10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4988948404818867</v>
       </c>
       <c r="T10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5760653091904473</v>
       </c>
       <c r="U10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6532357778990083</v>
       </c>
       <c r="V10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7304062466075691</v>
       </c>
       <c r="W10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8075767153161302</v>
       </c>
       <c r="X10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8847471840246908</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9619176527332518</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0390881214418126</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1162585901503732</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1934290588589338</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2705995275674948</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3859616914677702</v>
       </c>
       <c r="AE10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5013238553680455</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6166860192683208</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7320481831685961</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8474103470688714</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9627725109691467</v>
       </c>
       <c r="AJ10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.0781346748694216</v>
       </c>
       <c r="AK10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1934968387696974</v>
       </c>
       <c r="AL10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3088590026699722</v>
       </c>
       <c r="AM10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.424221166570248</v>
+      </c>
+      <c r="AN10">
+        <f t="shared" si="1"/>
+        <v>3.5479687437822425</v>
+      </c>
+      <c r="AO10">
+        <f t="shared" si="1"/>
+        <v>3.679454481275199</v>
+      </c>
+      <c r="AP10">
+        <f t="shared" ref="AP10:BG10" si="2">AP9/$H$9</f>
+        <v>3.810940218768156</v>
+      </c>
+      <c r="AQ10">
+        <f t="shared" si="2"/>
+        <v>3.9424259562611126</v>
+      </c>
+      <c r="AR10">
+        <f t="shared" si="2"/>
+        <v>4.07391169375407</v>
+      </c>
+      <c r="AS10">
+        <f t="shared" si="2"/>
+        <v>4.2053974312470261</v>
+      </c>
+      <c r="AT10">
+        <f t="shared" si="2"/>
+        <v>4.3368831687399831</v>
+      </c>
+      <c r="AU10">
+        <f t="shared" si="2"/>
+        <v>4.4683689062329401</v>
+      </c>
+      <c r="AV10">
+        <f t="shared" si="2"/>
+        <v>4.5998546437258971</v>
+      </c>
+      <c r="AW10">
+        <f t="shared" si="2"/>
+        <v>4.7313403812188541</v>
+      </c>
+      <c r="AX10">
+        <f t="shared" si="2"/>
+        <v>4.8628261187118111</v>
+      </c>
+      <c r="AY10">
+        <f t="shared" si="2"/>
+        <v>4.9943118562047673</v>
+      </c>
+      <c r="AZ10">
+        <f t="shared" si="2"/>
+        <v>5.1257975936977243</v>
+      </c>
+      <c r="BA10">
+        <f t="shared" si="2"/>
+        <v>5.2572833311906813</v>
+      </c>
+      <c r="BB10">
+        <f t="shared" si="2"/>
+        <v>5.3887690686836391</v>
+      </c>
+      <c r="BC10">
+        <f t="shared" si="2"/>
+        <v>5.5202548061765944</v>
+      </c>
+      <c r="BD10">
+        <f t="shared" si="2"/>
+        <v>5.6517405436695523</v>
+      </c>
+      <c r="BE10">
+        <f t="shared" si="2"/>
+        <v>5.7832262811625093</v>
+      </c>
+      <c r="BF10">
+        <f t="shared" si="2"/>
+        <v>5.9147120186554654</v>
+      </c>
+      <c r="BG10">
+        <f t="shared" si="2"/>
+        <v>6.0461977561484233</v>
       </c>
     </row>
   </sheetData>
@@ -2591,36 +2904,38 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:AM10"/>
+  <dimension ref="A1:BG10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AW8" sqref="AW8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="40.109375" customWidth="1"/>
+    <col min="1" max="1" width="40.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:59">
       <c r="A1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:59">
       <c r="A2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:59">
       <c r="A3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:59">
       <c r="A5" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:59">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -2738,8 +3053,68 @@
       <c r="AM7" s="3">
         <v>2050</v>
       </c>
-    </row>
-    <row r="8" spans="1:39">
+      <c r="AN7" s="3">
+        <v>2051</v>
+      </c>
+      <c r="AO7" s="3">
+        <v>2052</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>2053</v>
+      </c>
+      <c r="AQ7" s="3">
+        <v>2054</v>
+      </c>
+      <c r="AR7" s="3">
+        <v>2055</v>
+      </c>
+      <c r="AS7" s="3">
+        <v>2056</v>
+      </c>
+      <c r="AT7" s="3">
+        <v>2057</v>
+      </c>
+      <c r="AU7" s="3">
+        <v>2058</v>
+      </c>
+      <c r="AV7" s="3">
+        <v>2059</v>
+      </c>
+      <c r="AW7" s="3">
+        <v>2060</v>
+      </c>
+      <c r="AX7" s="3">
+        <v>2061</v>
+      </c>
+      <c r="AY7" s="3">
+        <v>2062</v>
+      </c>
+      <c r="AZ7" s="3">
+        <v>2063</v>
+      </c>
+      <c r="BA7" s="3">
+        <v>2064</v>
+      </c>
+      <c r="BB7" s="3">
+        <v>2065</v>
+      </c>
+      <c r="BC7" s="3">
+        <v>2066</v>
+      </c>
+      <c r="BD7" s="3">
+        <v>2067</v>
+      </c>
+      <c r="BE7" s="3">
+        <v>2068</v>
+      </c>
+      <c r="BF7" s="3">
+        <v>2069</v>
+      </c>
+      <c r="BG7" s="3">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -2857,8 +3232,88 @@
       <c r="AM8">
         <v>11986</v>
       </c>
-    </row>
-    <row r="9" spans="1:39">
+      <c r="AN8">
+        <f>_xlfn.FORECAST.ETS(AN$7,$B8:$AM8,$B$7:$AM$7)</f>
+        <v>12257.439091117041</v>
+      </c>
+      <c r="AO8">
+        <f>_xlfn.FORECAST.ETS(AO$7,$B8:$AM8,$B$7:$AM$7)</f>
+        <v>12511.486112771176</v>
+      </c>
+      <c r="AP8">
+        <f t="shared" ref="AP8:BG9" si="0">_xlfn.FORECAST.ETS(AP$7,$B8:$AM8,$B$7:$AM$7)</f>
+        <v>12765.533134425312</v>
+      </c>
+      <c r="AQ8">
+        <f t="shared" si="0"/>
+        <v>13019.580156079446</v>
+      </c>
+      <c r="AR8">
+        <f t="shared" si="0"/>
+        <v>13273.627177733581</v>
+      </c>
+      <c r="AS8">
+        <f t="shared" si="0"/>
+        <v>13527.674199387715</v>
+      </c>
+      <c r="AT8">
+        <f t="shared" si="0"/>
+        <v>13781.721221041851</v>
+      </c>
+      <c r="AU8">
+        <f t="shared" si="0"/>
+        <v>14035.768242695985</v>
+      </c>
+      <c r="AV8">
+        <f t="shared" si="0"/>
+        <v>14289.81526435012</v>
+      </c>
+      <c r="AW8">
+        <f t="shared" si="0"/>
+        <v>14543.862286004254</v>
+      </c>
+      <c r="AX8">
+        <f t="shared" si="0"/>
+        <v>14797.909307658389</v>
+      </c>
+      <c r="AY8">
+        <f t="shared" si="0"/>
+        <v>15051.956329312525</v>
+      </c>
+      <c r="AZ8">
+        <f t="shared" si="0"/>
+        <v>15306.003350966659</v>
+      </c>
+      <c r="BA8">
+        <f t="shared" si="0"/>
+        <v>15560.050372620793</v>
+      </c>
+      <c r="BB8">
+        <f t="shared" si="0"/>
+        <v>15814.09739427493</v>
+      </c>
+      <c r="BC8">
+        <f t="shared" si="0"/>
+        <v>16068.144415929064</v>
+      </c>
+      <c r="BD8">
+        <f t="shared" si="0"/>
+        <v>16322.191437583198</v>
+      </c>
+      <c r="BE8">
+        <f t="shared" si="0"/>
+        <v>16576.238459237335</v>
+      </c>
+      <c r="BF8">
+        <f t="shared" si="0"/>
+        <v>16830.285480891467</v>
+      </c>
+      <c r="BG8">
+        <f t="shared" si="0"/>
+        <v>17084.332502545603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2976,8 +3431,88 @@
       <c r="AM9">
         <v>11986</v>
       </c>
-    </row>
-    <row r="10" spans="1:39">
+      <c r="AN9">
+        <f>_xlfn.FORECAST.ETS(AN$7,$B9:$AM9,$B$7:$AM$7)</f>
+        <v>12257.439091117041</v>
+      </c>
+      <c r="AO9">
+        <f>_xlfn.FORECAST.ETS(AO$7,$B9:$AM9,$B$7:$AM$7)</f>
+        <v>12511.486112771176</v>
+      </c>
+      <c r="AP9">
+        <f t="shared" si="0"/>
+        <v>12765.533134425312</v>
+      </c>
+      <c r="AQ9">
+        <f t="shared" si="0"/>
+        <v>13019.580156079446</v>
+      </c>
+      <c r="AR9">
+        <f t="shared" si="0"/>
+        <v>13273.627177733581</v>
+      </c>
+      <c r="AS9">
+        <f t="shared" si="0"/>
+        <v>13527.674199387715</v>
+      </c>
+      <c r="AT9">
+        <f t="shared" si="0"/>
+        <v>13781.721221041851</v>
+      </c>
+      <c r="AU9">
+        <f t="shared" si="0"/>
+        <v>14035.768242695985</v>
+      </c>
+      <c r="AV9">
+        <f t="shared" si="0"/>
+        <v>14289.81526435012</v>
+      </c>
+      <c r="AW9">
+        <f t="shared" si="0"/>
+        <v>14543.862286004254</v>
+      </c>
+      <c r="AX9">
+        <f t="shared" si="0"/>
+        <v>14797.909307658389</v>
+      </c>
+      <c r="AY9">
+        <f t="shared" si="0"/>
+        <v>15051.956329312525</v>
+      </c>
+      <c r="AZ9">
+        <f t="shared" si="0"/>
+        <v>15306.003350966659</v>
+      </c>
+      <c r="BA9">
+        <f t="shared" si="0"/>
+        <v>15560.050372620793</v>
+      </c>
+      <c r="BB9">
+        <f t="shared" si="0"/>
+        <v>15814.09739427493</v>
+      </c>
+      <c r="BC9">
+        <f t="shared" si="0"/>
+        <v>16068.144415929064</v>
+      </c>
+      <c r="BD9">
+        <f t="shared" si="0"/>
+        <v>16322.191437583198</v>
+      </c>
+      <c r="BE9">
+        <f t="shared" si="0"/>
+        <v>16576.238459237335</v>
+      </c>
+      <c r="BF9">
+        <f t="shared" si="0"/>
+        <v>16830.285480891467</v>
+      </c>
+      <c r="BG9">
+        <f t="shared" si="0"/>
+        <v>17084.332502545603</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -2989,124 +3524,204 @@
         <v>1.0088954316946737</v>
       </c>
       <c r="J10">
-        <f t="shared" ref="J10:AM10" si="0">J9/$H$9</f>
+        <f t="shared" ref="J10:AO10" si="1">J9/$H$9</f>
         <v>0.99918249729848241</v>
       </c>
       <c r="K10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.98946956290229104</v>
       </c>
       <c r="L10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97975662850610001</v>
       </c>
       <c r="M10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97004369410990876</v>
       </c>
       <c r="N10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.9603307597137174</v>
       </c>
       <c r="O10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.95061782531752614</v>
       </c>
       <c r="P10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.94090489092133478</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.93119195652514375</v>
       </c>
       <c r="R10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.9214790221289525</v>
       </c>
       <c r="S10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.91176608773276113</v>
       </c>
       <c r="T10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.92553521369395331</v>
       </c>
       <c r="U10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.93930433965514548</v>
       </c>
       <c r="V10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.95307346561633743</v>
       </c>
       <c r="W10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.96684259157752961</v>
       </c>
       <c r="X10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.98061171753872167</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99438084349991385</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.008149969461106</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0219190954222981</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0356882213834901</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0494573473446822</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0759102939564311</v>
       </c>
       <c r="AE10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.10236324056818</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1288161871799289</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1552691337916778</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1817220804034265</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2081750270151754</v>
       </c>
       <c r="AJ10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2346279736269243</v>
       </c>
       <c r="AK10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.261080920238673</v>
       </c>
       <c r="AL10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2875338668504221</v>
       </c>
       <c r="AM10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3139868134621708</v>
+      </c>
+      <c r="AN10">
+        <f t="shared" si="1"/>
+        <v>1.3437438121594802</v>
+      </c>
+      <c r="AO10">
+        <f t="shared" si="1"/>
+        <v>1.3715941739526447</v>
+      </c>
+      <c r="AP10">
+        <f t="shared" ref="AP10:BG10" si="2">AP9/$H$9</f>
+        <v>1.3994445357458096</v>
+      </c>
+      <c r="AQ10">
+        <f t="shared" si="2"/>
+        <v>1.4272948975389743</v>
+      </c>
+      <c r="AR10">
+        <f t="shared" si="2"/>
+        <v>1.4551452593321388</v>
+      </c>
+      <c r="AS10">
+        <f t="shared" si="2"/>
+        <v>1.4829956211253035</v>
+      </c>
+      <c r="AT10">
+        <f t="shared" si="2"/>
+        <v>1.5108459829184682</v>
+      </c>
+      <c r="AU10">
+        <f t="shared" si="2"/>
+        <v>1.5386963447116329</v>
+      </c>
+      <c r="AV10">
+        <f t="shared" si="2"/>
+        <v>1.5665467065047975</v>
+      </c>
+      <c r="AW10">
+        <f t="shared" si="2"/>
+        <v>1.5943970682979622</v>
+      </c>
+      <c r="AX10">
+        <f t="shared" si="2"/>
+        <v>1.6222474300911267</v>
+      </c>
+      <c r="AY10">
+        <f t="shared" si="2"/>
+        <v>1.6500977918842916</v>
+      </c>
+      <c r="AZ10">
+        <f t="shared" si="2"/>
+        <v>1.6779481536774563</v>
+      </c>
+      <c r="BA10">
+        <f t="shared" si="2"/>
+        <v>1.7057985154706208</v>
+      </c>
+      <c r="BB10">
+        <f t="shared" si="2"/>
+        <v>1.7336488772637857</v>
+      </c>
+      <c r="BC10">
+        <f t="shared" si="2"/>
+        <v>1.7614992390569502</v>
+      </c>
+      <c r="BD10">
+        <f t="shared" si="2"/>
+        <v>1.7893496008501149</v>
+      </c>
+      <c r="BE10">
+        <f t="shared" si="2"/>
+        <v>1.8171999626432798</v>
+      </c>
+      <c r="BF10">
+        <f t="shared" si="2"/>
+        <v>1.8450503244364442</v>
+      </c>
+      <c r="BG10">
+        <f t="shared" si="2"/>
+        <v>1.8729006862296089</v>
       </c>
     </row>
   </sheetData>
@@ -3119,18 +3734,18 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AG7"/>
+  <dimension ref="A1:BA7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AZ8" sqref="AZ8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="72">
+    <row r="1" spans="1:53" ht="71.25">
       <c r="A1" s="23" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3845,68 @@
       <c r="AG1">
         <v>2050</v>
       </c>
-    </row>
-    <row r="2" spans="1:33">
+      <c r="AH1">
+        <v>2051</v>
+      </c>
+      <c r="AI1">
+        <v>2052</v>
+      </c>
+      <c r="AJ1">
+        <v>2053</v>
+      </c>
+      <c r="AK1">
+        <v>2054</v>
+      </c>
+      <c r="AL1">
+        <v>2055</v>
+      </c>
+      <c r="AM1">
+        <v>2056</v>
+      </c>
+      <c r="AN1">
+        <v>2057</v>
+      </c>
+      <c r="AO1">
+        <v>2058</v>
+      </c>
+      <c r="AP1">
+        <v>2059</v>
+      </c>
+      <c r="AQ1">
+        <v>2060</v>
+      </c>
+      <c r="AR1">
+        <v>2061</v>
+      </c>
+      <c r="AS1">
+        <v>2062</v>
+      </c>
+      <c r="AT1">
+        <v>2063</v>
+      </c>
+      <c r="AU1">
+        <v>2064</v>
+      </c>
+      <c r="AV1">
+        <v>2065</v>
+      </c>
+      <c r="AW1">
+        <v>2066</v>
+      </c>
+      <c r="AX1">
+        <v>2067</v>
+      </c>
+      <c r="AY1">
+        <v>2068</v>
+      </c>
+      <c r="AZ1">
+        <v>2069</v>
+      </c>
+      <c r="BA1">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3363,8 +4038,88 @@
         <f>'psgr-Road'!AK27</f>
         <v>1.7250769867383136</v>
       </c>
-    </row>
-    <row r="3" spans="1:33">
+      <c r="AH2" s="18">
+        <f>'psgr-Road'!AL27</f>
+        <v>1.7325653109582373</v>
+      </c>
+      <c r="AI2" s="18">
+        <f>'psgr-Road'!AM27</f>
+        <v>1.7434866324880931</v>
+      </c>
+      <c r="AJ2" s="18">
+        <f>'psgr-Road'!AN27</f>
+        <v>1.7544079540179489</v>
+      </c>
+      <c r="AK2" s="18">
+        <f>'psgr-Road'!AO27</f>
+        <v>1.7653292755478054</v>
+      </c>
+      <c r="AL2" s="18">
+        <f>'psgr-Road'!AP27</f>
+        <v>1.7762505970776614</v>
+      </c>
+      <c r="AM2" s="18">
+        <f>'psgr-Road'!AQ27</f>
+        <v>1.7871719186075177</v>
+      </c>
+      <c r="AN2" s="18">
+        <f>'psgr-Road'!AR27</f>
+        <v>1.7980932401373733</v>
+      </c>
+      <c r="AO2" s="18">
+        <f>'psgr-Road'!AS27</f>
+        <v>1.8090145616672295</v>
+      </c>
+      <c r="AP2" s="18">
+        <f>'psgr-Road'!AT27</f>
+        <v>1.8199358831970855</v>
+      </c>
+      <c r="AQ2" s="18">
+        <f>'psgr-Road'!AU27</f>
+        <v>1.8308572047269414</v>
+      </c>
+      <c r="AR2" s="18">
+        <f>'psgr-Road'!AV27</f>
+        <v>1.8417785262567974</v>
+      </c>
+      <c r="AS2" s="18">
+        <f>'psgr-Road'!AW27</f>
+        <v>1.8526998477866536</v>
+      </c>
+      <c r="AT2" s="18">
+        <f>'psgr-Road'!AX27</f>
+        <v>1.8636211693165097</v>
+      </c>
+      <c r="AU2" s="18">
+        <f>'psgr-Road'!AY27</f>
+        <v>1.8745424908463657</v>
+      </c>
+      <c r="AV2" s="18">
+        <f>'psgr-Road'!AZ27</f>
+        <v>1.885463812376222</v>
+      </c>
+      <c r="AW2" s="18">
+        <f>'psgr-Road'!BA27</f>
+        <v>1.896385133906078</v>
+      </c>
+      <c r="AX2" s="18">
+        <f>'psgr-Road'!BB27</f>
+        <v>1.9073064554359338</v>
+      </c>
+      <c r="AY2" s="18">
+        <f>'psgr-Road'!BC27</f>
+        <v>1.9182277769657901</v>
+      </c>
+      <c r="AZ2" s="18">
+        <f>'psgr-Road'!BD27</f>
+        <v>1.9291490984956463</v>
+      </c>
+      <c r="BA2" s="18">
+        <f>'psgr-Road'!BE27</f>
+        <v>1.9400704200255023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3496,8 +4251,88 @@
         <f>'psgr-Road'!AK29</f>
         <v>1.941438984749335</v>
       </c>
-    </row>
-    <row r="4" spans="1:33">
+      <c r="AH3" s="18">
+        <f>'psgr-Road'!AL29</f>
+        <v>1.9788051581644561</v>
+      </c>
+      <c r="AI3" s="18">
+        <f>'psgr-Road'!AM29</f>
+        <v>2.0161955799883136</v>
+      </c>
+      <c r="AJ3" s="18">
+        <f>'psgr-Road'!AN29</f>
+        <v>2.0535860018121714</v>
+      </c>
+      <c r="AK3" s="18">
+        <f>'psgr-Road'!AO29</f>
+        <v>2.0909764236360293</v>
+      </c>
+      <c r="AL3" s="18">
+        <f>'psgr-Road'!AP29</f>
+        <v>2.1283668454598872</v>
+      </c>
+      <c r="AM3" s="18">
+        <f>'psgr-Road'!AQ29</f>
+        <v>2.1657572672837451</v>
+      </c>
+      <c r="AN3" s="18">
+        <f>'psgr-Road'!AR29</f>
+        <v>2.2031476891076029</v>
+      </c>
+      <c r="AO3" s="18">
+        <f>'psgr-Road'!AS29</f>
+        <v>2.2405381109314604</v>
+      </c>
+      <c r="AP3" s="18">
+        <f>'psgr-Road'!AT29</f>
+        <v>2.2779285327553178</v>
+      </c>
+      <c r="AQ3" s="18">
+        <f>'psgr-Road'!AU29</f>
+        <v>2.3153189545791761</v>
+      </c>
+      <c r="AR3" s="18">
+        <f>'psgr-Road'!AV29</f>
+        <v>2.352709376403034</v>
+      </c>
+      <c r="AS3" s="18">
+        <f>'psgr-Road'!AW29</f>
+        <v>2.3900997982268914</v>
+      </c>
+      <c r="AT3" s="18">
+        <f>'psgr-Road'!AX29</f>
+        <v>2.4274902200507493</v>
+      </c>
+      <c r="AU3" s="18">
+        <f>'psgr-Road'!AY29</f>
+        <v>2.4648806418746072</v>
+      </c>
+      <c r="AV3" s="18">
+        <f>'psgr-Road'!AZ29</f>
+        <v>2.5022710636984646</v>
+      </c>
+      <c r="AW3" s="18">
+        <f>'psgr-Road'!BA29</f>
+        <v>2.5396614855223225</v>
+      </c>
+      <c r="AX3" s="18">
+        <f>'psgr-Road'!BB29</f>
+        <v>2.5770519073461804</v>
+      </c>
+      <c r="AY3" s="18">
+        <f>'psgr-Road'!BC29</f>
+        <v>2.6144423291700383</v>
+      </c>
+      <c r="AZ3" s="18">
+        <f>'psgr-Road'!BD29</f>
+        <v>2.6518327509938957</v>
+      </c>
+      <c r="BA3" s="18">
+        <f>'psgr-Road'!BE29</f>
+        <v>2.6892231728177536</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3629,8 +4464,88 @@
         <f>'psgr-Air'!AM11</f>
         <v>3.2882899507306016</v>
       </c>
-    </row>
-    <row r="5" spans="1:33">
+      <c r="AH4" s="18">
+        <f>'psgr-Air'!AN11</f>
+        <v>3.3748965117367842</v>
+      </c>
+      <c r="AI4" s="18">
+        <f>'psgr-Air'!AO11</f>
+        <v>3.4536787760650549</v>
+      </c>
+      <c r="AJ4" s="18">
+        <f>'psgr-Air'!AP11</f>
+        <v>3.5396624879174245</v>
+      </c>
+      <c r="AK4" s="18">
+        <f>'psgr-Air'!AQ11</f>
+        <v>3.6256879654398193</v>
+      </c>
+      <c r="AL4" s="18">
+        <f>'psgr-Air'!AR11</f>
+        <v>3.7118750482133578</v>
+      </c>
+      <c r="AM4" s="18">
+        <f>'psgr-Air'!AS11</f>
+        <v>3.7980406379534792</v>
+      </c>
+      <c r="AN4" s="18">
+        <f>'psgr-Air'!AT11</f>
+        <v>3.8837111578047532</v>
+      </c>
+      <c r="AO4" s="18">
+        <f>'psgr-Air'!AU11</f>
+        <v>3.9703447682326263</v>
+      </c>
+      <c r="AP4" s="18">
+        <f>'psgr-Air'!AV11</f>
+        <v>4.0568834462200885</v>
+      </c>
+      <c r="AQ4" s="18">
+        <f>'psgr-Air'!AW11</f>
+        <v>4.1434826166417018</v>
+      </c>
+      <c r="AR4" s="18">
+        <f>'psgr-Air'!AX11</f>
+        <v>4.2299688541442144</v>
+      </c>
+      <c r="AS4" s="18">
+        <f>'psgr-Air'!AY11</f>
+        <v>4.3164555433251168</v>
+      </c>
+      <c r="AT4" s="18">
+        <f>'psgr-Air'!AZ11</f>
+        <v>4.40310820989892</v>
+      </c>
+      <c r="AU4" s="18">
+        <f>'psgr-Air'!BA11</f>
+        <v>4.4897438506858709</v>
+      </c>
+      <c r="AV4" s="18">
+        <f>'psgr-Air'!BB11</f>
+        <v>4.576392758517331</v>
+      </c>
+      <c r="AW4" s="18">
+        <f>'psgr-Air'!BC11</f>
+        <v>4.6630369270980667</v>
+      </c>
+      <c r="AX4" s="18">
+        <f>'psgr-Air'!BD11</f>
+        <v>4.7496811335164724</v>
+      </c>
+      <c r="AY4" s="18">
+        <f>'psgr-Air'!BE11</f>
+        <v>4.836325339934878</v>
+      </c>
+      <c r="AZ4" s="18">
+        <f>'psgr-Air'!BF11</f>
+        <v>4.9229695463532837</v>
+      </c>
+      <c r="BA4" s="18">
+        <f>'psgr-Air'!BG11</f>
+        <v>5.0096137527716893</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3762,8 +4677,88 @@
         <f>'psgr-Rail'!AM10</f>
         <v>3.0288461538461537</v>
       </c>
-    </row>
-    <row r="6" spans="1:33">
+      <c r="AH5" s="18">
+        <f>'psgr-Rail'!AN10</f>
+        <v>3.0793269230769229</v>
+      </c>
+      <c r="AI5" s="18">
+        <f>'psgr-Rail'!AO10</f>
+        <v>3.1298076923076921</v>
+      </c>
+      <c r="AJ5" s="18">
+        <f>'psgr-Rail'!AP10</f>
+        <v>3.1802884615384612</v>
+      </c>
+      <c r="AK5" s="18">
+        <f>'psgr-Rail'!AQ10</f>
+        <v>3.2307692307692304</v>
+      </c>
+      <c r="AL5" s="18">
+        <f>'psgr-Rail'!AR10</f>
+        <v>3.2812499999999996</v>
+      </c>
+      <c r="AM5" s="18">
+        <f>'psgr-Rail'!AS10</f>
+        <v>3.3317307692307687</v>
+      </c>
+      <c r="AN5" s="18">
+        <f>'psgr-Rail'!AT10</f>
+        <v>3.3822115384615383</v>
+      </c>
+      <c r="AO5" s="18">
+        <f>'psgr-Rail'!AU10</f>
+        <v>3.4326923076923075</v>
+      </c>
+      <c r="AP5" s="18">
+        <f>'psgr-Rail'!AV10</f>
+        <v>3.4831730769230766</v>
+      </c>
+      <c r="AQ5" s="18">
+        <f>'psgr-Rail'!AW10</f>
+        <v>3.5336538461538458</v>
+      </c>
+      <c r="AR5" s="18">
+        <f>'psgr-Rail'!AX10</f>
+        <v>3.584134615384615</v>
+      </c>
+      <c r="AS5" s="18">
+        <f>'psgr-Rail'!AY10</f>
+        <v>3.6346153846153841</v>
+      </c>
+      <c r="AT5" s="18">
+        <f>'psgr-Rail'!AZ10</f>
+        <v>3.6850961538461533</v>
+      </c>
+      <c r="AU5" s="18">
+        <f>'psgr-Rail'!BA10</f>
+        <v>3.7355769230769229</v>
+      </c>
+      <c r="AV5" s="18">
+        <f>'psgr-Rail'!BB10</f>
+        <v>3.7860576923076921</v>
+      </c>
+      <c r="AW5" s="18">
+        <f>'psgr-Rail'!BC10</f>
+        <v>3.8365384615384612</v>
+      </c>
+      <c r="AX5" s="18">
+        <f>'psgr-Rail'!BD10</f>
+        <v>3.8870192307692304</v>
+      </c>
+      <c r="AY5" s="18">
+        <f>'psgr-Rail'!BE10</f>
+        <v>3.9374999999999996</v>
+      </c>
+      <c r="AZ5" s="18">
+        <f>'psgr-Rail'!BF10</f>
+        <v>3.9879807692307687</v>
+      </c>
+      <c r="BA5" s="18">
+        <f>'psgr-Rail'!BG10</f>
+        <v>4.0384615384615383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3895,8 +4890,88 @@
         <f>'psgr-Ship'!AM10</f>
         <v>1.1183346012863962</v>
       </c>
-    </row>
-    <row r="7" spans="1:33">
+      <c r="AH6" s="18">
+        <f>'psgr-Ship'!AN10</f>
+        <v>1.1174631717269521</v>
+      </c>
+      <c r="AI6" s="18">
+        <f>'psgr-Ship'!AO10</f>
+        <v>1.116591742167508</v>
+      </c>
+      <c r="AJ6" s="18">
+        <f>'psgr-Ship'!AP10</f>
+        <v>1.1157203126080639</v>
+      </c>
+      <c r="AK6" s="18">
+        <f>'psgr-Ship'!AQ10</f>
+        <v>1.1148488830486201</v>
+      </c>
+      <c r="AL6" s="18">
+        <f>'psgr-Ship'!AR10</f>
+        <v>1.113977453489176</v>
+      </c>
+      <c r="AM6" s="18">
+        <f>'psgr-Ship'!AS10</f>
+        <v>1.1131060239297319</v>
+      </c>
+      <c r="AN6" s="18">
+        <f>'psgr-Ship'!AT10</f>
+        <v>1.1122345943702878</v>
+      </c>
+      <c r="AO6" s="18">
+        <f>'psgr-Ship'!AU10</f>
+        <v>1.1113631648108437</v>
+      </c>
+      <c r="AP6" s="18">
+        <f>'psgr-Ship'!AV10</f>
+        <v>1.1104917352513999</v>
+      </c>
+      <c r="AQ6" s="18">
+        <f>'psgr-Ship'!AW10</f>
+        <v>1.1096203056919558</v>
+      </c>
+      <c r="AR6" s="18">
+        <f>'psgr-Ship'!AX10</f>
+        <v>1.1087488761325117</v>
+      </c>
+      <c r="AS6" s="18">
+        <f>'psgr-Ship'!AY10</f>
+        <v>1.1078774465730676</v>
+      </c>
+      <c r="AT6" s="18">
+        <f>'psgr-Ship'!AZ10</f>
+        <v>1.1070060170136236</v>
+      </c>
+      <c r="AU6" s="18">
+        <f>'psgr-Ship'!BA10</f>
+        <v>1.1061345874541797</v>
+      </c>
+      <c r="AV6" s="18">
+        <f>'psgr-Ship'!BB10</f>
+        <v>1.1052631578947356</v>
+      </c>
+      <c r="AW6" s="18">
+        <f>'psgr-Ship'!BC10</f>
+        <v>1.1043917283352915</v>
+      </c>
+      <c r="AX6" s="18">
+        <f>'psgr-Ship'!BD10</f>
+        <v>1.1035202987758475</v>
+      </c>
+      <c r="AY6" s="18">
+        <f>'psgr-Ship'!BE10</f>
+        <v>1.1026488692164036</v>
+      </c>
+      <c r="AZ6" s="18">
+        <f>'psgr-Ship'!BF10</f>
+        <v>1.1017774396569595</v>
+      </c>
+      <c r="BA6" s="18">
+        <f>'psgr-Ship'!BG10</f>
+        <v>1.1009060100975154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4027,6 +5102,86 @@
       <c r="AG7" s="18">
         <f>'psgr-Road'!AK31</f>
         <v>2.0592162665664304</v>
+      </c>
+      <c r="AH7" s="18">
+        <f>'psgr-Road'!AL31</f>
+        <v>2.0658607488831042</v>
+      </c>
+      <c r="AI7" s="18">
+        <f>'psgr-Road'!AM31</f>
+        <v>2.0724507854496279</v>
+      </c>
+      <c r="AJ7" s="18">
+        <f>'psgr-Road'!AN31</f>
+        <v>2.0790408220161516</v>
+      </c>
+      <c r="AK7" s="18">
+        <f>'psgr-Road'!AO31</f>
+        <v>2.0856308585826753</v>
+      </c>
+      <c r="AL7" s="18">
+        <f>'psgr-Road'!AP31</f>
+        <v>2.0922208951491994</v>
+      </c>
+      <c r="AM7" s="18">
+        <f>'psgr-Road'!AQ31</f>
+        <v>2.0988109317157231</v>
+      </c>
+      <c r="AN7" s="18">
+        <f>'psgr-Road'!AR31</f>
+        <v>2.1054009682822468</v>
+      </c>
+      <c r="AO7" s="18">
+        <f>'psgr-Road'!AS31</f>
+        <v>2.1119910048487704</v>
+      </c>
+      <c r="AP7" s="18">
+        <f>'psgr-Road'!AT31</f>
+        <v>2.1185810414152941</v>
+      </c>
+      <c r="AQ7" s="18">
+        <f>'psgr-Road'!AU31</f>
+        <v>2.1251710779818178</v>
+      </c>
+      <c r="AR7" s="18">
+        <f>'psgr-Road'!AV31</f>
+        <v>2.1317611145483415</v>
+      </c>
+      <c r="AS7" s="18">
+        <f>'psgr-Road'!AW31</f>
+        <v>2.1383511511148652</v>
+      </c>
+      <c r="AT7" s="18">
+        <f>'psgr-Road'!AX31</f>
+        <v>2.1449411876813889</v>
+      </c>
+      <c r="AU7" s="18">
+        <f>'psgr-Road'!AY31</f>
+        <v>2.1515312242479125</v>
+      </c>
+      <c r="AV7" s="18">
+        <f>'psgr-Road'!AZ31</f>
+        <v>2.1581212608144362</v>
+      </c>
+      <c r="AW7" s="18">
+        <f>'psgr-Road'!BA31</f>
+        <v>2.1647112973809604</v>
+      </c>
+      <c r="AX7" s="18">
+        <f>'psgr-Road'!BB31</f>
+        <v>2.171301333947484</v>
+      </c>
+      <c r="AY7" s="18">
+        <f>'psgr-Road'!BC31</f>
+        <v>2.1778913705140082</v>
+      </c>
+      <c r="AZ7" s="18">
+        <f>'psgr-Road'!BD31</f>
+        <v>2.1844814070805318</v>
+      </c>
+      <c r="BA7" s="18">
+        <f>'psgr-Road'!BE31</f>
+        <v>2.1910714436470555</v>
       </c>
     </row>
   </sheetData>
@@ -4039,18 +5194,18 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AG7"/>
+  <dimension ref="A1:BA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AY10" sqref="AY10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="72">
+    <row r="1" spans="1:53" ht="71.25">
       <c r="A1" s="23" t="s">
         <v>71</v>
       </c>
@@ -4150,8 +5305,68 @@
       <c r="AG1">
         <v>2050</v>
       </c>
-    </row>
-    <row r="2" spans="1:33">
+      <c r="AH1">
+        <v>2051</v>
+      </c>
+      <c r="AI1">
+        <v>2052</v>
+      </c>
+      <c r="AJ1">
+        <v>2053</v>
+      </c>
+      <c r="AK1">
+        <v>2054</v>
+      </c>
+      <c r="AL1">
+        <v>2055</v>
+      </c>
+      <c r="AM1">
+        <v>2056</v>
+      </c>
+      <c r="AN1">
+        <v>2057</v>
+      </c>
+      <c r="AO1">
+        <v>2058</v>
+      </c>
+      <c r="AP1">
+        <v>2059</v>
+      </c>
+      <c r="AQ1">
+        <v>2060</v>
+      </c>
+      <c r="AR1">
+        <v>2061</v>
+      </c>
+      <c r="AS1">
+        <v>2062</v>
+      </c>
+      <c r="AT1">
+        <v>2063</v>
+      </c>
+      <c r="AU1">
+        <v>2064</v>
+      </c>
+      <c r="AV1">
+        <v>2065</v>
+      </c>
+      <c r="AW1">
+        <v>2066</v>
+      </c>
+      <c r="AX1">
+        <v>2067</v>
+      </c>
+      <c r="AY1">
+        <v>2068</v>
+      </c>
+      <c r="AZ1">
+        <v>2069</v>
+      </c>
+      <c r="BA1">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4283,8 +5498,88 @@
         <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(AI2),1)</f>
         <v>1.7340561831988981</v>
       </c>
-    </row>
-    <row r="3" spans="1:33">
+      <c r="AH2" s="18">
+        <f>INDEX('frgt-Road'!$I12:$I68,COLUMN(AJ2),1)</f>
+        <v>1.7505122683368699</v>
+      </c>
+      <c r="AI2" s="18">
+        <f>INDEX('frgt-Road'!$I12:$I68,COLUMN(AK2),1)</f>
+        <v>1.7667977843166804</v>
+      </c>
+      <c r="AJ2" s="18">
+        <f>INDEX('frgt-Road'!$I12:$I68,COLUMN(AL2),1)</f>
+        <v>1.7831036240616382</v>
+      </c>
+      <c r="AK2" s="18">
+        <f>INDEX('frgt-Road'!$I12:$I68,COLUMN(AM2),1)</f>
+        <v>1.7994090553913873</v>
+      </c>
+      <c r="AL2" s="18">
+        <f>INDEX('frgt-Road'!$I12:$I68,COLUMN(AN2),1)</f>
+        <v>1.8157144867211359</v>
+      </c>
+      <c r="AM2" s="18">
+        <f>INDEX('frgt-Road'!$I12:$I68,COLUMN(AO2),1)</f>
+        <v>1.8320199180508845</v>
+      </c>
+      <c r="AN2" s="18">
+        <f>INDEX('frgt-Road'!$I12:$I68,COLUMN(AP2),1)</f>
+        <v>1.8483253493806333</v>
+      </c>
+      <c r="AO2" s="18">
+        <f>INDEX('frgt-Road'!$I12:$I68,COLUMN(AQ2),1)</f>
+        <v>1.8646307807103819</v>
+      </c>
+      <c r="AP2" s="18">
+        <f>INDEX('frgt-Road'!$I12:$I68,COLUMN(AR2),1)</f>
+        <v>1.8809362120401307</v>
+      </c>
+      <c r="AQ2" s="18">
+        <f>INDEX('frgt-Road'!$I12:$I68,COLUMN(AS2),1)</f>
+        <v>1.8972416433698795</v>
+      </c>
+      <c r="AR2" s="18">
+        <f>INDEX('frgt-Road'!$I12:$I68,COLUMN(AT2),1)</f>
+        <v>1.9135470746996281</v>
+      </c>
+      <c r="AS2" s="18">
+        <f>INDEX('frgt-Road'!$I12:$I68,COLUMN(AU2),1)</f>
+        <v>1.9298525060293767</v>
+      </c>
+      <c r="AT2" s="18">
+        <f>INDEX('frgt-Road'!$I12:$I68,COLUMN(AV2),1)</f>
+        <v>1.9461579373591256</v>
+      </c>
+      <c r="AU2" s="18">
+        <f>INDEX('frgt-Road'!$I12:$I68,COLUMN(AW2),1)</f>
+        <v>1.9624633686888744</v>
+      </c>
+      <c r="AV2" s="18">
+        <f>INDEX('frgt-Road'!$I12:$I68,COLUMN(AX2),1)</f>
+        <v>1.978768800018623</v>
+      </c>
+      <c r="AW2" s="18">
+        <f>INDEX('frgt-Road'!$I12:$I68,COLUMN(AY2),1)</f>
+        <v>1.9950742313483718</v>
+      </c>
+      <c r="AX2" s="18">
+        <f>INDEX('frgt-Road'!$I12:$I68,COLUMN(AZ2),1)</f>
+        <v>2.0113796626781206</v>
+      </c>
+      <c r="AY2" s="18">
+        <f>INDEX('frgt-Road'!$I12:$I68,COLUMN(BA2),1)</f>
+        <v>2.027685094007869</v>
+      </c>
+      <c r="AZ2" s="18">
+        <f>INDEX('frgt-Road'!$I12:$I68,COLUMN(BB2),1)</f>
+        <v>2.0439905253376178</v>
+      </c>
+      <c r="BA2" s="18">
+        <f>INDEX('frgt-Road'!$I12:$I68,COLUMN(BC2),1)</f>
+        <v>2.0602959566673666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4416,8 +5711,88 @@
         <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(AI2),1)</f>
         <v>1.4928983769706645</v>
       </c>
-    </row>
-    <row r="4" spans="1:33">
+      <c r="AH3" s="18">
+        <f>INDEX('frgt-Road'!$J12:$J68,COLUMN(AJ2),1)</f>
+        <v>1.5087758979328372</v>
+      </c>
+      <c r="AI3" s="18">
+        <f>INDEX('frgt-Road'!$J12:$J68,COLUMN(AK2),1)</f>
+        <v>1.5127769636158588</v>
+      </c>
+      <c r="AJ3" s="18">
+        <f>INDEX('frgt-Road'!$J12:$J68,COLUMN(AL2),1)</f>
+        <v>1.5300540901980531</v>
+      </c>
+      <c r="AK3" s="18">
+        <f>INDEX('frgt-Road'!$J12:$J68,COLUMN(AM2),1)</f>
+        <v>1.5454816174375088</v>
+      </c>
+      <c r="AL3" s="18">
+        <f>INDEX('frgt-Road'!$J12:$J68,COLUMN(AN2),1)</f>
+        <v>1.5609091446769645</v>
+      </c>
+      <c r="AM3" s="18">
+        <f>INDEX('frgt-Road'!$J12:$J68,COLUMN(AO2),1)</f>
+        <v>1.5763366719164207</v>
+      </c>
+      <c r="AN3" s="18">
+        <f>INDEX('frgt-Road'!$J12:$J68,COLUMN(AP2),1)</f>
+        <v>1.5917641991558769</v>
+      </c>
+      <c r="AO3" s="18">
+        <f>INDEX('frgt-Road'!$J12:$J68,COLUMN(AQ2),1)</f>
+        <v>1.6071917263953328</v>
+      </c>
+      <c r="AP3" s="18">
+        <f>INDEX('frgt-Road'!$J12:$J68,COLUMN(AR2),1)</f>
+        <v>1.6226192536347885</v>
+      </c>
+      <c r="AQ3" s="18">
+        <f>INDEX('frgt-Road'!$J12:$J68,COLUMN(AS2),1)</f>
+        <v>1.6380467808742445</v>
+      </c>
+      <c r="AR3" s="18">
+        <f>INDEX('frgt-Road'!$J12:$J68,COLUMN(AT2),1)</f>
+        <v>1.6534743081137004</v>
+      </c>
+      <c r="AS3" s="18">
+        <f>INDEX('frgt-Road'!$J12:$J68,COLUMN(AU2),1)</f>
+        <v>1.6689018353531566</v>
+      </c>
+      <c r="AT3" s="18">
+        <f>INDEX('frgt-Road'!$J12:$J68,COLUMN(AV2),1)</f>
+        <v>1.6843293625926128</v>
+      </c>
+      <c r="AU3" s="18">
+        <f>INDEX('frgt-Road'!$J12:$J68,COLUMN(AW2),1)</f>
+        <v>1.6997568898320687</v>
+      </c>
+      <c r="AV3" s="18">
+        <f>INDEX('frgt-Road'!$J12:$J68,COLUMN(AX2),1)</f>
+        <v>1.7151844170715249</v>
+      </c>
+      <c r="AW3" s="18">
+        <f>INDEX('frgt-Road'!$J12:$J68,COLUMN(AY2),1)</f>
+        <v>1.7306119443109806</v>
+      </c>
+      <c r="AX3" s="18">
+        <f>INDEX('frgt-Road'!$J12:$J68,COLUMN(AZ2),1)</f>
+        <v>1.7460394715504366</v>
+      </c>
+      <c r="AY3" s="18">
+        <f>INDEX('frgt-Road'!$J12:$J68,COLUMN(BA2),1)</f>
+        <v>1.7614669987898925</v>
+      </c>
+      <c r="AZ3" s="18">
+        <f>INDEX('frgt-Road'!$J12:$J68,COLUMN(BB2),1)</f>
+        <v>1.7768945260293487</v>
+      </c>
+      <c r="BA3" s="18">
+        <f>INDEX('frgt-Road'!$J12:$J68,COLUMN(BC2),1)</f>
+        <v>1.7923220532688049</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -4549,8 +5924,88 @@
         <f>'frgt-Air'!AM10</f>
         <v>1.3139868134621708</v>
       </c>
-    </row>
-    <row r="5" spans="1:33">
+      <c r="AH4" s="18">
+        <f>'frgt-Air'!AN10</f>
+        <v>1.3437438121594802</v>
+      </c>
+      <c r="AI4" s="18">
+        <f>'frgt-Air'!AO10</f>
+        <v>1.3715941739526447</v>
+      </c>
+      <c r="AJ4" s="18">
+        <f>'frgt-Air'!AP10</f>
+        <v>1.3994445357458096</v>
+      </c>
+      <c r="AK4" s="18">
+        <f>'frgt-Air'!AQ10</f>
+        <v>1.4272948975389743</v>
+      </c>
+      <c r="AL4" s="18">
+        <f>'frgt-Air'!AR10</f>
+        <v>1.4551452593321388</v>
+      </c>
+      <c r="AM4" s="18">
+        <f>'frgt-Air'!AS10</f>
+        <v>1.4829956211253035</v>
+      </c>
+      <c r="AN4" s="18">
+        <f>'frgt-Air'!AT10</f>
+        <v>1.5108459829184682</v>
+      </c>
+      <c r="AO4" s="18">
+        <f>'frgt-Air'!AU10</f>
+        <v>1.5386963447116329</v>
+      </c>
+      <c r="AP4" s="18">
+        <f>'frgt-Air'!AV10</f>
+        <v>1.5665467065047975</v>
+      </c>
+      <c r="AQ4" s="18">
+        <f>'frgt-Air'!AW10</f>
+        <v>1.5943970682979622</v>
+      </c>
+      <c r="AR4" s="18">
+        <f>'frgt-Air'!AX10</f>
+        <v>1.6222474300911267</v>
+      </c>
+      <c r="AS4" s="18">
+        <f>'frgt-Air'!AY10</f>
+        <v>1.6500977918842916</v>
+      </c>
+      <c r="AT4" s="18">
+        <f>'frgt-Air'!AZ10</f>
+        <v>1.6779481536774563</v>
+      </c>
+      <c r="AU4" s="18">
+        <f>'frgt-Air'!BA10</f>
+        <v>1.7057985154706208</v>
+      </c>
+      <c r="AV4" s="18">
+        <f>'frgt-Air'!BB10</f>
+        <v>1.7336488772637857</v>
+      </c>
+      <c r="AW4" s="18">
+        <f>'frgt-Air'!BC10</f>
+        <v>1.7614992390569502</v>
+      </c>
+      <c r="AX4" s="18">
+        <f>'frgt-Air'!BD10</f>
+        <v>1.7893496008501149</v>
+      </c>
+      <c r="AY4" s="18">
+        <f>'frgt-Air'!BE10</f>
+        <v>1.8171999626432798</v>
+      </c>
+      <c r="AZ4" s="18">
+        <f>'frgt-Air'!BF10</f>
+        <v>1.8450503244364442</v>
+      </c>
+      <c r="BA4" s="18">
+        <f>'frgt-Air'!BG10</f>
+        <v>1.8729006862296089</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4682,8 +6137,88 @@
         <f>'frgt-Rail'!AM10</f>
         <v>3.424221166570248</v>
       </c>
-    </row>
-    <row r="6" spans="1:33">
+      <c r="AH5" s="18">
+        <f>'frgt-Rail'!AN10</f>
+        <v>3.5479687437822425</v>
+      </c>
+      <c r="AI5" s="18">
+        <f>'frgt-Rail'!AO10</f>
+        <v>3.679454481275199</v>
+      </c>
+      <c r="AJ5" s="18">
+        <f>'frgt-Rail'!AP10</f>
+        <v>3.810940218768156</v>
+      </c>
+      <c r="AK5" s="18">
+        <f>'frgt-Rail'!AQ10</f>
+        <v>3.9424259562611126</v>
+      </c>
+      <c r="AL5" s="18">
+        <f>'frgt-Rail'!AR10</f>
+        <v>4.07391169375407</v>
+      </c>
+      <c r="AM5" s="18">
+        <f>'frgt-Rail'!AS10</f>
+        <v>4.2053974312470261</v>
+      </c>
+      <c r="AN5" s="18">
+        <f>'frgt-Rail'!AT10</f>
+        <v>4.3368831687399831</v>
+      </c>
+      <c r="AO5" s="18">
+        <f>'frgt-Rail'!AU10</f>
+        <v>4.4683689062329401</v>
+      </c>
+      <c r="AP5" s="18">
+        <f>'frgt-Rail'!AV10</f>
+        <v>4.5998546437258971</v>
+      </c>
+      <c r="AQ5" s="18">
+        <f>'frgt-Rail'!AW10</f>
+        <v>4.7313403812188541</v>
+      </c>
+      <c r="AR5" s="18">
+        <f>'frgt-Rail'!AX10</f>
+        <v>4.8628261187118111</v>
+      </c>
+      <c r="AS5" s="18">
+        <f>'frgt-Rail'!AY10</f>
+        <v>4.9943118562047673</v>
+      </c>
+      <c r="AT5" s="18">
+        <f>'frgt-Rail'!AZ10</f>
+        <v>5.1257975936977243</v>
+      </c>
+      <c r="AU5" s="18">
+        <f>'frgt-Rail'!BA10</f>
+        <v>5.2572833311906813</v>
+      </c>
+      <c r="AV5" s="18">
+        <f>'frgt-Rail'!BB10</f>
+        <v>5.3887690686836391</v>
+      </c>
+      <c r="AW5" s="18">
+        <f>'frgt-Rail'!BC10</f>
+        <v>5.5202548061765944</v>
+      </c>
+      <c r="AX5" s="18">
+        <f>'frgt-Rail'!BD10</f>
+        <v>5.6517405436695523</v>
+      </c>
+      <c r="AY5" s="18">
+        <f>'frgt-Rail'!BE10</f>
+        <v>5.7832262811625093</v>
+      </c>
+      <c r="AZ5" s="18">
+        <f>'frgt-Rail'!BF10</f>
+        <v>5.9147120186554654</v>
+      </c>
+      <c r="BA5" s="18">
+        <f>'frgt-Rail'!BG10</f>
+        <v>6.0461977561484233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4815,8 +6350,88 @@
         <f>'frgt-Ship'!AM10</f>
         <v>1.9365882958178589</v>
       </c>
-    </row>
-    <row r="7" spans="1:33">
+      <c r="AH6" s="18">
+        <f>'frgt-Ship'!AN10</f>
+        <v>1.9461492112319403</v>
+      </c>
+      <c r="AI6" s="18">
+        <f>'frgt-Ship'!AO10</f>
+        <v>1.9539040897675028</v>
+      </c>
+      <c r="AJ6" s="18">
+        <f>'frgt-Ship'!AP10</f>
+        <v>1.961658968303065</v>
+      </c>
+      <c r="AK6" s="18">
+        <f>'frgt-Ship'!AQ10</f>
+        <v>1.9694138468386275</v>
+      </c>
+      <c r="AL6" s="18">
+        <f>'frgt-Ship'!AR10</f>
+        <v>1.9771687253741901</v>
+      </c>
+      <c r="AM6" s="18">
+        <f>'frgt-Ship'!AS10</f>
+        <v>1.9849236039097522</v>
+      </c>
+      <c r="AN6" s="18">
+        <f>'frgt-Ship'!AT10</f>
+        <v>1.9926784824453145</v>
+      </c>
+      <c r="AO6" s="18">
+        <f>'frgt-Ship'!AU10</f>
+        <v>2.0004333609808769</v>
+      </c>
+      <c r="AP6" s="18">
+        <f>'frgt-Ship'!AV10</f>
+        <v>2.0081882395164397</v>
+      </c>
+      <c r="AQ6" s="18">
+        <f>'frgt-Ship'!AW10</f>
+        <v>2.0159431180520015</v>
+      </c>
+      <c r="AR6" s="18">
+        <f>'frgt-Ship'!AX10</f>
+        <v>2.0236979965875639</v>
+      </c>
+      <c r="AS6" s="18">
+        <f>'frgt-Ship'!AY10</f>
+        <v>2.0314528751231262</v>
+      </c>
+      <c r="AT6" s="18">
+        <f>'frgt-Ship'!AZ10</f>
+        <v>2.039207753658689</v>
+      </c>
+      <c r="AU6" s="18">
+        <f>'frgt-Ship'!BA10</f>
+        <v>2.0469626321942513</v>
+      </c>
+      <c r="AV6" s="18">
+        <f>'frgt-Ship'!BB10</f>
+        <v>2.0547175107298137</v>
+      </c>
+      <c r="AW6" s="18">
+        <f>'frgt-Ship'!BC10</f>
+        <v>2.0624723892653756</v>
+      </c>
+      <c r="AX6" s="18">
+        <f>'frgt-Ship'!BD10</f>
+        <v>2.0702272678009384</v>
+      </c>
+      <c r="AY6" s="18">
+        <f>'frgt-Ship'!BE10</f>
+        <v>2.0779821463365007</v>
+      </c>
+      <c r="AZ6" s="18">
+        <f>'frgt-Ship'!BF10</f>
+        <v>2.085737024872063</v>
+      </c>
+      <c r="BA6" s="18">
+        <f>'frgt-Ship'!BG10</f>
+        <v>2.0934919034076254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4914,6 +6529,66 @@
         <v>0</v>
       </c>
       <c r="AG7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="18">
         <v>0</v>
       </c>
     </row>
@@ -4930,7 +6605,7 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
@@ -4982,7 +6657,7 @@
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -5027,48 +6702,50 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AK31"/>
+  <dimension ref="A1:BE31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="BF13" sqref="BF13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="51.88671875" customWidth="1"/>
-    <col min="2" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="37" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.86328125" customWidth="1"/>
+    <col min="2" max="4" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="37" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="39" max="57" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:57">
       <c r="A1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:57">
       <c r="A2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:57">
       <c r="A4" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:57">
       <c r="A5" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:57">
       <c r="A6" s="11"/>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:57">
       <c r="A7" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:57">
       <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
@@ -5180,8 +6857,68 @@
       <c r="AK9" s="5">
         <v>2050</v>
       </c>
-    </row>
-    <row r="10" spans="1:37">
+      <c r="AL9" s="5">
+        <v>2051</v>
+      </c>
+      <c r="AM9" s="5">
+        <v>2052</v>
+      </c>
+      <c r="AN9" s="5">
+        <v>2053</v>
+      </c>
+      <c r="AO9" s="5">
+        <v>2054</v>
+      </c>
+      <c r="AP9" s="5">
+        <v>2055</v>
+      </c>
+      <c r="AQ9" s="5">
+        <v>2056</v>
+      </c>
+      <c r="AR9" s="5">
+        <v>2057</v>
+      </c>
+      <c r="AS9" s="5">
+        <v>2058</v>
+      </c>
+      <c r="AT9" s="5">
+        <v>2059</v>
+      </c>
+      <c r="AU9" s="5">
+        <v>2060</v>
+      </c>
+      <c r="AV9" s="5">
+        <v>2061</v>
+      </c>
+      <c r="AW9" s="5">
+        <v>2062</v>
+      </c>
+      <c r="AX9" s="5">
+        <v>2063</v>
+      </c>
+      <c r="AY9" s="5">
+        <v>2064</v>
+      </c>
+      <c r="AZ9" s="5">
+        <v>2065</v>
+      </c>
+      <c r="BA9" s="5">
+        <v>2066</v>
+      </c>
+      <c r="BB9" s="5">
+        <v>2067</v>
+      </c>
+      <c r="BC9" s="5">
+        <v>2068</v>
+      </c>
+      <c r="BD9" s="5">
+        <v>2069</v>
+      </c>
+      <c r="BE9" s="5">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="10" spans="1:57">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -5293,8 +7030,88 @@
       <c r="AK10" s="12">
         <v>43142734.209600016</v>
       </c>
-    </row>
-    <row r="11" spans="1:37">
+      <c r="AL10">
+        <f>_xlfn.FORECAST.ETS(AL$9,$B10:$AK10,$B$9:$AK$9)</f>
+        <v>43126099.008038618</v>
+      </c>
+      <c r="AM10">
+        <f>_xlfn.FORECAST.ETS(AM$9,$B10:$AK10,$B$9:$AK$9)</f>
+        <v>43110127.890250996</v>
+      </c>
+      <c r="AN10">
+        <f t="shared" ref="AN10:BE13" si="0">_xlfn.FORECAST.ETS(AN$9,$B10:$AK10,$B$9:$AK$9)</f>
+        <v>43094156.772463366</v>
+      </c>
+      <c r="AO10">
+        <f t="shared" si="0"/>
+        <v>43078185.654675737</v>
+      </c>
+      <c r="AP10">
+        <f t="shared" si="0"/>
+        <v>43062214.536888115</v>
+      </c>
+      <c r="AQ10">
+        <f t="shared" si="0"/>
+        <v>43046243.419100486</v>
+      </c>
+      <c r="AR10">
+        <f t="shared" si="0"/>
+        <v>43030272.301312864</v>
+      </c>
+      <c r="AS10">
+        <f t="shared" si="0"/>
+        <v>43014301.183525234</v>
+      </c>
+      <c r="AT10">
+        <f t="shared" si="0"/>
+        <v>42998330.065737605</v>
+      </c>
+      <c r="AU10">
+        <f t="shared" si="0"/>
+        <v>42982358.947949983</v>
+      </c>
+      <c r="AV10">
+        <f t="shared" si="0"/>
+        <v>42966387.830162354</v>
+      </c>
+      <c r="AW10">
+        <f t="shared" si="0"/>
+        <v>42950416.712374732</v>
+      </c>
+      <c r="AX10">
+        <f t="shared" si="0"/>
+        <v>42934445.594587103</v>
+      </c>
+      <c r="AY10">
+        <f t="shared" si="0"/>
+        <v>42918474.476799473</v>
+      </c>
+      <c r="AZ10">
+        <f t="shared" si="0"/>
+        <v>42902503.359011851</v>
+      </c>
+      <c r="BA10">
+        <f t="shared" si="0"/>
+        <v>42886532.241224222</v>
+      </c>
+      <c r="BB10">
+        <f t="shared" si="0"/>
+        <v>42870561.123436593</v>
+      </c>
+      <c r="BC10">
+        <f t="shared" si="0"/>
+        <v>42854590.005648971</v>
+      </c>
+      <c r="BD10">
+        <f t="shared" si="0"/>
+        <v>42838618.887861341</v>
+      </c>
+      <c r="BE10">
+        <f t="shared" si="0"/>
+        <v>42822647.770073712</v>
+      </c>
+    </row>
+    <row r="11" spans="1:57">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -5406,8 +7223,88 @@
       <c r="AK11" s="12">
         <v>6132</v>
       </c>
-    </row>
-    <row r="12" spans="1:37">
+      <c r="AL11" s="24">
+        <f>_xlfn.FORECAST.ETS(AL$9,$B11:$AK11,$B$9:$AK$9)</f>
+        <v>3952.6713359210848</v>
+      </c>
+      <c r="AM11" s="24">
+        <f t="shared" ref="AM11:AM13" si="1">_xlfn.FORECAST.ETS(AM$9,$B11:$AK11,$B$9:$AK$9)</f>
+        <v>1776.0439092894344</v>
+      </c>
+      <c r="AN11" s="24">
+        <f t="shared" si="0"/>
+        <v>-400.58351734180309</v>
+      </c>
+      <c r="AO11" s="24">
+        <f t="shared" si="0"/>
+        <v>-2577.2109439734536</v>
+      </c>
+      <c r="AP11" s="24">
+        <f t="shared" si="0"/>
+        <v>-4753.8383706046898</v>
+      </c>
+      <c r="AQ11" s="24">
+        <f t="shared" si="0"/>
+        <v>-6930.465797236342</v>
+      </c>
+      <c r="AR11" s="24">
+        <f t="shared" si="0"/>
+        <v>-9107.0932238675796</v>
+      </c>
+      <c r="AS11" s="24">
+        <f t="shared" si="0"/>
+        <v>-11283.72065049923</v>
+      </c>
+      <c r="AT11" s="24">
+        <f t="shared" si="0"/>
+        <v>-13460.348077130466</v>
+      </c>
+      <c r="AU11" s="24">
+        <f t="shared" si="0"/>
+        <v>-15636.975503762116</v>
+      </c>
+      <c r="AV11" s="24">
+        <f t="shared" si="0"/>
+        <v>-17813.602930393357</v>
+      </c>
+      <c r="AW11" s="24">
+        <f t="shared" si="0"/>
+        <v>-19990.230357025004</v>
+      </c>
+      <c r="AX11" s="24">
+        <f t="shared" si="0"/>
+        <v>-22166.857783656244</v>
+      </c>
+      <c r="AY11" s="24">
+        <f t="shared" si="0"/>
+        <v>-24343.485210287894</v>
+      </c>
+      <c r="AZ11" s="24">
+        <f t="shared" si="0"/>
+        <v>-26520.112636919133</v>
+      </c>
+      <c r="BA11" s="24">
+        <f t="shared" si="0"/>
+        <v>-28696.74006355078</v>
+      </c>
+      <c r="BB11" s="24">
+        <f t="shared" si="0"/>
+        <v>-30873.36749018202</v>
+      </c>
+      <c r="BC11" s="24">
+        <f t="shared" si="0"/>
+        <v>-33049.994916813666</v>
+      </c>
+      <c r="BD11" s="24">
+        <f t="shared" si="0"/>
+        <v>-35226.622343444906</v>
+      </c>
+      <c r="BE11" s="24">
+        <f t="shared" si="0"/>
+        <v>-37403.249770076553</v>
+      </c>
+    </row>
+    <row r="12" spans="1:57">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -5519,8 +7416,88 @@
       <c r="AK12" s="12">
         <v>584844513.65279996</v>
       </c>
-    </row>
-    <row r="13" spans="1:37">
+      <c r="AL12" s="24">
+        <f>_xlfn.FORECAST.ETS(AL$9,$B12:$AK12,$B$9:$AK$9)</f>
+        <v>530942109.15174592</v>
+      </c>
+      <c r="AM12" s="24">
+        <f t="shared" si="1"/>
+        <v>477657600.61346012</v>
+      </c>
+      <c r="AN12" s="24">
+        <f t="shared" si="0"/>
+        <v>424373092.07517433</v>
+      </c>
+      <c r="AO12" s="24">
+        <f t="shared" si="0"/>
+        <v>371088583.5368886</v>
+      </c>
+      <c r="AP12" s="24">
+        <f t="shared" si="0"/>
+        <v>317804074.99860287</v>
+      </c>
+      <c r="AQ12" s="24">
+        <f t="shared" si="0"/>
+        <v>264519566.46031708</v>
+      </c>
+      <c r="AR12" s="24">
+        <f t="shared" si="0"/>
+        <v>211235057.92203128</v>
+      </c>
+      <c r="AS12" s="24">
+        <f t="shared" si="0"/>
+        <v>157950549.38374555</v>
+      </c>
+      <c r="AT12" s="24">
+        <f t="shared" si="0"/>
+        <v>104666040.84545982</v>
+      </c>
+      <c r="AU12" s="24">
+        <f t="shared" si="0"/>
+        <v>51381532.307174034</v>
+      </c>
+      <c r="AV12" s="24">
+        <f t="shared" si="0"/>
+        <v>-1902976.2311117703</v>
+      </c>
+      <c r="AW12" s="24">
+        <f t="shared" si="0"/>
+        <v>-55187484.76939749</v>
+      </c>
+      <c r="AX12" s="24">
+        <f t="shared" si="0"/>
+        <v>-108471993.30768323</v>
+      </c>
+      <c r="AY12" s="24">
+        <f t="shared" si="0"/>
+        <v>-161756501.84596908</v>
+      </c>
+      <c r="AZ12" s="24">
+        <f t="shared" si="0"/>
+        <v>-215041010.38425481</v>
+      </c>
+      <c r="BA12" s="24">
+        <f t="shared" si="0"/>
+        <v>-268325518.92254055</v>
+      </c>
+      <c r="BB12" s="24">
+        <f t="shared" si="0"/>
+        <v>-321610027.46082628</v>
+      </c>
+      <c r="BC12" s="24">
+        <f t="shared" si="0"/>
+        <v>-374894535.99911201</v>
+      </c>
+      <c r="BD12" s="24">
+        <f t="shared" si="0"/>
+        <v>-428179044.53739786</v>
+      </c>
+      <c r="BE12" s="24">
+        <f t="shared" si="0"/>
+        <v>-481463553.07568359</v>
+      </c>
+    </row>
+    <row r="13" spans="1:57">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -5632,8 +7609,88 @@
       <c r="AK13" s="12">
         <v>759410125.41600001</v>
       </c>
-    </row>
-    <row r="14" spans="1:37">
+      <c r="AL13">
+        <f>_xlfn.FORECAST.ETS(AL$9,$B13:$AK13,$B$9:$AK$9)</f>
+        <v>807264646.60744405</v>
+      </c>
+      <c r="AM13">
+        <f t="shared" si="1"/>
+        <v>858241495.23508525</v>
+      </c>
+      <c r="AN13">
+        <f t="shared" si="0"/>
+        <v>909218343.86272657</v>
+      </c>
+      <c r="AO13">
+        <f t="shared" si="0"/>
+        <v>960195192.49036777</v>
+      </c>
+      <c r="AP13">
+        <f t="shared" si="0"/>
+        <v>1011172041.118009</v>
+      </c>
+      <c r="AQ13">
+        <f t="shared" si="0"/>
+        <v>1062148889.7456503</v>
+      </c>
+      <c r="AR13">
+        <f t="shared" si="0"/>
+        <v>1113125738.3732915</v>
+      </c>
+      <c r="AS13">
+        <f t="shared" si="0"/>
+        <v>1164102587.0009327</v>
+      </c>
+      <c r="AT13">
+        <f t="shared" si="0"/>
+        <v>1215079435.6285739</v>
+      </c>
+      <c r="AU13">
+        <f t="shared" si="0"/>
+        <v>1266056284.2562151</v>
+      </c>
+      <c r="AV13">
+        <f t="shared" si="0"/>
+        <v>1317033132.8838563</v>
+      </c>
+      <c r="AW13">
+        <f t="shared" si="0"/>
+        <v>1368009981.5114975</v>
+      </c>
+      <c r="AX13">
+        <f t="shared" si="0"/>
+        <v>1418986830.1391387</v>
+      </c>
+      <c r="AY13">
+        <f t="shared" si="0"/>
+        <v>1469963678.7667801</v>
+      </c>
+      <c r="AZ13">
+        <f t="shared" si="0"/>
+        <v>1520940527.3944213</v>
+      </c>
+      <c r="BA13">
+        <f t="shared" si="0"/>
+        <v>1571917376.0220625</v>
+      </c>
+      <c r="BB13">
+        <f t="shared" si="0"/>
+        <v>1622894224.6497037</v>
+      </c>
+      <c r="BC13">
+        <f t="shared" si="0"/>
+        <v>1673871073.2773449</v>
+      </c>
+      <c r="BD13">
+        <f t="shared" si="0"/>
+        <v>1724847921.9049864</v>
+      </c>
+      <c r="BE13">
+        <f t="shared" si="0"/>
+        <v>1775824770.5326276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:57">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -5745,8 +7802,68 @@
       <c r="AK14" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:37">
+      <c r="AL14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD14" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:57">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -5858,8 +7975,88 @@
       <c r="AK15" s="12">
         <v>31726403.625600003</v>
       </c>
-    </row>
-    <row r="16" spans="1:37">
+      <c r="AL15">
+        <f>_xlfn.FORECAST.ETS(AL$9,$AA15:$AK15,$AA$9:$AK$9)</f>
+        <v>36526243.387515634</v>
+      </c>
+      <c r="AM15">
+        <f t="shared" ref="AM15:BE15" si="2">_xlfn.FORECAST.ETS(AM$9,$AA15:$AK15,$AA$9:$AK$9)</f>
+        <v>41350044.825934231</v>
+      </c>
+      <c r="AN15">
+        <f t="shared" si="2"/>
+        <v>46173846.264352828</v>
+      </c>
+      <c r="AO15">
+        <f t="shared" si="2"/>
+        <v>50997647.702771425</v>
+      </c>
+      <c r="AP15">
+        <f t="shared" si="2"/>
+        <v>55821449.141190022</v>
+      </c>
+      <c r="AQ15">
+        <f t="shared" si="2"/>
+        <v>60645250.579608619</v>
+      </c>
+      <c r="AR15">
+        <f t="shared" si="2"/>
+        <v>65469052.018027216</v>
+      </c>
+      <c r="AS15">
+        <f t="shared" si="2"/>
+        <v>70292853.456445813</v>
+      </c>
+      <c r="AT15">
+        <f t="shared" si="2"/>
+        <v>75116654.89486441</v>
+      </c>
+      <c r="AU15">
+        <f t="shared" si="2"/>
+        <v>79940456.333283007</v>
+      </c>
+      <c r="AV15">
+        <f t="shared" si="2"/>
+        <v>84764257.771701604</v>
+      </c>
+      <c r="AW15">
+        <f t="shared" si="2"/>
+        <v>89588059.210120201</v>
+      </c>
+      <c r="AX15">
+        <f t="shared" si="2"/>
+        <v>94411860.648538798</v>
+      </c>
+      <c r="AY15">
+        <f t="shared" si="2"/>
+        <v>99235662.086957395</v>
+      </c>
+      <c r="AZ15">
+        <f t="shared" si="2"/>
+        <v>104059463.52537599</v>
+      </c>
+      <c r="BA15">
+        <f t="shared" si="2"/>
+        <v>108883264.96379459</v>
+      </c>
+      <c r="BB15">
+        <f t="shared" si="2"/>
+        <v>113707066.40221319</v>
+      </c>
+      <c r="BC15">
+        <f t="shared" si="2"/>
+        <v>118530867.84063178</v>
+      </c>
+      <c r="BD15">
+        <f t="shared" si="2"/>
+        <v>123354669.27905038</v>
+      </c>
+      <c r="BE15">
+        <f t="shared" si="2"/>
+        <v>128178470.71746898</v>
+      </c>
+    </row>
+    <row r="16" spans="1:57">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -5971,8 +8168,88 @@
       <c r="AK16" s="12">
         <v>75065821.800000012</v>
       </c>
-    </row>
-    <row r="17" spans="1:37">
+      <c r="AL16">
+        <f t="shared" ref="AL16:BA24" si="3">_xlfn.FORECAST.ETS(AL$9,$B16:$AK16,$B$9:$AK$9)</f>
+        <v>76553687.588376924</v>
+      </c>
+      <c r="AM16">
+        <f t="shared" si="3"/>
+        <v>78041967.935434446</v>
+      </c>
+      <c r="AN16">
+        <f t="shared" si="3"/>
+        <v>79530248.282491982</v>
+      </c>
+      <c r="AO16">
+        <f t="shared" si="3"/>
+        <v>81018528.629549503</v>
+      </c>
+      <c r="AP16">
+        <f t="shared" si="3"/>
+        <v>82506808.97660704</v>
+      </c>
+      <c r="AQ16">
+        <f t="shared" si="3"/>
+        <v>83995089.323664561</v>
+      </c>
+      <c r="AR16">
+        <f t="shared" si="3"/>
+        <v>85483369.670722097</v>
+      </c>
+      <c r="AS16">
+        <f t="shared" si="3"/>
+        <v>86971650.017779619</v>
+      </c>
+      <c r="AT16">
+        <f t="shared" si="3"/>
+        <v>88459930.364837155</v>
+      </c>
+      <c r="AU16">
+        <f t="shared" si="3"/>
+        <v>89948210.711894691</v>
+      </c>
+      <c r="AV16">
+        <f t="shared" si="3"/>
+        <v>91436491.058952212</v>
+      </c>
+      <c r="AW16">
+        <f t="shared" si="3"/>
+        <v>92924771.406009734</v>
+      </c>
+      <c r="AX16">
+        <f t="shared" si="3"/>
+        <v>94413051.75306727</v>
+      </c>
+      <c r="AY16">
+        <f t="shared" si="3"/>
+        <v>95901332.100124806</v>
+      </c>
+      <c r="AZ16">
+        <f t="shared" si="3"/>
+        <v>97389612.447182328</v>
+      </c>
+      <c r="BA16">
+        <f t="shared" si="3"/>
+        <v>98877892.794239864</v>
+      </c>
+      <c r="BB16">
+        <f t="shared" ref="BB16:BE24" si="4">_xlfn.FORECAST.ETS(BB$9,$B16:$AK16,$B$9:$AK$9)</f>
+        <v>100366173.14129739</v>
+      </c>
+      <c r="BC16">
+        <f t="shared" si="4"/>
+        <v>101854453.48835492</v>
+      </c>
+      <c r="BD16">
+        <f t="shared" si="4"/>
+        <v>103342733.83541244</v>
+      </c>
+      <c r="BE16">
+        <f t="shared" si="4"/>
+        <v>104831014.18246998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:57">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -6084,8 +8361,88 @@
       <c r="AK17" s="12">
         <v>339</v>
       </c>
-    </row>
-    <row r="18" spans="1:37">
+      <c r="AL17" s="24">
+        <f t="shared" si="3"/>
+        <v>153.17517794080695</v>
+      </c>
+      <c r="AM17" s="24">
+        <f t="shared" si="3"/>
+        <v>-32.477519366991046</v>
+      </c>
+      <c r="AN17" s="24">
+        <f t="shared" si="3"/>
+        <v>-218.13021667474933</v>
+      </c>
+      <c r="AO17" s="24">
+        <f t="shared" si="3"/>
+        <v>-403.78291398254737</v>
+      </c>
+      <c r="AP17" s="24">
+        <f t="shared" si="3"/>
+        <v>-589.43561129030581</v>
+      </c>
+      <c r="AQ17" s="24">
+        <f t="shared" si="3"/>
+        <v>-775.08830859810359</v>
+      </c>
+      <c r="AR17" s="24">
+        <f t="shared" si="3"/>
+        <v>-960.74100590586204</v>
+      </c>
+      <c r="AS17" s="24">
+        <f t="shared" si="3"/>
+        <v>-1146.39370321366</v>
+      </c>
+      <c r="AT17" s="24">
+        <f t="shared" si="3"/>
+        <v>-1332.0464005214185</v>
+      </c>
+      <c r="AU17" s="24">
+        <f t="shared" si="3"/>
+        <v>-1517.6990978292165</v>
+      </c>
+      <c r="AV17" s="24">
+        <f t="shared" si="3"/>
+        <v>-1703.3517951369745</v>
+      </c>
+      <c r="AW17" s="24">
+        <f t="shared" si="3"/>
+        <v>-1889.0044924447725</v>
+      </c>
+      <c r="AX17" s="24">
+        <f t="shared" si="3"/>
+        <v>-2074.6571897525309</v>
+      </c>
+      <c r="AY17" s="24">
+        <f t="shared" si="3"/>
+        <v>-2260.3098870603289</v>
+      </c>
+      <c r="AZ17" s="24">
+        <f t="shared" si="3"/>
+        <v>-2445.9625843680874</v>
+      </c>
+      <c r="BA17" s="24">
+        <f t="shared" si="3"/>
+        <v>-2631.6152816758854</v>
+      </c>
+      <c r="BB17" s="24">
+        <f t="shared" si="4"/>
+        <v>-2817.2679789836434</v>
+      </c>
+      <c r="BC17" s="24">
+        <f t="shared" si="4"/>
+        <v>-3002.9206762914419</v>
+      </c>
+      <c r="BD17" s="24">
+        <f t="shared" si="4"/>
+        <v>-3188.5733735991998</v>
+      </c>
+      <c r="BE17" s="24">
+        <f t="shared" si="4"/>
+        <v>-3374.2260709069983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:57">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -6197,8 +8554,88 @@
       <c r="AK18" s="12">
         <v>244305924.89999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:37">
+      <c r="AL18">
+        <f t="shared" si="3"/>
+        <v>249161818.94366381</v>
+      </c>
+      <c r="AM18">
+        <f t="shared" si="3"/>
+        <v>254017737.49323514</v>
+      </c>
+      <c r="AN18">
+        <f t="shared" si="3"/>
+        <v>258873656.04280648</v>
+      </c>
+      <c r="AO18">
+        <f t="shared" si="3"/>
+        <v>263729574.59237781</v>
+      </c>
+      <c r="AP18">
+        <f t="shared" si="3"/>
+        <v>268585493.14194912</v>
+      </c>
+      <c r="AQ18">
+        <f t="shared" si="3"/>
+        <v>273441411.69152045</v>
+      </c>
+      <c r="AR18">
+        <f t="shared" si="3"/>
+        <v>278297330.24109179</v>
+      </c>
+      <c r="AS18">
+        <f t="shared" si="3"/>
+        <v>283153248.79066312</v>
+      </c>
+      <c r="AT18">
+        <f t="shared" si="3"/>
+        <v>288009167.34023446</v>
+      </c>
+      <c r="AU18">
+        <f t="shared" si="3"/>
+        <v>292865085.88980579</v>
+      </c>
+      <c r="AV18">
+        <f t="shared" si="3"/>
+        <v>297721004.43937713</v>
+      </c>
+      <c r="AW18">
+        <f t="shared" si="3"/>
+        <v>302576922.98894846</v>
+      </c>
+      <c r="AX18">
+        <f t="shared" si="3"/>
+        <v>307432841.5385198</v>
+      </c>
+      <c r="AY18">
+        <f t="shared" si="3"/>
+        <v>312288760.08809114</v>
+      </c>
+      <c r="AZ18">
+        <f t="shared" si="3"/>
+        <v>317144678.63766247</v>
+      </c>
+      <c r="BA18">
+        <f t="shared" si="3"/>
+        <v>322000597.18723381</v>
+      </c>
+      <c r="BB18">
+        <f t="shared" si="4"/>
+        <v>326856515.73680514</v>
+      </c>
+      <c r="BC18">
+        <f t="shared" si="4"/>
+        <v>331712434.28637648</v>
+      </c>
+      <c r="BD18">
+        <f t="shared" si="4"/>
+        <v>336568352.83594775</v>
+      </c>
+      <c r="BE18">
+        <f t="shared" si="4"/>
+        <v>341424271.38551915</v>
+      </c>
+    </row>
+    <row r="19" spans="1:57">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -6310,8 +8747,88 @@
       <c r="AK19" s="12">
         <v>154019823.60000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:37">
+      <c r="AL19">
+        <f t="shared" si="3"/>
+        <v>157158287.09569967</v>
+      </c>
+      <c r="AM19">
+        <f t="shared" si="3"/>
+        <v>160297681.1531989</v>
+      </c>
+      <c r="AN19">
+        <f t="shared" si="3"/>
+        <v>163437075.21069816</v>
+      </c>
+      <c r="AO19">
+        <f t="shared" si="3"/>
+        <v>166576469.26819739</v>
+      </c>
+      <c r="AP19">
+        <f t="shared" si="3"/>
+        <v>169715863.32569662</v>
+      </c>
+      <c r="AQ19">
+        <f t="shared" si="3"/>
+        <v>172855257.38319585</v>
+      </c>
+      <c r="AR19">
+        <f t="shared" si="3"/>
+        <v>175994651.44069508</v>
+      </c>
+      <c r="AS19">
+        <f t="shared" si="3"/>
+        <v>179134045.49819434</v>
+      </c>
+      <c r="AT19">
+        <f t="shared" si="3"/>
+        <v>182273439.55569357</v>
+      </c>
+      <c r="AU19">
+        <f t="shared" si="3"/>
+        <v>185412833.6131928</v>
+      </c>
+      <c r="AV19">
+        <f t="shared" si="3"/>
+        <v>188552227.67069203</v>
+      </c>
+      <c r="AW19">
+        <f t="shared" si="3"/>
+        <v>191691621.72819126</v>
+      </c>
+      <c r="AX19">
+        <f t="shared" si="3"/>
+        <v>194831015.78569049</v>
+      </c>
+      <c r="AY19">
+        <f t="shared" si="3"/>
+        <v>197970409.84318972</v>
+      </c>
+      <c r="AZ19">
+        <f t="shared" si="3"/>
+        <v>201109803.90068898</v>
+      </c>
+      <c r="BA19">
+        <f t="shared" si="3"/>
+        <v>204249197.95818821</v>
+      </c>
+      <c r="BB19">
+        <f t="shared" si="4"/>
+        <v>207388592.01568744</v>
+      </c>
+      <c r="BC19">
+        <f t="shared" si="4"/>
+        <v>210527986.0731867</v>
+      </c>
+      <c r="BD19">
+        <f t="shared" si="4"/>
+        <v>213667380.13068593</v>
+      </c>
+      <c r="BE19">
+        <f t="shared" si="4"/>
+        <v>216806774.18818516</v>
+      </c>
+    </row>
+    <row r="20" spans="1:57">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -6423,8 +8940,88 @@
       <c r="AK20" s="12">
         <v>200315491.59999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:37">
+      <c r="AL20">
+        <f t="shared" si="3"/>
+        <v>200940299.5959391</v>
+      </c>
+      <c r="AM20">
+        <f t="shared" si="3"/>
+        <v>201560047.89391908</v>
+      </c>
+      <c r="AN20">
+        <f t="shared" si="3"/>
+        <v>202179796.19189903</v>
+      </c>
+      <c r="AO20">
+        <f t="shared" si="3"/>
+        <v>202799544.48987898</v>
+      </c>
+      <c r="AP20">
+        <f t="shared" si="3"/>
+        <v>203419292.78785896</v>
+      </c>
+      <c r="AQ20">
+        <f t="shared" si="3"/>
+        <v>204039041.08583891</v>
+      </c>
+      <c r="AR20">
+        <f t="shared" si="3"/>
+        <v>204658789.38381889</v>
+      </c>
+      <c r="AS20">
+        <f t="shared" si="3"/>
+        <v>205278537.68179885</v>
+      </c>
+      <c r="AT20">
+        <f t="shared" si="3"/>
+        <v>205898285.9797788</v>
+      </c>
+      <c r="AU20">
+        <f t="shared" si="3"/>
+        <v>206518034.27775878</v>
+      </c>
+      <c r="AV20">
+        <f t="shared" si="3"/>
+        <v>207137782.57573873</v>
+      </c>
+      <c r="AW20">
+        <f t="shared" si="3"/>
+        <v>207757530.87371868</v>
+      </c>
+      <c r="AX20">
+        <f t="shared" si="3"/>
+        <v>208377279.17169866</v>
+      </c>
+      <c r="AY20">
+        <f t="shared" si="3"/>
+        <v>208997027.46967861</v>
+      </c>
+      <c r="AZ20">
+        <f t="shared" si="3"/>
+        <v>209616775.76765856</v>
+      </c>
+      <c r="BA20">
+        <f t="shared" si="3"/>
+        <v>210236524.06563854</v>
+      </c>
+      <c r="BB20">
+        <f t="shared" si="4"/>
+        <v>210856272.36361849</v>
+      </c>
+      <c r="BC20">
+        <f t="shared" si="4"/>
+        <v>211476020.66159847</v>
+      </c>
+      <c r="BD20">
+        <f t="shared" si="4"/>
+        <v>212095768.95957842</v>
+      </c>
+      <c r="BE20">
+        <f t="shared" si="4"/>
+        <v>212715517.25755838</v>
+      </c>
+    </row>
+    <row r="21" spans="1:57">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -6536,8 +9133,88 @@
       <c r="AK21" s="12">
         <v>171748966.80000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:37">
+      <c r="AL21">
+        <f t="shared" si="3"/>
+        <v>172324700.85233432</v>
+      </c>
+      <c r="AM21">
+        <f t="shared" si="3"/>
+        <v>172895657.20532733</v>
+      </c>
+      <c r="AN21">
+        <f t="shared" si="3"/>
+        <v>173466613.55832034</v>
+      </c>
+      <c r="AO21">
+        <f t="shared" si="3"/>
+        <v>174037569.91131335</v>
+      </c>
+      <c r="AP21">
+        <f t="shared" si="3"/>
+        <v>174608526.26430637</v>
+      </c>
+      <c r="AQ21">
+        <f t="shared" si="3"/>
+        <v>175179482.61729938</v>
+      </c>
+      <c r="AR21">
+        <f t="shared" si="3"/>
+        <v>175750438.97029239</v>
+      </c>
+      <c r="AS21">
+        <f t="shared" si="3"/>
+        <v>176321395.3232854</v>
+      </c>
+      <c r="AT21">
+        <f t="shared" si="3"/>
+        <v>176892351.67627841</v>
+      </c>
+      <c r="AU21">
+        <f t="shared" si="3"/>
+        <v>177463308.02927142</v>
+      </c>
+      <c r="AV21">
+        <f t="shared" si="3"/>
+        <v>178034264.38226444</v>
+      </c>
+      <c r="AW21">
+        <f t="shared" si="3"/>
+        <v>178605220.73525745</v>
+      </c>
+      <c r="AX21">
+        <f t="shared" si="3"/>
+        <v>179176177.08825046</v>
+      </c>
+      <c r="AY21">
+        <f t="shared" si="3"/>
+        <v>179747133.44124347</v>
+      </c>
+      <c r="AZ21">
+        <f t="shared" si="3"/>
+        <v>180318089.79423648</v>
+      </c>
+      <c r="BA21">
+        <f t="shared" si="3"/>
+        <v>180889046.14722949</v>
+      </c>
+      <c r="BB21">
+        <f t="shared" si="4"/>
+        <v>181460002.5002225</v>
+      </c>
+      <c r="BC21">
+        <f t="shared" si="4"/>
+        <v>182030958.85321552</v>
+      </c>
+      <c r="BD21">
+        <f t="shared" si="4"/>
+        <v>182601915.20620853</v>
+      </c>
+      <c r="BE21">
+        <f t="shared" si="4"/>
+        <v>183172871.55920154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:57">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -6649,8 +9326,88 @@
       <c r="AK22" s="12">
         <v>1345392355.9862399</v>
       </c>
-    </row>
-    <row r="23" spans="1:37">
+      <c r="AL22">
+        <f t="shared" si="3"/>
+        <v>1370726766.8061244</v>
+      </c>
+      <c r="AM22">
+        <f t="shared" si="3"/>
+        <v>1396080655.6909919</v>
+      </c>
+      <c r="AN22">
+        <f t="shared" si="3"/>
+        <v>1421434544.5758595</v>
+      </c>
+      <c r="AO22">
+        <f t="shared" si="3"/>
+        <v>1446788433.4607272</v>
+      </c>
+      <c r="AP22">
+        <f t="shared" si="3"/>
+        <v>1472142322.3455949</v>
+      </c>
+      <c r="AQ22">
+        <f t="shared" si="3"/>
+        <v>1497496211.2304623</v>
+      </c>
+      <c r="AR22">
+        <f t="shared" si="3"/>
+        <v>1522850100.11533</v>
+      </c>
+      <c r="AS22">
+        <f t="shared" si="3"/>
+        <v>1548203989.0001976</v>
+      </c>
+      <c r="AT22">
+        <f t="shared" si="3"/>
+        <v>1573557877.8850651</v>
+      </c>
+      <c r="AU22">
+        <f t="shared" si="3"/>
+        <v>1598911766.7699327</v>
+      </c>
+      <c r="AV22">
+        <f t="shared" si="3"/>
+        <v>1624265655.6548004</v>
+      </c>
+      <c r="AW22">
+        <f t="shared" si="3"/>
+        <v>1649619544.5396681</v>
+      </c>
+      <c r="AX22">
+        <f t="shared" si="3"/>
+        <v>1674973433.4245355</v>
+      </c>
+      <c r="AY22">
+        <f t="shared" si="3"/>
+        <v>1700327322.3094032</v>
+      </c>
+      <c r="AZ22">
+        <f t="shared" si="3"/>
+        <v>1725681211.1942708</v>
+      </c>
+      <c r="BA22">
+        <f t="shared" si="3"/>
+        <v>1751035100.0791383</v>
+      </c>
+      <c r="BB22">
+        <f t="shared" si="4"/>
+        <v>1776388988.9640059</v>
+      </c>
+      <c r="BC22">
+        <f t="shared" si="4"/>
+        <v>1801742877.8488736</v>
+      </c>
+      <c r="BD22">
+        <f t="shared" si="4"/>
+        <v>1827096766.7337413</v>
+      </c>
+      <c r="BE22">
+        <f t="shared" si="4"/>
+        <v>1852450655.618609</v>
+      </c>
+    </row>
+    <row r="23" spans="1:57">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -6762,8 +9519,88 @@
       <c r="AK23" s="12">
         <v>141550517.17199999</v>
       </c>
-    </row>
-    <row r="24" spans="1:37">
+      <c r="AL23">
+        <f t="shared" si="3"/>
+        <v>144320137.39682016</v>
+      </c>
+      <c r="AM23">
+        <f t="shared" si="3"/>
+        <v>147090394.96174118</v>
+      </c>
+      <c r="AN23">
+        <f t="shared" si="3"/>
+        <v>149860652.52666217</v>
+      </c>
+      <c r="AO23">
+        <f t="shared" si="3"/>
+        <v>152630910.09158316</v>
+      </c>
+      <c r="AP23">
+        <f t="shared" si="3"/>
+        <v>155401167.65650418</v>
+      </c>
+      <c r="AQ23">
+        <f t="shared" si="3"/>
+        <v>158171425.22142518</v>
+      </c>
+      <c r="AR23">
+        <f t="shared" si="3"/>
+        <v>160941682.78634617</v>
+      </c>
+      <c r="AS23">
+        <f t="shared" si="3"/>
+        <v>163711940.35126719</v>
+      </c>
+      <c r="AT23">
+        <f t="shared" si="3"/>
+        <v>166482197.91618818</v>
+      </c>
+      <c r="AU23">
+        <f t="shared" si="3"/>
+        <v>169252455.48110917</v>
+      </c>
+      <c r="AV23">
+        <f t="shared" si="3"/>
+        <v>172022713.04603019</v>
+      </c>
+      <c r="AW23">
+        <f t="shared" si="3"/>
+        <v>174792970.61095119</v>
+      </c>
+      <c r="AX23">
+        <f t="shared" si="3"/>
+        <v>177563228.17587218</v>
+      </c>
+      <c r="AY23">
+        <f t="shared" si="3"/>
+        <v>180333485.74079317</v>
+      </c>
+      <c r="AZ23">
+        <f t="shared" si="3"/>
+        <v>183103743.30571419</v>
+      </c>
+      <c r="BA23">
+        <f t="shared" si="3"/>
+        <v>185874000.87063518</v>
+      </c>
+      <c r="BB23">
+        <f t="shared" si="4"/>
+        <v>188644258.43555617</v>
+      </c>
+      <c r="BC23">
+        <f t="shared" si="4"/>
+        <v>191414516.00047719</v>
+      </c>
+      <c r="BD23">
+        <f t="shared" si="4"/>
+        <v>194184773.56539819</v>
+      </c>
+      <c r="BE23">
+        <f t="shared" si="4"/>
+        <v>196955031.13031918</v>
+      </c>
+    </row>
+    <row r="24" spans="1:57">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -6875,8 +9712,88 @@
       <c r="AK24" s="12">
         <v>414151161.44</v>
       </c>
-    </row>
-    <row r="25" spans="1:37">
+      <c r="AL24">
+        <f t="shared" si="3"/>
+        <v>422636799.15813917</v>
+      </c>
+      <c r="AM24">
+        <f t="shared" si="3"/>
+        <v>431126065.97491556</v>
+      </c>
+      <c r="AN24">
+        <f t="shared" si="3"/>
+        <v>439615332.79169202</v>
+      </c>
+      <c r="AO24">
+        <f t="shared" si="3"/>
+        <v>448104599.60846841</v>
+      </c>
+      <c r="AP24">
+        <f t="shared" si="3"/>
+        <v>456593866.42524487</v>
+      </c>
+      <c r="AQ24">
+        <f t="shared" si="3"/>
+        <v>465083133.24202126</v>
+      </c>
+      <c r="AR24">
+        <f t="shared" si="3"/>
+        <v>473572400.05879772</v>
+      </c>
+      <c r="AS24">
+        <f t="shared" si="3"/>
+        <v>482061666.87557411</v>
+      </c>
+      <c r="AT24">
+        <f t="shared" si="3"/>
+        <v>490550933.69235057</v>
+      </c>
+      <c r="AU24">
+        <f t="shared" si="3"/>
+        <v>499040200.50912696</v>
+      </c>
+      <c r="AV24">
+        <f t="shared" si="3"/>
+        <v>507529467.32590342</v>
+      </c>
+      <c r="AW24">
+        <f t="shared" si="3"/>
+        <v>516018734.14267981</v>
+      </c>
+      <c r="AX24">
+        <f t="shared" si="3"/>
+        <v>524508000.95945626</v>
+      </c>
+      <c r="AY24">
+        <f t="shared" si="3"/>
+        <v>532997267.77623272</v>
+      </c>
+      <c r="AZ24">
+        <f t="shared" si="3"/>
+        <v>541486534.59300911</v>
+      </c>
+      <c r="BA24">
+        <f t="shared" si="3"/>
+        <v>549975801.40978551</v>
+      </c>
+      <c r="BB24">
+        <f t="shared" si="4"/>
+        <v>558465068.22656202</v>
+      </c>
+      <c r="BC24">
+        <f t="shared" si="4"/>
+        <v>566954335.04333842</v>
+      </c>
+      <c r="BD24">
+        <f t="shared" si="4"/>
+        <v>575443601.86011481</v>
+      </c>
+      <c r="BE24">
+        <f t="shared" si="4"/>
+        <v>583932868.67689121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:57">
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -6914,150 +9831,230 @@
       <c r="AJ25" s="12"/>
       <c r="AK25" s="12"/>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:57">
       <c r="A26" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12">
-        <f t="shared" ref="D26:AK26" si="0">SUM(D10:D19)</f>
+        <f t="shared" ref="D26:AK26" si="5">SUM(D10:D19)</f>
         <v>989775411.30000007</v>
       </c>
       <c r="E26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1043366804.6999999</v>
       </c>
       <c r="F26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1097065135.5000002</v>
       </c>
       <c r="G26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1146922634.8420799</v>
       </c>
       <c r="H26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1196123055.37024</v>
       </c>
       <c r="I26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1244994084.1339202</v>
       </c>
       <c r="J26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1293564118.6380804</v>
       </c>
       <c r="K26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1341897239.5156</v>
       </c>
       <c r="L26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1388591545.9526401</v>
       </c>
       <c r="M26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1432434569.9120798</v>
       </c>
       <c r="N26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1473622950.2416</v>
       </c>
       <c r="O26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1512284076.3396003</v>
       </c>
       <c r="P26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1548505635.8655999</v>
       </c>
       <c r="Q26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1582401680.0936797</v>
       </c>
       <c r="R26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1614176387.4864001</v>
       </c>
       <c r="S26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1644021391.7981596</v>
       </c>
       <c r="T26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1672060612.6231997</v>
       </c>
       <c r="U26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1698418045.8419998</v>
       </c>
       <c r="V26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1722637259.7964802</v>
       </c>
       <c r="W26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1744321335.9344001</v>
       </c>
       <c r="X26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1763693338.2561603</v>
       </c>
       <c r="Y26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1780963443.5694404</v>
       </c>
       <c r="Z26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1796319171.7031999</v>
       </c>
       <c r="AA26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1809942888.0350399</v>
       </c>
       <c r="AB26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1822006104.6111999</v>
       </c>
       <c r="AC26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1832657807.2966399</v>
       </c>
       <c r="AD26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1842052002.7622397</v>
       </c>
       <c r="AE26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1850282279.5599997</v>
       </c>
       <c r="AF26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1857478565.0144002</v>
       </c>
       <c r="AG26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1863761395.9024801</v>
       </c>
       <c r="AH26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1869243527.1329603</v>
       </c>
       <c r="AI26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1874029435.3288002</v>
       </c>
       <c r="AJ26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1878208781.8559999</v>
       </c>
       <c r="AK26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1892521818.204</v>
       </c>
-    </row>
-    <row r="27" spans="1:37">
+      <c r="AL26" s="12">
+        <f t="shared" ref="AL26:BE26" si="6">SUM(AL10:AL19)</f>
+        <v>1900736997.6289988</v>
+      </c>
+      <c r="AM26" s="12">
+        <f t="shared" si="6"/>
+        <v>1912718398.7129891</v>
+      </c>
+      <c r="AN26" s="12">
+        <f t="shared" si="6"/>
+        <v>1924699799.7969794</v>
+      </c>
+      <c r="AO26" s="12">
+        <f t="shared" si="6"/>
+        <v>1936681200.8809705</v>
+      </c>
+      <c r="AP26" s="12">
+        <f t="shared" si="6"/>
+        <v>1948662601.9649611</v>
+      </c>
+      <c r="AQ26" s="12">
+        <f t="shared" si="6"/>
+        <v>1960644003.0489519</v>
+      </c>
+      <c r="AR26" s="12">
+        <f t="shared" si="6"/>
+        <v>1972625404.132942</v>
+      </c>
+      <c r="AS26" s="12">
+        <f t="shared" si="6"/>
+        <v>1984606805.2169328</v>
+      </c>
+      <c r="AT26" s="12">
+        <f t="shared" si="6"/>
+        <v>1996588206.3009233</v>
+      </c>
+      <c r="AU26" s="12">
+        <f t="shared" si="6"/>
+        <v>2008569607.3849137</v>
+      </c>
+      <c r="AV26" s="12">
+        <f t="shared" si="6"/>
+        <v>2020551008.4689043</v>
+      </c>
+      <c r="AW26" s="12">
+        <f t="shared" si="6"/>
+        <v>2032532409.5528951</v>
+      </c>
+      <c r="AX26" s="12">
+        <f t="shared" si="6"/>
+        <v>2044513810.6368856</v>
+      </c>
+      <c r="AY26" s="12">
+        <f t="shared" si="6"/>
+        <v>2056495211.7208762</v>
+      </c>
+      <c r="AZ26" s="12">
+        <f t="shared" si="6"/>
+        <v>2068476612.804867</v>
+      </c>
+      <c r="BA26" s="12">
+        <f t="shared" si="6"/>
+        <v>2080458013.8888576</v>
+      </c>
+      <c r="BB26" s="12">
+        <f t="shared" si="6"/>
+        <v>2092439414.9728479</v>
+      </c>
+      <c r="BC26" s="12">
+        <f t="shared" si="6"/>
+        <v>2104420816.0568388</v>
+      </c>
+      <c r="BD26" s="12">
+        <f t="shared" si="6"/>
+        <v>2116402217.1408296</v>
+      </c>
+      <c r="BE26" s="12">
+        <f t="shared" si="6"/>
+        <v>2128383618.2248201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:57">
       <c r="A27" s="8" t="s">
         <v>17</v>
       </c>
@@ -7073,270 +10070,430 @@
         <v>1.045446252668814</v>
       </c>
       <c r="H27" s="22">
-        <f t="shared" ref="H27:AK27" si="1">H26/$F$26</f>
+        <f t="shared" ref="H27:AK27" si="7">H26/$F$26</f>
         <v>1.0902935629479218</v>
       </c>
       <c r="I27" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.1348406250887735</v>
       </c>
       <c r="J27" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.1791133240676028</v>
       </c>
       <c r="K27" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.2231700708490882</v>
       </c>
       <c r="L27" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.2657330007299641</v>
       </c>
       <c r="M27" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.3056969213220244</v>
       </c>
       <c r="N27" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.343241073439071</v>
       </c>
       <c r="O27" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.3784815754356821</v>
       </c>
       <c r="P27" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.4114983566220527</v>
       </c>
       <c r="Q27" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.4423953773469262</v>
       </c>
       <c r="R27" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.4713587509557675</v>
       </c>
       <c r="S27" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.4985631560052062</v>
       </c>
       <c r="T27" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.524121548043853</v>
       </c>
       <c r="U27" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.5481469521569711</v>
       </c>
       <c r="V27" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.5702233204333562</v>
       </c>
       <c r="W27" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.5899888525209629</v>
       </c>
       <c r="X27" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.6076468763655829</v>
       </c>
       <c r="Y27" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.6233889729416526</v>
       </c>
       <c r="Z27" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.6373860708685328</v>
       </c>
       <c r="AA27" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.6498044003651045</v>
       </c>
       <c r="AB27" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.66080029859011</v>
       </c>
       <c r="AC27" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.6705095695720791</v>
       </c>
       <c r="AD27" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.6790725939191413</v>
       </c>
       <c r="AE27" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.6865746797401524</v>
       </c>
       <c r="AF27" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.6931342587674456</v>
       </c>
       <c r="AG27" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.6988612030342658</v>
       </c>
       <c r="AH27" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.7038582912226363</v>
       </c>
       <c r="AI27" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.70822075616749</v>
       </c>
       <c r="AJ27" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.7120303262576879</v>
       </c>
       <c r="AK27" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.7250769867383136</v>
       </c>
-    </row>
-    <row r="28" spans="1:37">
+      <c r="AL27" s="22">
+        <f t="shared" ref="AL27:BE27" si="8">AL26/$F$26</f>
+        <v>1.7325653109582373</v>
+      </c>
+      <c r="AM27" s="22">
+        <f t="shared" si="8"/>
+        <v>1.7434866324880931</v>
+      </c>
+      <c r="AN27" s="22">
+        <f t="shared" si="8"/>
+        <v>1.7544079540179489</v>
+      </c>
+      <c r="AO27" s="22">
+        <f t="shared" si="8"/>
+        <v>1.7653292755478054</v>
+      </c>
+      <c r="AP27" s="22">
+        <f t="shared" si="8"/>
+        <v>1.7762505970776614</v>
+      </c>
+      <c r="AQ27" s="22">
+        <f t="shared" si="8"/>
+        <v>1.7871719186075177</v>
+      </c>
+      <c r="AR27" s="22">
+        <f t="shared" si="8"/>
+        <v>1.7980932401373733</v>
+      </c>
+      <c r="AS27" s="22">
+        <f t="shared" si="8"/>
+        <v>1.8090145616672295</v>
+      </c>
+      <c r="AT27" s="22">
+        <f t="shared" si="8"/>
+        <v>1.8199358831970855</v>
+      </c>
+      <c r="AU27" s="22">
+        <f t="shared" si="8"/>
+        <v>1.8308572047269414</v>
+      </c>
+      <c r="AV27" s="22">
+        <f t="shared" si="8"/>
+        <v>1.8417785262567974</v>
+      </c>
+      <c r="AW27" s="22">
+        <f t="shared" si="8"/>
+        <v>1.8526998477866536</v>
+      </c>
+      <c r="AX27" s="22">
+        <f t="shared" si="8"/>
+        <v>1.8636211693165097</v>
+      </c>
+      <c r="AY27" s="22">
+        <f t="shared" si="8"/>
+        <v>1.8745424908463657</v>
+      </c>
+      <c r="AZ27" s="22">
+        <f t="shared" si="8"/>
+        <v>1.885463812376222</v>
+      </c>
+      <c r="BA27" s="22">
+        <f t="shared" si="8"/>
+        <v>1.896385133906078</v>
+      </c>
+      <c r="BB27" s="22">
+        <f t="shared" si="8"/>
+        <v>1.9073064554359338</v>
+      </c>
+      <c r="BC27" s="22">
+        <f t="shared" si="8"/>
+        <v>1.9182277769657901</v>
+      </c>
+      <c r="BD27" s="22">
+        <f t="shared" si="8"/>
+        <v>1.9291490984956463</v>
+      </c>
+      <c r="BE27" s="22">
+        <f t="shared" si="8"/>
+        <v>1.9400704200255023</v>
+      </c>
+    </row>
+    <row r="28" spans="1:57">
       <c r="A28" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12">
-        <f t="shared" ref="D28:AK28" si="2">SUM(D22:D24)</f>
+        <f t="shared" ref="D28:AK28" si="9">SUM(D22:D24)</f>
         <v>907807385.39999998</v>
       </c>
       <c r="E28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>943438747.95799994</v>
       </c>
       <c r="F28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>979219048.10399997</v>
       </c>
       <c r="G28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1011940078.2191572</v>
       </c>
       <c r="H28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1044093803.3242985</v>
       </c>
       <c r="I28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1075961571.3385758</v>
       </c>
       <c r="J28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1107389967.2860107</v>
       </c>
       <c r="K28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1138283036.8378398</v>
       </c>
       <c r="L28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1168680473.2905602</v>
       </c>
       <c r="M28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1198507898.9810665</v>
       </c>
       <c r="N28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1228014416.9768372</v>
       </c>
       <c r="O28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1257219459.9887362</v>
       </c>
       <c r="P28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1286132926.1620533</v>
       </c>
       <c r="Q28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1314784743.9401495</v>
       </c>
       <c r="R28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1343303867.717952</v>
       </c>
       <c r="S28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1371769575.9252961</v>
       </c>
       <c r="T28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1400333885.2930613</v>
       </c>
       <c r="U28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1429046922.6066401</v>
       </c>
       <c r="V28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1457974182.2628372</v>
       </c>
       <c r="W28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1486974761.0378399</v>
       </c>
       <c r="X28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1516228391.8038721</v>
       </c>
       <c r="Y28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1545759339.2190614</v>
       </c>
       <c r="Z28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1575374141.54176</v>
       </c>
       <c r="AA28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1604914431.2285438</v>
       </c>
       <c r="AB28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1634376052.2719519</v>
       </c>
       <c r="AC28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1663705884.5842931</v>
       </c>
       <c r="AD28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1692901072.3099999</v>
       </c>
       <c r="AE28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1721932832.0525331</v>
       </c>
       <c r="AF28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1750738496.1391201</v>
       </c>
       <c r="AG28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1779309479.7194881</v>
       </c>
       <c r="AH28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1807642729.869072</v>
       </c>
       <c r="AI28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1835714190.149312</v>
       </c>
       <c r="AJ28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1863496875.90272</v>
       </c>
       <c r="AK28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1901094034.5982399</v>
       </c>
-    </row>
-    <row r="29" spans="1:37">
+      <c r="AL28" s="12">
+        <f t="shared" ref="AL28:BE28" si="10">SUM(AL22:AL24)</f>
+        <v>1937683703.3610837</v>
+      </c>
+      <c r="AM28" s="12">
+        <f t="shared" si="10"/>
+        <v>1974297116.6276486</v>
+      </c>
+      <c r="AN28" s="12">
+        <f t="shared" si="10"/>
+        <v>2010910529.8942137</v>
+      </c>
+      <c r="AO28" s="12">
+        <f t="shared" si="10"/>
+        <v>2047523943.160779</v>
+      </c>
+      <c r="AP28" s="12">
+        <f t="shared" si="10"/>
+        <v>2084137356.4273438</v>
+      </c>
+      <c r="AQ28" s="12">
+        <f t="shared" si="10"/>
+        <v>2120750769.6939089</v>
+      </c>
+      <c r="AR28" s="12">
+        <f t="shared" si="10"/>
+        <v>2157364182.960474</v>
+      </c>
+      <c r="AS28" s="12">
+        <f t="shared" si="10"/>
+        <v>2193977596.2270389</v>
+      </c>
+      <c r="AT28" s="12">
+        <f t="shared" si="10"/>
+        <v>2230591009.4936037</v>
+      </c>
+      <c r="AU28" s="12">
+        <f t="shared" si="10"/>
+        <v>2267204422.760169</v>
+      </c>
+      <c r="AV28" s="12">
+        <f t="shared" si="10"/>
+        <v>2303817836.0267344</v>
+      </c>
+      <c r="AW28" s="12">
+        <f t="shared" si="10"/>
+        <v>2340431249.2932992</v>
+      </c>
+      <c r="AX28" s="12">
+        <f t="shared" si="10"/>
+        <v>2377044662.559864</v>
+      </c>
+      <c r="AY28" s="12">
+        <f t="shared" si="10"/>
+        <v>2413658075.8264294</v>
+      </c>
+      <c r="AZ28" s="12">
+        <f t="shared" si="10"/>
+        <v>2450271489.0929942</v>
+      </c>
+      <c r="BA28" s="12">
+        <f t="shared" si="10"/>
+        <v>2486884902.3595591</v>
+      </c>
+      <c r="BB28" s="12">
+        <f t="shared" si="10"/>
+        <v>2523498315.6261244</v>
+      </c>
+      <c r="BC28" s="12">
+        <f t="shared" si="10"/>
+        <v>2560111728.8926892</v>
+      </c>
+      <c r="BD28" s="12">
+        <f t="shared" si="10"/>
+        <v>2596725142.1592541</v>
+      </c>
+      <c r="BE28" s="12">
+        <f t="shared" si="10"/>
+        <v>2633338555.4258194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:57">
       <c r="A29" s="8" t="s">
         <v>17</v>
       </c>
@@ -7352,270 +10509,430 @@
         <v>1.0334154346553133</v>
       </c>
       <c r="H29" s="22">
-        <f t="shared" ref="H29:AK29" si="3">H28/$F$28</f>
+        <f t="shared" ref="H29:AK29" si="11">H28/$F$28</f>
         <v>1.066251524973816</v>
       </c>
       <c r="I29" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1.0987955896302184</v>
       </c>
       <c r="J29" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1.1308909578813648</v>
       </c>
       <c r="K29" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1.1624396390591314</v>
       </c>
       <c r="L29" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1.193482168829745</v>
       </c>
       <c r="M29" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1.2239425910899728</v>
       </c>
       <c r="N29" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1.2540752953637533</v>
       </c>
       <c r="O29" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1.2839001267622507</v>
       </c>
       <c r="P29" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1.3134271934888433</v>
       </c>
       <c r="Q29" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1.3426870591272548</v>
       </c>
       <c r="R29" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1.3718114147380063</v>
       </c>
       <c r="S29" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1.4008812211949582</v>
       </c>
       <c r="T29" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1.4300517213226596</v>
       </c>
       <c r="U29" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1.4593741056953635</v>
       </c>
       <c r="V29" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1.4889152586296401</v>
       </c>
       <c r="W29" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1.5185312866584604</v>
       </c>
       <c r="X29" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1.5484057369386854</v>
       </c>
       <c r="Y29" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1.5785633890721567</v>
       </c>
       <c r="Z29" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1.6088066756790091</v>
       </c>
       <c r="AA29" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1.6389738683454314</v>
       </c>
       <c r="AB29" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1.6690607228653191</v>
       </c>
       <c r="AC29" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1.6990129918383652</v>
       </c>
       <c r="AD29" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1.7288277588021368</v>
       </c>
       <c r="AE29" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1.758475629519874</v>
       </c>
       <c r="AF29" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1.7878926063876766</v>
       </c>
       <c r="AG29" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1.8170699223678837</v>
       </c>
       <c r="AH29" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1.8460044597468732</v>
       </c>
       <c r="AI29" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1.8746716515612003</v>
       </c>
       <c r="AJ29" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1.9030439404859325</v>
       </c>
       <c r="AK29" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1.941438984749335</v>
       </c>
-    </row>
-    <row r="30" spans="1:37">
+      <c r="AL29" s="22">
+        <f t="shared" ref="AL29:BE29" si="12">AL28/$F$28</f>
+        <v>1.9788051581644561</v>
+      </c>
+      <c r="AM29" s="22">
+        <f t="shared" si="12"/>
+        <v>2.0161955799883136</v>
+      </c>
+      <c r="AN29" s="22">
+        <f t="shared" si="12"/>
+        <v>2.0535860018121714</v>
+      </c>
+      <c r="AO29" s="22">
+        <f t="shared" si="12"/>
+        <v>2.0909764236360293</v>
+      </c>
+      <c r="AP29" s="22">
+        <f t="shared" si="12"/>
+        <v>2.1283668454598872</v>
+      </c>
+      <c r="AQ29" s="22">
+        <f t="shared" si="12"/>
+        <v>2.1657572672837451</v>
+      </c>
+      <c r="AR29" s="22">
+        <f t="shared" si="12"/>
+        <v>2.2031476891076029</v>
+      </c>
+      <c r="AS29" s="22">
+        <f t="shared" si="12"/>
+        <v>2.2405381109314604</v>
+      </c>
+      <c r="AT29" s="22">
+        <f t="shared" si="12"/>
+        <v>2.2779285327553178</v>
+      </c>
+      <c r="AU29" s="22">
+        <f t="shared" si="12"/>
+        <v>2.3153189545791761</v>
+      </c>
+      <c r="AV29" s="22">
+        <f t="shared" si="12"/>
+        <v>2.352709376403034</v>
+      </c>
+      <c r="AW29" s="22">
+        <f t="shared" si="12"/>
+        <v>2.3900997982268914</v>
+      </c>
+      <c r="AX29" s="22">
+        <f t="shared" si="12"/>
+        <v>2.4274902200507493</v>
+      </c>
+      <c r="AY29" s="22">
+        <f t="shared" si="12"/>
+        <v>2.4648806418746072</v>
+      </c>
+      <c r="AZ29" s="22">
+        <f t="shared" si="12"/>
+        <v>2.5022710636984646</v>
+      </c>
+      <c r="BA29" s="22">
+        <f t="shared" si="12"/>
+        <v>2.5396614855223225</v>
+      </c>
+      <c r="BB29" s="22">
+        <f t="shared" si="12"/>
+        <v>2.5770519073461804</v>
+      </c>
+      <c r="BC29" s="22">
+        <f t="shared" si="12"/>
+        <v>2.6144423291700383</v>
+      </c>
+      <c r="BD29" s="22">
+        <f t="shared" si="12"/>
+        <v>2.6518327509938957</v>
+      </c>
+      <c r="BE29" s="22">
+        <f t="shared" si="12"/>
+        <v>2.6892231728177536</v>
+      </c>
+    </row>
+    <row r="30" spans="1:57">
       <c r="A30" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12">
-        <f t="shared" ref="D30:AK30" si="4">SUM(D20:D21)</f>
+        <f t="shared" ref="D30:AK30" si="13">SUM(D20:D21)</f>
         <v>164878851.19999999</v>
       </c>
       <c r="E30" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>172476613.60000002</v>
       </c>
       <c r="F30" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>180682556</v>
       </c>
       <c r="G30" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>189542353.19999999</v>
       </c>
       <c r="H30" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>199181827.19999999</v>
       </c>
       <c r="I30" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>209680173.60000002</v>
       </c>
       <c r="J30" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>221066006.39999998</v>
       </c>
       <c r="K30" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>233314040.40000001</v>
       </c>
       <c r="L30" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>245509882.40000001</v>
       </c>
       <c r="M30" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>256889526.40000001</v>
       </c>
       <c r="N30" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>267522012.40000001</v>
       </c>
       <c r="O30" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>277454900.80000001</v>
       </c>
       <c r="P30" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>286732554.80000001</v>
       </c>
       <c r="Q30" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>295396411.60000002</v>
       </c>
       <c r="R30" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>303509750</v>
       </c>
       <c r="S30" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>311128921.19999999</v>
       </c>
       <c r="T30" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>318299719.19999999</v>
       </c>
       <c r="U30" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>325074235.19999999</v>
       </c>
       <c r="V30" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>331258311.60000002</v>
       </c>
       <c r="W30" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>336744190</v>
       </c>
       <c r="X30" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>341618388.80000001</v>
       </c>
       <c r="Y30" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>345928121.19999999</v>
       </c>
       <c r="Z30" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>349737644.80000001</v>
       </c>
       <c r="AA30" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>353104055.60000002</v>
       </c>
       <c r="AB30" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>356081074.39999998</v>
       </c>
       <c r="AC30" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>358717915.60000002</v>
       </c>
       <c r="AD30" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>361057940.39999998</v>
       </c>
       <c r="AE30" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>363141744.80000001</v>
       </c>
       <c r="AF30" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>365004732.39999998</v>
       </c>
       <c r="AG30" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>366680940</v>
       </c>
       <c r="AH30" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>368200799.20000005</v>
       </c>
       <c r="AI30" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>369590208.39999998</v>
       </c>
       <c r="AJ30" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>370871730.39999998</v>
       </c>
       <c r="AK30" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>372064458.39999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:37">
+      <c r="AL30" s="12">
+        <f t="shared" ref="AL30:BE30" si="14">SUM(AL20:AL21)</f>
+        <v>373265000.44827342</v>
+      </c>
+      <c r="AM30" s="12">
+        <f t="shared" si="14"/>
+        <v>374455705.09924638</v>
+      </c>
+      <c r="AN30" s="12">
+        <f t="shared" si="14"/>
+        <v>375646409.75021935</v>
+      </c>
+      <c r="AO30" s="12">
+        <f t="shared" si="14"/>
+        <v>376837114.40119231</v>
+      </c>
+      <c r="AP30" s="12">
+        <f t="shared" si="14"/>
+        <v>378027819.05216533</v>
+      </c>
+      <c r="AQ30" s="12">
+        <f t="shared" si="14"/>
+        <v>379218523.70313829</v>
+      </c>
+      <c r="AR30" s="12">
+        <f t="shared" si="14"/>
+        <v>380409228.35411131</v>
+      </c>
+      <c r="AS30" s="12">
+        <f t="shared" si="14"/>
+        <v>381599933.00508428</v>
+      </c>
+      <c r="AT30" s="12">
+        <f t="shared" si="14"/>
+        <v>382790637.65605724</v>
+      </c>
+      <c r="AU30" s="12">
+        <f t="shared" si="14"/>
+        <v>383981342.3070302</v>
+      </c>
+      <c r="AV30" s="12">
+        <f t="shared" si="14"/>
+        <v>385172046.95800316</v>
+      </c>
+      <c r="AW30" s="12">
+        <f t="shared" si="14"/>
+        <v>386362751.60897613</v>
+      </c>
+      <c r="AX30" s="12">
+        <f t="shared" si="14"/>
+        <v>387553456.25994909</v>
+      </c>
+      <c r="AY30" s="12">
+        <f t="shared" si="14"/>
+        <v>388744160.91092205</v>
+      </c>
+      <c r="AZ30" s="12">
+        <f t="shared" si="14"/>
+        <v>389934865.56189501</v>
+      </c>
+      <c r="BA30" s="12">
+        <f t="shared" si="14"/>
+        <v>391125570.21286803</v>
+      </c>
+      <c r="BB30" s="12">
+        <f t="shared" si="14"/>
+        <v>392316274.863841</v>
+      </c>
+      <c r="BC30" s="12">
+        <f t="shared" si="14"/>
+        <v>393506979.51481402</v>
+      </c>
+      <c r="BD30" s="12">
+        <f t="shared" si="14"/>
+        <v>394697684.16578698</v>
+      </c>
+      <c r="BE30" s="12">
+        <f t="shared" si="14"/>
+        <v>395888388.81675994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:57">
       <c r="A31" s="8" t="s">
         <v>17</v>
       </c>
@@ -7631,124 +10948,204 @@
         <v>1.0490351553361907</v>
       </c>
       <c r="H31" s="22">
-        <f t="shared" ref="H31:AK31" si="5">H30/$F$30</f>
+        <f t="shared" ref="H31:AK31" si="15">H30/$F$30</f>
         <v>1.1023854854034718</v>
       </c>
       <c r="I31" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.1604893036824209</v>
       </c>
       <c r="J31" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.2235049763187984</v>
       </c>
       <c r="K31" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.2912925606387813</v>
       </c>
       <c r="L31" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.3587912847546832</v>
       </c>
       <c r="M31" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.4217727050529438</v>
       </c>
       <c r="N31" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.4806189281493229</v>
       </c>
       <c r="O31" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.5355931803399991</v>
       </c>
       <c r="P31" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.5869409927984415</v>
       </c>
       <c r="Q31" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.6348917025504113</v>
       </c>
       <c r="R31" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.6797955304550816</v>
       </c>
       <c r="S31" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.7219643560942319</v>
       </c>
       <c r="T31" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.7616516295020754</v>
       </c>
       <c r="U31" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.7991456529981786</v>
       </c>
       <c r="V31" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.833371848027211</v>
       </c>
       <c r="W31" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.8637338183327448</v>
       </c>
       <c r="X31" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.8907104059342619</v>
       </c>
       <c r="Y31" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.9145629155257244</v>
       </c>
       <c r="Z31" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.9356469852020468</v>
       </c>
       <c r="AA31" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.9542786166916968</v>
       </c>
       <c r="AB31" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.9707551314472216</v>
       </c>
       <c r="AC31" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.9853489099412565</v>
       </c>
       <c r="AD31" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.9982999377095372</v>
       </c>
       <c r="AE31" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2.0098328960987248</v>
       </c>
       <c r="AF31" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2.0201437287615081</v>
       </c>
       <c r="AG31" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2.029420814702223</v>
       </c>
       <c r="AH31" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2.0378325796985077</v>
       </c>
       <c r="AI31" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2.0455223602216472</v>
       </c>
       <c r="AJ31" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2.0526150316359262</v>
       </c>
       <c r="AK31" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2.0592162665664304</v>
+      </c>
+      <c r="AL31" s="22">
+        <f t="shared" ref="AL31:BE31" si="16">AL30/$F$30</f>
+        <v>2.0658607488831042</v>
+      </c>
+      <c r="AM31" s="22">
+        <f t="shared" si="16"/>
+        <v>2.0724507854496279</v>
+      </c>
+      <c r="AN31" s="22">
+        <f t="shared" si="16"/>
+        <v>2.0790408220161516</v>
+      </c>
+      <c r="AO31" s="22">
+        <f t="shared" si="16"/>
+        <v>2.0856308585826753</v>
+      </c>
+      <c r="AP31" s="22">
+        <f t="shared" si="16"/>
+        <v>2.0922208951491994</v>
+      </c>
+      <c r="AQ31" s="22">
+        <f t="shared" si="16"/>
+        <v>2.0988109317157231</v>
+      </c>
+      <c r="AR31" s="22">
+        <f t="shared" si="16"/>
+        <v>2.1054009682822468</v>
+      </c>
+      <c r="AS31" s="22">
+        <f t="shared" si="16"/>
+        <v>2.1119910048487704</v>
+      </c>
+      <c r="AT31" s="22">
+        <f t="shared" si="16"/>
+        <v>2.1185810414152941</v>
+      </c>
+      <c r="AU31" s="22">
+        <f t="shared" si="16"/>
+        <v>2.1251710779818178</v>
+      </c>
+      <c r="AV31" s="22">
+        <f t="shared" si="16"/>
+        <v>2.1317611145483415</v>
+      </c>
+      <c r="AW31" s="22">
+        <f t="shared" si="16"/>
+        <v>2.1383511511148652</v>
+      </c>
+      <c r="AX31" s="22">
+        <f t="shared" si="16"/>
+        <v>2.1449411876813889</v>
+      </c>
+      <c r="AY31" s="22">
+        <f t="shared" si="16"/>
+        <v>2.1515312242479125</v>
+      </c>
+      <c r="AZ31" s="22">
+        <f t="shared" si="16"/>
+        <v>2.1581212608144362</v>
+      </c>
+      <c r="BA31" s="22">
+        <f t="shared" si="16"/>
+        <v>2.1647112973809604</v>
+      </c>
+      <c r="BB31" s="22">
+        <f t="shared" si="16"/>
+        <v>2.171301333947484</v>
+      </c>
+      <c r="BC31" s="22">
+        <f t="shared" si="16"/>
+        <v>2.1778913705140082</v>
+      </c>
+      <c r="BD31" s="22">
+        <f t="shared" si="16"/>
+        <v>2.1844814070805318</v>
+      </c>
+      <c r="BE31" s="22">
+        <f t="shared" si="16"/>
+        <v>2.1910714436470555</v>
       </c>
     </row>
   </sheetData>
@@ -7758,38 +11155,38 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:BG18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AV7" sqref="AV7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:59">
       <c r="A1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:59">
       <c r="A2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:59">
       <c r="A4" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:59">
       <c r="A5" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:59">
       <c r="A9" s="4" t="s">
         <v>36</v>
       </c>
@@ -7907,8 +11304,68 @@
       <c r="AM9" s="3">
         <v>2050</v>
       </c>
-    </row>
-    <row r="10" spans="1:39">
+      <c r="AN9" s="3">
+        <v>2051</v>
+      </c>
+      <c r="AO9" s="3">
+        <v>2052</v>
+      </c>
+      <c r="AP9" s="3">
+        <v>2053</v>
+      </c>
+      <c r="AQ9" s="3">
+        <v>2054</v>
+      </c>
+      <c r="AR9" s="3">
+        <v>2055</v>
+      </c>
+      <c r="AS9" s="3">
+        <v>2056</v>
+      </c>
+      <c r="AT9" s="3">
+        <v>2057</v>
+      </c>
+      <c r="AU9" s="3">
+        <v>2058</v>
+      </c>
+      <c r="AV9" s="3">
+        <v>2059</v>
+      </c>
+      <c r="AW9" s="3">
+        <v>2060</v>
+      </c>
+      <c r="AX9" s="3">
+        <v>2061</v>
+      </c>
+      <c r="AY9" s="3">
+        <v>2062</v>
+      </c>
+      <c r="AZ9" s="3">
+        <v>2063</v>
+      </c>
+      <c r="BA9" s="3">
+        <v>2064</v>
+      </c>
+      <c r="BB9" s="3">
+        <v>2065</v>
+      </c>
+      <c r="BC9" s="3">
+        <v>2066</v>
+      </c>
+      <c r="BD9" s="3">
+        <v>2067</v>
+      </c>
+      <c r="BE9" s="3">
+        <v>2068</v>
+      </c>
+      <c r="BF9" s="3">
+        <v>2069</v>
+      </c>
+      <c r="BG9" s="3">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -8026,8 +11483,88 @@
       <c r="AM10" s="12">
         <v>1070.7497910897712</v>
       </c>
-    </row>
-    <row r="11" spans="1:39">
+      <c r="AN10" s="6">
+        <f>_xlfn.FORECAST.ETS(AN9,B10:AM10,B9:AM9)</f>
+        <v>1098.9510624173711</v>
+      </c>
+      <c r="AO10" s="6">
+        <f t="shared" ref="AO10:BG10" si="0">_xlfn.FORECAST.ETS(AO9,C10:AN10,C9:AN9)</f>
+        <v>1124.6045462448335</v>
+      </c>
+      <c r="AP10" s="6">
+        <f t="shared" si="0"/>
+        <v>1152.6030022455254</v>
+      </c>
+      <c r="AQ10" s="6">
+        <f t="shared" si="0"/>
+        <v>1180.6150581972934</v>
+      </c>
+      <c r="AR10" s="6">
+        <f t="shared" si="0"/>
+        <v>1208.679736877438</v>
+      </c>
+      <c r="AS10" s="6">
+        <f t="shared" si="0"/>
+        <v>1236.7374168861195</v>
+      </c>
+      <c r="AT10" s="6">
+        <f t="shared" si="0"/>
+        <v>1264.6338897056537</v>
+      </c>
+      <c r="AU10" s="6">
+        <f t="shared" si="0"/>
+        <v>1292.8439690042835</v>
+      </c>
+      <c r="AV10" s="6">
+        <f t="shared" si="0"/>
+        <v>1321.0231359161528</v>
+      </c>
+      <c r="AW10" s="6">
+        <f t="shared" si="0"/>
+        <v>1349.2220006838074</v>
+      </c>
+      <c r="AX10" s="6">
+        <f t="shared" si="0"/>
+        <v>1377.3840916567706</v>
+      </c>
+      <c r="AY10" s="6">
+        <f t="shared" si="0"/>
+        <v>1405.546329707561</v>
+      </c>
+      <c r="AZ10" s="6">
+        <f t="shared" si="0"/>
+        <v>1433.7626141658877</v>
+      </c>
+      <c r="BA10" s="6">
+        <f t="shared" si="0"/>
+        <v>1461.9733546004243</v>
+      </c>
+      <c r="BB10" s="6">
+        <f t="shared" si="0"/>
+        <v>1490.1884151178456</v>
+      </c>
+      <c r="BC10" s="6">
+        <f t="shared" si="0"/>
+        <v>1518.4019324162082</v>
+      </c>
+      <c r="BD10" s="6">
+        <f t="shared" si="0"/>
+        <v>1546.6154620354664</v>
+      </c>
+      <c r="BE10" s="6">
+        <f t="shared" si="0"/>
+        <v>1574.8289916547246</v>
+      </c>
+      <c r="BF10" s="6">
+        <f t="shared" si="0"/>
+        <v>1603.0425212739829</v>
+      </c>
+      <c r="BG10" s="6">
+        <f t="shared" si="0"/>
+        <v>1631.2560508932411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -8045,124 +11582,204 @@
         <v>1.0551902997123332</v>
       </c>
       <c r="J11" s="13">
-        <f t="shared" ref="J11:AM11" si="0">J10/$H$10</f>
+        <f t="shared" ref="J11:BG11" si="1">J10/$H$10</f>
         <v>1.1132049875502257</v>
       </c>
       <c r="K11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1744093408028264</v>
       </c>
       <c r="L11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2389787282575397</v>
       </c>
       <c r="M11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3070981605317424</v>
       </c>
       <c r="N11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3789628201835662</v>
       </c>
       <c r="O11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.450168583831408</v>
       </c>
       <c r="P11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5250512129483256</v>
       </c>
       <c r="Q11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6038005705311484</v>
       </c>
       <c r="R11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6866163235681393</v>
       </c>
       <c r="S11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7737084492895554</v>
       </c>
       <c r="T11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8371478691202183</v>
       </c>
       <c r="U11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9028562976992263</v>
       </c>
       <c r="V11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9709148896259396</v>
       </c>
       <c r="W11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0414077021192023</v>
       </c>
       <c r="X11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1144217988340044</v>
       </c>
       <c r="Y11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1835687169561924</v>
       </c>
       <c r="Z11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2549769134517068</v>
       </c>
       <c r="AA11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3287203378185262</v>
       </c>
       <c r="AB11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4048753578894537</v>
       </c>
       <c r="AC11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4835208389177659</v>
       </c>
       <c r="AD11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5575476710394502</v>
       </c>
       <c r="AE11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.63378103663897</v>
       </c>
       <c r="AF11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7122867063274558</v>
       </c>
       <c r="AG11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.793132411154589</v>
       </c>
       <c r="AH11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8763879010438065</v>
       </c>
       <c r="AI11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9544182930312406</v>
       </c>
       <c r="AJ11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.0345654864665965</v>
       </c>
       <c r="AK11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1168869057489532</v>
       </c>
       <c r="AL11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2014415330813217</v>
       </c>
       <c r="AM11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2882899507306016</v>
+      </c>
+      <c r="AN11" s="13">
+        <f t="shared" si="1"/>
+        <v>3.3748965117367842</v>
+      </c>
+      <c r="AO11" s="13">
+        <f t="shared" si="1"/>
+        <v>3.4536787760650549</v>
+      </c>
+      <c r="AP11" s="13">
+        <f t="shared" si="1"/>
+        <v>3.5396624879174245</v>
+      </c>
+      <c r="AQ11" s="13">
+        <f t="shared" si="1"/>
+        <v>3.6256879654398193</v>
+      </c>
+      <c r="AR11" s="13">
+        <f t="shared" si="1"/>
+        <v>3.7118750482133578</v>
+      </c>
+      <c r="AS11" s="13">
+        <f t="shared" si="1"/>
+        <v>3.7980406379534792</v>
+      </c>
+      <c r="AT11" s="13">
+        <f t="shared" si="1"/>
+        <v>3.8837111578047532</v>
+      </c>
+      <c r="AU11" s="13">
+        <f t="shared" si="1"/>
+        <v>3.9703447682326263</v>
+      </c>
+      <c r="AV11" s="13">
+        <f t="shared" si="1"/>
+        <v>4.0568834462200885</v>
+      </c>
+      <c r="AW11" s="13">
+        <f t="shared" si="1"/>
+        <v>4.1434826166417018</v>
+      </c>
+      <c r="AX11" s="13">
+        <f t="shared" si="1"/>
+        <v>4.2299688541442144</v>
+      </c>
+      <c r="AY11" s="13">
+        <f t="shared" si="1"/>
+        <v>4.3164555433251168</v>
+      </c>
+      <c r="AZ11" s="13">
+        <f t="shared" si="1"/>
+        <v>4.40310820989892</v>
+      </c>
+      <c r="BA11" s="13">
+        <f t="shared" si="1"/>
+        <v>4.4897438506858709</v>
+      </c>
+      <c r="BB11" s="13">
+        <f t="shared" si="1"/>
+        <v>4.576392758517331</v>
+      </c>
+      <c r="BC11" s="13">
+        <f t="shared" si="1"/>
+        <v>4.6630369270980667</v>
+      </c>
+      <c r="BD11" s="13">
+        <f t="shared" si="1"/>
+        <v>4.7496811335164724</v>
+      </c>
+      <c r="BE11" s="13">
+        <f t="shared" si="1"/>
+        <v>4.836325339934878</v>
+      </c>
+      <c r="BF11" s="13">
+        <f t="shared" si="1"/>
+        <v>4.9229695463532837</v>
+      </c>
+      <c r="BG11" s="13">
+        <f t="shared" si="1"/>
+        <v>5.0096137527716893</v>
       </c>
     </row>
     <row r="18" ht="105.75" customHeight="1"/>
@@ -8173,38 +11790,38 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AM21"/>
+  <dimension ref="A1:BG21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G10" sqref="F10:G10"/>
+    <sheetView topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="AW17" sqref="AW17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="38.109375" customWidth="1"/>
+    <col min="1" max="1" width="38.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:59">
       <c r="A1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:59">
       <c r="A2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:59">
       <c r="A3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:59">
       <c r="A5" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:59">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -8322,8 +11939,68 @@
       <c r="AM7" s="3">
         <v>2050</v>
       </c>
-    </row>
-    <row r="8" spans="1:39">
+      <c r="AN7" s="3">
+        <v>2051</v>
+      </c>
+      <c r="AO7" s="3">
+        <v>2052</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>2053</v>
+      </c>
+      <c r="AQ7" s="3">
+        <v>2054</v>
+      </c>
+      <c r="AR7" s="3">
+        <v>2055</v>
+      </c>
+      <c r="AS7" s="3">
+        <v>2056</v>
+      </c>
+      <c r="AT7" s="3">
+        <v>2057</v>
+      </c>
+      <c r="AU7" s="3">
+        <v>2058</v>
+      </c>
+      <c r="AV7" s="3">
+        <v>2059</v>
+      </c>
+      <c r="AW7" s="3">
+        <v>2060</v>
+      </c>
+      <c r="AX7" s="3">
+        <v>2061</v>
+      </c>
+      <c r="AY7" s="3">
+        <v>2062</v>
+      </c>
+      <c r="AZ7" s="3">
+        <v>2063</v>
+      </c>
+      <c r="BA7" s="3">
+        <v>2064</v>
+      </c>
+      <c r="BB7" s="3">
+        <v>2065</v>
+      </c>
+      <c r="BC7" s="3">
+        <v>2066</v>
+      </c>
+      <c r="BD7" s="3">
+        <v>2067</v>
+      </c>
+      <c r="BE7" s="3">
+        <v>2068</v>
+      </c>
+      <c r="BF7" s="3">
+        <v>2069</v>
+      </c>
+      <c r="BG7" s="3">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -8441,8 +12118,68 @@
       <c r="AM8">
         <v>90000</v>
       </c>
-    </row>
-    <row r="9" spans="1:39">
+      <c r="AN8">
+        <v>91500</v>
+      </c>
+      <c r="AO8">
+        <v>93000</v>
+      </c>
+      <c r="AP8">
+        <v>94500</v>
+      </c>
+      <c r="AQ8">
+        <v>96000</v>
+      </c>
+      <c r="AR8">
+        <v>97500</v>
+      </c>
+      <c r="AS8">
+        <v>99000</v>
+      </c>
+      <c r="AT8">
+        <v>100500</v>
+      </c>
+      <c r="AU8">
+        <v>102000</v>
+      </c>
+      <c r="AV8">
+        <v>103500</v>
+      </c>
+      <c r="AW8">
+        <v>105000</v>
+      </c>
+      <c r="AX8">
+        <v>106500</v>
+      </c>
+      <c r="AY8">
+        <v>108000</v>
+      </c>
+      <c r="AZ8">
+        <v>109500</v>
+      </c>
+      <c r="BA8">
+        <v>111000</v>
+      </c>
+      <c r="BB8">
+        <v>112500</v>
+      </c>
+      <c r="BC8">
+        <v>114000</v>
+      </c>
+      <c r="BD8">
+        <v>115500</v>
+      </c>
+      <c r="BE8">
+        <v>117000</v>
+      </c>
+      <c r="BF8">
+        <v>118500</v>
+      </c>
+      <c r="BG8">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -8560,8 +12297,68 @@
       <c r="AM9">
         <v>90000</v>
       </c>
-    </row>
-    <row r="10" spans="1:39">
+      <c r="AN9">
+        <v>91500</v>
+      </c>
+      <c r="AO9">
+        <v>93000</v>
+      </c>
+      <c r="AP9">
+        <v>94500</v>
+      </c>
+      <c r="AQ9">
+        <v>96000</v>
+      </c>
+      <c r="AR9">
+        <v>97500</v>
+      </c>
+      <c r="AS9">
+        <v>99000</v>
+      </c>
+      <c r="AT9">
+        <v>100500</v>
+      </c>
+      <c r="AU9">
+        <v>102000</v>
+      </c>
+      <c r="AV9">
+        <v>103500</v>
+      </c>
+      <c r="AW9">
+        <v>105000</v>
+      </c>
+      <c r="AX9">
+        <v>106500</v>
+      </c>
+      <c r="AY9">
+        <v>108000</v>
+      </c>
+      <c r="AZ9">
+        <v>109500</v>
+      </c>
+      <c r="BA9">
+        <v>111000</v>
+      </c>
+      <c r="BB9">
+        <v>112500</v>
+      </c>
+      <c r="BC9">
+        <v>114000</v>
+      </c>
+      <c r="BD9">
+        <v>115500</v>
+      </c>
+      <c r="BE9">
+        <v>117000</v>
+      </c>
+      <c r="BF9">
+        <v>118500</v>
+      </c>
+      <c r="BG9">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -8579,7 +12376,7 @@
         <v>1.0096153846153846</v>
       </c>
       <c r="J10" s="7">
-        <f t="shared" ref="J10:AM10" si="0">J9/$H$9</f>
+        <f t="shared" ref="J10:BG10" si="0">J9/$H$9</f>
         <v>1.0769230769230769</v>
       </c>
       <c r="K10" s="7">
@@ -8697,6 +12494,86 @@
       <c r="AM10" s="7">
         <f t="shared" si="0"/>
         <v>3.0288461538461537</v>
+      </c>
+      <c r="AN10" s="7">
+        <f t="shared" si="0"/>
+        <v>3.0793269230769229</v>
+      </c>
+      <c r="AO10" s="7">
+        <f t="shared" si="0"/>
+        <v>3.1298076923076921</v>
+      </c>
+      <c r="AP10" s="7">
+        <f t="shared" si="0"/>
+        <v>3.1802884615384612</v>
+      </c>
+      <c r="AQ10" s="7">
+        <f t="shared" si="0"/>
+        <v>3.2307692307692304</v>
+      </c>
+      <c r="AR10" s="7">
+        <f t="shared" si="0"/>
+        <v>3.2812499999999996</v>
+      </c>
+      <c r="AS10" s="7">
+        <f t="shared" si="0"/>
+        <v>3.3317307692307687</v>
+      </c>
+      <c r="AT10" s="7">
+        <f t="shared" si="0"/>
+        <v>3.3822115384615383</v>
+      </c>
+      <c r="AU10" s="7">
+        <f t="shared" si="0"/>
+        <v>3.4326923076923075</v>
+      </c>
+      <c r="AV10" s="7">
+        <f t="shared" si="0"/>
+        <v>3.4831730769230766</v>
+      </c>
+      <c r="AW10" s="7">
+        <f t="shared" si="0"/>
+        <v>3.5336538461538458</v>
+      </c>
+      <c r="AX10" s="7">
+        <f t="shared" si="0"/>
+        <v>3.584134615384615</v>
+      </c>
+      <c r="AY10" s="7">
+        <f t="shared" si="0"/>
+        <v>3.6346153846153841</v>
+      </c>
+      <c r="AZ10" s="7">
+        <f t="shared" si="0"/>
+        <v>3.6850961538461533</v>
+      </c>
+      <c r="BA10" s="7">
+        <f t="shared" si="0"/>
+        <v>3.7355769230769229</v>
+      </c>
+      <c r="BB10" s="7">
+        <f t="shared" si="0"/>
+        <v>3.7860576923076921</v>
+      </c>
+      <c r="BC10" s="7">
+        <f t="shared" si="0"/>
+        <v>3.8365384615384612</v>
+      </c>
+      <c r="BD10" s="7">
+        <f t="shared" si="0"/>
+        <v>3.8870192307692304</v>
+      </c>
+      <c r="BE10" s="7">
+        <f t="shared" si="0"/>
+        <v>3.9374999999999996</v>
+      </c>
+      <c r="BF10" s="7">
+        <f t="shared" si="0"/>
+        <v>3.9879807692307687</v>
+      </c>
+      <c r="BG10" s="7">
+        <f t="shared" si="0"/>
+        <v>4.0384615384615383</v>
       </c>
     </row>
     <row r="21" ht="101.25" customHeight="1"/>
@@ -8707,38 +12584,38 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AM10"/>
+  <dimension ref="A1:BG10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BE11" sqref="BE11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:59">
       <c r="A1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:59">
       <c r="A2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:59">
       <c r="A3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:59">
       <c r="A5" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:59">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -8856,8 +12733,68 @@
       <c r="AM7" s="3">
         <v>2050</v>
       </c>
-    </row>
-    <row r="8" spans="1:39">
+      <c r="AN7" s="3">
+        <v>2051</v>
+      </c>
+      <c r="AO7" s="3">
+        <v>2052</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>2053</v>
+      </c>
+      <c r="AQ7" s="3">
+        <v>2054</v>
+      </c>
+      <c r="AR7" s="3">
+        <v>2055</v>
+      </c>
+      <c r="AS7" s="3">
+        <v>2056</v>
+      </c>
+      <c r="AT7" s="3">
+        <v>2057</v>
+      </c>
+      <c r="AU7" s="3">
+        <v>2058</v>
+      </c>
+      <c r="AV7" s="3">
+        <v>2059</v>
+      </c>
+      <c r="AW7" s="3">
+        <v>2060</v>
+      </c>
+      <c r="AX7" s="3">
+        <v>2061</v>
+      </c>
+      <c r="AY7" s="3">
+        <v>2062</v>
+      </c>
+      <c r="AZ7" s="3">
+        <v>2063</v>
+      </c>
+      <c r="BA7" s="3">
+        <v>2064</v>
+      </c>
+      <c r="BB7" s="3">
+        <v>2065</v>
+      </c>
+      <c r="BC7" s="3">
+        <v>2066</v>
+      </c>
+      <c r="BD7" s="3">
+        <v>2067</v>
+      </c>
+      <c r="BE7" s="3">
+        <v>2068</v>
+      </c>
+      <c r="BF7" s="3">
+        <v>2069</v>
+      </c>
+      <c r="BG7" s="3">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -8975,8 +12912,88 @@
       <c r="AM8">
         <v>2310</v>
       </c>
-    </row>
-    <row r="9" spans="1:39">
+      <c r="AN8">
+        <f>_xlfn.FORECAST.ETS(AN7,AC8:AM8,AC7:AM7)</f>
+        <v>2308.1999999999998</v>
+      </c>
+      <c r="AO8">
+        <f>_xlfn.FORECAST.ETS(AO7,AD8:AN8,AD7:AN7)</f>
+        <v>2306.3999999999996</v>
+      </c>
+      <c r="AP8">
+        <f t="shared" ref="AP8:BG8" si="0">_xlfn.FORECAST.ETS(AP7,AE8:AO8,AE7:AO7)</f>
+        <v>2304.5999999999995</v>
+      </c>
+      <c r="AQ8">
+        <f t="shared" si="0"/>
+        <v>2302.7999999999993</v>
+      </c>
+      <c r="AR8">
+        <f t="shared" si="0"/>
+        <v>2300.9999999999991</v>
+      </c>
+      <c r="AS8">
+        <f t="shared" si="0"/>
+        <v>2299.1999999999989</v>
+      </c>
+      <c r="AT8">
+        <f t="shared" si="0"/>
+        <v>2297.3999999999987</v>
+      </c>
+      <c r="AU8">
+        <f t="shared" si="0"/>
+        <v>2295.5999999999985</v>
+      </c>
+      <c r="AV8">
+        <f t="shared" si="0"/>
+        <v>2293.7999999999984</v>
+      </c>
+      <c r="AW8">
+        <f t="shared" si="0"/>
+        <v>2291.9999999999982</v>
+      </c>
+      <c r="AX8">
+        <f t="shared" si="0"/>
+        <v>2290.199999999998</v>
+      </c>
+      <c r="AY8">
+        <f t="shared" si="0"/>
+        <v>2288.3999999999978</v>
+      </c>
+      <c r="AZ8">
+        <f t="shared" si="0"/>
+        <v>2286.5999999999976</v>
+      </c>
+      <c r="BA8">
+        <f t="shared" si="0"/>
+        <v>2284.7999999999975</v>
+      </c>
+      <c r="BB8">
+        <f t="shared" si="0"/>
+        <v>2282.9999999999973</v>
+      </c>
+      <c r="BC8">
+        <f t="shared" si="0"/>
+        <v>2281.1999999999971</v>
+      </c>
+      <c r="BD8">
+        <f t="shared" si="0"/>
+        <v>2279.3999999999969</v>
+      </c>
+      <c r="BE8">
+        <f t="shared" si="0"/>
+        <v>2277.5999999999967</v>
+      </c>
+      <c r="BF8">
+        <f t="shared" si="0"/>
+        <v>2275.7999999999965</v>
+      </c>
+      <c r="BG8">
+        <f t="shared" si="0"/>
+        <v>2273.9999999999964</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -9094,8 +13111,88 @@
       <c r="AM9">
         <v>2310</v>
       </c>
-    </row>
-    <row r="10" spans="1:39">
+      <c r="AN9">
+        <f>_xlfn.FORECAST.ETS(AN7,AC9:AM9,AC7:AM7)</f>
+        <v>2308.1999999999998</v>
+      </c>
+      <c r="AO9">
+        <f>_xlfn.FORECAST.ETS(AO7,AD9:AN9,AD7:AN7)</f>
+        <v>2306.3999999999996</v>
+      </c>
+      <c r="AP9">
+        <f t="shared" ref="AP9:BG9" si="1">_xlfn.FORECAST.ETS(AP7,AE9:AO9,AE7:AO7)</f>
+        <v>2304.5999999999995</v>
+      </c>
+      <c r="AQ9">
+        <f t="shared" si="1"/>
+        <v>2302.7999999999993</v>
+      </c>
+      <c r="AR9">
+        <f t="shared" si="1"/>
+        <v>2300.9999999999991</v>
+      </c>
+      <c r="AS9">
+        <f t="shared" si="1"/>
+        <v>2299.1999999999989</v>
+      </c>
+      <c r="AT9">
+        <f t="shared" si="1"/>
+        <v>2297.3999999999987</v>
+      </c>
+      <c r="AU9">
+        <f t="shared" si="1"/>
+        <v>2295.5999999999985</v>
+      </c>
+      <c r="AV9">
+        <f t="shared" si="1"/>
+        <v>2293.7999999999984</v>
+      </c>
+      <c r="AW9">
+        <f t="shared" si="1"/>
+        <v>2291.9999999999982</v>
+      </c>
+      <c r="AX9">
+        <f t="shared" si="1"/>
+        <v>2290.199999999998</v>
+      </c>
+      <c r="AY9">
+        <f t="shared" si="1"/>
+        <v>2288.3999999999978</v>
+      </c>
+      <c r="AZ9">
+        <f t="shared" si="1"/>
+        <v>2286.5999999999976</v>
+      </c>
+      <c r="BA9">
+        <f t="shared" si="1"/>
+        <v>2284.7999999999975</v>
+      </c>
+      <c r="BB9">
+        <f t="shared" si="1"/>
+        <v>2282.9999999999973</v>
+      </c>
+      <c r="BC9">
+        <f t="shared" si="1"/>
+        <v>2281.1999999999971</v>
+      </c>
+      <c r="BD9">
+        <f t="shared" si="1"/>
+        <v>2279.3999999999969</v>
+      </c>
+      <c r="BE9">
+        <f t="shared" si="1"/>
+        <v>2277.5999999999967</v>
+      </c>
+      <c r="BF9">
+        <f t="shared" si="1"/>
+        <v>2275.7999999999965</v>
+      </c>
+      <c r="BG9">
+        <f t="shared" si="1"/>
+        <v>2273.9999999999964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -9113,124 +13210,204 @@
         <v>1.011826544021025</v>
       </c>
       <c r="J10" s="7">
-        <f t="shared" ref="J10:AM10" si="0">J9/$H$9</f>
+        <f t="shared" ref="J10:AN10" si="2">J9/$H$9</f>
         <v>1.0208797288885816</v>
       </c>
       <c r="K10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0299329137561382</v>
       </c>
       <c r="L10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0389860986236945</v>
       </c>
       <c r="M10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0480392834912513</v>
       </c>
       <c r="N10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0570924683588077</v>
       </c>
       <c r="O10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0661456532263642</v>
       </c>
       <c r="P10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0751988380939208</v>
       </c>
       <c r="Q10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0842520229614774</v>
       </c>
       <c r="R10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.093305207829034</v>
       </c>
       <c r="S10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1023583926965905</v>
       </c>
       <c r="T10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1048274431150149</v>
       </c>
       <c r="U10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1072964935334393</v>
       </c>
       <c r="V10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1097655439518641</v>
       </c>
       <c r="W10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1122345943702885</v>
       </c>
       <c r="X10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1147036447887131</v>
       </c>
       <c r="Y10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1171726952071375</v>
       </c>
       <c r="Z10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1196417456255618</v>
       </c>
       <c r="AA10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1221107960439867</v>
       </c>
       <c r="AB10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.124579846462411</v>
       </c>
       <c r="AC10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1270488968808354</v>
       </c>
       <c r="AD10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1261774673213916</v>
       </c>
       <c r="AE10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1253060377619477</v>
       </c>
       <c r="AF10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1244346082025036</v>
       </c>
       <c r="AG10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1235631786430598</v>
       </c>
       <c r="AH10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1226917490836159</v>
       </c>
       <c r="AI10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1218203195241718</v>
       </c>
       <c r="AJ10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.120948889964728</v>
       </c>
       <c r="AK10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1200774604052839</v>
       </c>
       <c r="AL10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.11920603084584</v>
       </c>
       <c r="AM10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1183346012863962</v>
+      </c>
+      <c r="AN10" s="7">
+        <f t="shared" si="2"/>
+        <v>1.1174631717269521</v>
+      </c>
+      <c r="AO10" s="7">
+        <f t="shared" ref="AO10:AP10" si="3">AO9/$H$9</f>
+        <v>1.116591742167508</v>
+      </c>
+      <c r="AP10" s="7">
+        <f t="shared" si="3"/>
+        <v>1.1157203126080639</v>
+      </c>
+      <c r="AQ10" s="7">
+        <f t="shared" ref="AQ10:BG10" si="4">AQ9/$H$9</f>
+        <v>1.1148488830486201</v>
+      </c>
+      <c r="AR10" s="7">
+        <f t="shared" si="4"/>
+        <v>1.113977453489176</v>
+      </c>
+      <c r="AS10" s="7">
+        <f t="shared" si="4"/>
+        <v>1.1131060239297319</v>
+      </c>
+      <c r="AT10" s="7">
+        <f t="shared" si="4"/>
+        <v>1.1122345943702878</v>
+      </c>
+      <c r="AU10" s="7">
+        <f t="shared" si="4"/>
+        <v>1.1113631648108437</v>
+      </c>
+      <c r="AV10" s="7">
+        <f t="shared" si="4"/>
+        <v>1.1104917352513999</v>
+      </c>
+      <c r="AW10" s="7">
+        <f t="shared" si="4"/>
+        <v>1.1096203056919558</v>
+      </c>
+      <c r="AX10" s="7">
+        <f t="shared" si="4"/>
+        <v>1.1087488761325117</v>
+      </c>
+      <c r="AY10" s="7">
+        <f t="shared" si="4"/>
+        <v>1.1078774465730676</v>
+      </c>
+      <c r="AZ10" s="7">
+        <f t="shared" si="4"/>
+        <v>1.1070060170136236</v>
+      </c>
+      <c r="BA10" s="7">
+        <f t="shared" si="4"/>
+        <v>1.1061345874541797</v>
+      </c>
+      <c r="BB10" s="7">
+        <f t="shared" si="4"/>
+        <v>1.1052631578947356</v>
+      </c>
+      <c r="BC10" s="7">
+        <f t="shared" si="4"/>
+        <v>1.1043917283352915</v>
+      </c>
+      <c r="BD10" s="7">
+        <f t="shared" si="4"/>
+        <v>1.1035202987758475</v>
+      </c>
+      <c r="BE10" s="7">
+        <f t="shared" si="4"/>
+        <v>1.1026488692164036</v>
+      </c>
+      <c r="BF10" s="7">
+        <f t="shared" si="4"/>
+        <v>1.1017774396569595</v>
+      </c>
+      <c r="BG10" s="7">
+        <f t="shared" si="4"/>
+        <v>1.1009060100975154</v>
       </c>
     </row>
   </sheetData>
@@ -9240,21 +13417,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J16" sqref="J15:J16"/>
+    <sheetView topLeftCell="A42" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="44.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.19921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.53125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -10468,6 +14645,746 @@
       <c r="J48">
         <f t="shared" si="1"/>
         <v>1.5127769636158588</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="2">
+        <v>2051</v>
+      </c>
+      <c r="B49">
+        <f>_xlfn.FORECAST.ETS($A49,B$10:B$48,$A$10:$A$48)</f>
+        <v>12641555665.394356</v>
+      </c>
+      <c r="C49">
+        <f>_xlfn.FORECAST.ETS($A49,C$10:C$48,$A$10:$A$48)</f>
+        <v>5688364881.7719059</v>
+      </c>
+      <c r="D49">
+        <f>_xlfn.FORECAST.ETS($A49,D$10:D$48,$A$10:$A$48)</f>
+        <v>91242524266.150711</v>
+      </c>
+      <c r="E49">
+        <f>_xlfn.FORECAST.ETS($A49,E$10:E$48,$A$10:$A$48)</f>
+        <v>93228043897.911652</v>
+      </c>
+      <c r="F49">
+        <f>_xlfn.FORECAST.ETS($A49,F$10:F$48,$A$10:$A$48)</f>
+        <v>446289768777.86853</v>
+      </c>
+      <c r="G49">
+        <f>_xlfn.FORECAST.ETS($A49,G$10:G$48,$A$10:$A$48)</f>
+        <v>889530656380.61829</v>
+      </c>
+      <c r="I49">
+        <f t="shared" ref="I49:I68" si="2">B49/$B$17</f>
+        <v>1.7831036240616382</v>
+      </c>
+      <c r="J49">
+        <f t="shared" ref="J49:J68" si="3">AVERAGE(C49:G49)/AVERAGE($C$17:$G$17)</f>
+        <v>1.5300540901980531</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="2">
+        <v>2052</v>
+      </c>
+      <c r="B50">
+        <f>_xlfn.FORECAST.ETS($A50,B$10:B$48,$A$10:$A$48)</f>
+        <v>12757155238.532883</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ref="C50:G68" si="4">_xlfn.FORECAST.ETS($A50,C$10:C$48,$A$10:$A$48)</f>
+        <v>5723997829.0225067</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="4"/>
+        <v>92179281694.841934</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="4"/>
+        <v>94121024971.838287</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="4"/>
+        <v>451165902093.38287</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="4"/>
+        <v>898175593353.70862</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="2"/>
+        <v>1.7994090553913873</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="3"/>
+        <v>1.5454816174375088</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="2">
+        <v>2053</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ref="B51:B69" si="5">_xlfn.FORECAST.ETS($A51,B$10:B$48,$A$10:$A$48)</f>
+        <v>12872754811.671408</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="4"/>
+        <v>5759630776.2731075</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="4"/>
+        <v>93116039123.533142</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="4"/>
+        <v>95014006045.764923</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="4"/>
+        <v>456042035408.89716</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="4"/>
+        <v>906820530326.79883</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="2"/>
+        <v>1.8157144867211359</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="3"/>
+        <v>1.5609091446769645</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="2">
+        <v>2054</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="5"/>
+        <v>12988354384.809933</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="4"/>
+        <v>5795263723.5237083</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="4"/>
+        <v>94052796552.224365</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="4"/>
+        <v>95906987119.691559</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="4"/>
+        <v>460918168724.41144</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="4"/>
+        <v>915465467299.88916</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="2"/>
+        <v>1.8320199180508845</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="3"/>
+        <v>1.5763366719164207</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="2">
+        <v>2055</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="5"/>
+        <v>13103953957.94846</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="4"/>
+        <v>5830896670.7743092</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="4"/>
+        <v>94989553980.915588</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="4"/>
+        <v>96799968193.618195</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="4"/>
+        <v>465794302039.92578</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="4"/>
+        <v>924110404272.97949</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="2"/>
+        <v>1.8483253493806333</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="3"/>
+        <v>1.5917641991558769</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="2">
+        <v>2056</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="5"/>
+        <v>13219553531.086985</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="4"/>
+        <v>5866529618.02491</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="4"/>
+        <v>95926311409.606812</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="4"/>
+        <v>97692949267.54483</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="4"/>
+        <v>470670435355.44006</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="4"/>
+        <v>932755341246.06982</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="2"/>
+        <v>1.8646307807103819</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="3"/>
+        <v>1.6071917263953328</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="2">
+        <v>2057</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="5"/>
+        <v>13335153104.22551</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="4"/>
+        <v>5902162565.2755098</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="4"/>
+        <v>96863068838.298019</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="4"/>
+        <v>98585930341.471466</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="4"/>
+        <v>475546568670.95435</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="4"/>
+        <v>941400278219.16016</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="2"/>
+        <v>1.8809362120401307</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="3"/>
+        <v>1.6226192536347885</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="2">
+        <v>2058</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="5"/>
+        <v>13450752677.364037</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="4"/>
+        <v>5937795512.5261106</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="4"/>
+        <v>97799826266.989243</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="4"/>
+        <v>99478911415.398102</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="4"/>
+        <v>480422701986.46863</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="4"/>
+        <v>950045215192.25037</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="2"/>
+        <v>1.8972416433698795</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="3"/>
+        <v>1.6380467808742445</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="2">
+        <v>2059</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="5"/>
+        <v>13566352250.502562</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="4"/>
+        <v>5973428459.7767115</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="4"/>
+        <v>98736583695.680466</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="4"/>
+        <v>100371892489.32472</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="4"/>
+        <v>485298835301.98297</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="4"/>
+        <v>958690152165.3407</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="2"/>
+        <v>1.9135470746996281</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="3"/>
+        <v>1.6534743081137004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="2">
+        <v>2060</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="5"/>
+        <v>13681951823.641087</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="4"/>
+        <v>6009061407.0273123</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="4"/>
+        <v>99673341124.371689</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="4"/>
+        <v>101264873563.25136</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="4"/>
+        <v>490174968617.49725</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="4"/>
+        <v>967335089138.43103</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="2"/>
+        <v>1.9298525060293767</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="3"/>
+        <v>1.6689018353531566</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="2">
+        <v>2061</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="5"/>
+        <v>13797551396.779613</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="4"/>
+        <v>6044694354.2779131</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="4"/>
+        <v>100610098553.0629</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="4"/>
+        <v>102157854637.17799</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="4"/>
+        <v>495051101933.0116</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="4"/>
+        <v>975980026111.52136</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="2"/>
+        <v>1.9461579373591256</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="3"/>
+        <v>1.6843293625926128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="2">
+        <v>2062</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="5"/>
+        <v>13913150969.918139</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="4"/>
+        <v>6080327301.5285139</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="4"/>
+        <v>101546855981.75412</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="4"/>
+        <v>103050835711.10463</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="4"/>
+        <v>499927235248.52588</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="4"/>
+        <v>984624963084.61157</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="2"/>
+        <v>1.9624633686888744</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="3"/>
+        <v>1.6997568898320687</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="2">
+        <v>2063</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="5"/>
+        <v>14028750543.056664</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="4"/>
+        <v>6115960248.7791147</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="4"/>
+        <v>102483613410.44534</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="4"/>
+        <v>103943816785.03127</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="4"/>
+        <v>504803368564.04016</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="4"/>
+        <v>993269900057.7019</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="2"/>
+        <v>1.978768800018623</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="3"/>
+        <v>1.7151844170715249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="2">
+        <v>2064</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="5"/>
+        <v>14144350116.19519</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="4"/>
+        <v>6151593196.0297155</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="4"/>
+        <v>103420370839.13657</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="4"/>
+        <v>104836797858.9579</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="4"/>
+        <v>509679501879.55444</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="4"/>
+        <v>1001914837030.7922</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="2"/>
+        <v>1.9950742313483718</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="3"/>
+        <v>1.7306119443109806</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="2">
+        <v>2065</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="5"/>
+        <v>14259949689.333715</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="4"/>
+        <v>6187226143.2803164</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="4"/>
+        <v>104357128267.82777</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="4"/>
+        <v>105729778932.88454</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="4"/>
+        <v>514555635195.06879</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="4"/>
+        <v>1010559774003.8826</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="2"/>
+        <v>2.0113796626781206</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="3"/>
+        <v>1.7460394715504366</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="2">
+        <v>2066</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="5"/>
+        <v>14375549262.47224</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="4"/>
+        <v>6222859090.5309172</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="4"/>
+        <v>105293885696.519</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="4"/>
+        <v>106622760006.81117</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="4"/>
+        <v>519431768510.58307</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="4"/>
+        <v>1019204710976.9729</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="2"/>
+        <v>2.027685094007869</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="3"/>
+        <v>1.7614669987898925</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="2">
+        <v>2067</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="5"/>
+        <v>14491148835.610767</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="4"/>
+        <v>6258492037.781517</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="4"/>
+        <v>106230643125.21022</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="4"/>
+        <v>107515741080.73781</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="4"/>
+        <v>524307901826.09735</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="4"/>
+        <v>1027849647950.0631</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="2"/>
+        <v>2.0439905253376178</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="3"/>
+        <v>1.7768945260293487</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="2">
+        <v>2068</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="5"/>
+        <v>14606748408.749292</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="4"/>
+        <v>6294124985.0321178</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="4"/>
+        <v>107167400553.90144</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="4"/>
+        <v>108408722154.66444</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="4"/>
+        <v>529184035141.61169</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="4"/>
+        <v>1036494584923.1534</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="2"/>
+        <v>2.0602959566673666</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="3"/>
+        <v>1.7923220532688049</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="2">
+        <v>2069</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="5"/>
+        <v>14722347981.887817</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="4"/>
+        <v>6329757932.2827187</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="4"/>
+        <v>108104157982.59265</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="4"/>
+        <v>109301703228.59108</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="4"/>
+        <v>534060168457.12598</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="4"/>
+        <v>1045139521896.2438</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="2"/>
+        <v>2.076601387997115</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="3"/>
+        <v>1.8077495805082608</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="2">
+        <v>2070</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="5"/>
+        <v>14837947555.026344</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="4"/>
+        <v>6365390879.5333195</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="4"/>
+        <v>109040915411.28387</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="4"/>
+        <v>110194684302.51772</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="4"/>
+        <v>538936301772.64026</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="4"/>
+        <v>1053784458869.334</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="2"/>
+        <v>2.0929068193268643</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="3"/>
+        <v>1.8231771077477166</v>
       </c>
     </row>
   </sheetData>
@@ -10477,36 +15394,38 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:BG25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AU13" sqref="AU13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:59">
       <c r="A1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:59">
       <c r="A2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:59">
       <c r="A3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:59">
       <c r="A5" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:59">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -10624,8 +15543,68 @@
       <c r="AM7" s="3">
         <v>2050</v>
       </c>
-    </row>
-    <row r="8" spans="1:39">
+      <c r="AN7" s="3">
+        <v>2051</v>
+      </c>
+      <c r="AO7" s="3">
+        <v>2052</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>2053</v>
+      </c>
+      <c r="AQ7" s="3">
+        <v>2054</v>
+      </c>
+      <c r="AR7" s="3">
+        <v>2055</v>
+      </c>
+      <c r="AS7" s="3">
+        <v>2056</v>
+      </c>
+      <c r="AT7" s="3">
+        <v>2057</v>
+      </c>
+      <c r="AU7" s="3">
+        <v>2058</v>
+      </c>
+      <c r="AV7" s="3">
+        <v>2059</v>
+      </c>
+      <c r="AW7" s="3">
+        <v>2060</v>
+      </c>
+      <c r="AX7" s="3">
+        <v>2061</v>
+      </c>
+      <c r="AY7" s="3">
+        <v>2062</v>
+      </c>
+      <c r="AZ7" s="3">
+        <v>2063</v>
+      </c>
+      <c r="BA7" s="3">
+        <v>2064</v>
+      </c>
+      <c r="BB7" s="3">
+        <v>2065</v>
+      </c>
+      <c r="BC7" s="3">
+        <v>2066</v>
+      </c>
+      <c r="BD7" s="3">
+        <v>2067</v>
+      </c>
+      <c r="BE7" s="3">
+        <v>2068</v>
+      </c>
+      <c r="BF7" s="3">
+        <v>2069</v>
+      </c>
+      <c r="BG7" s="3">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -10743,8 +15722,88 @@
       <c r="AM8">
         <v>513568</v>
       </c>
-    </row>
-    <row r="9" spans="1:39">
+      <c r="AN8">
+        <f>_xlfn.FORECAST.ETS(AN$7,$B8:$AM8, $B$7:$AM$7)</f>
+        <v>516103.47964633611</v>
+      </c>
+      <c r="AO8">
+        <f>_xlfn.FORECAST.ETS(AO$7,$B8:$AM8, $B$7:$AM$7)</f>
+        <v>518160.01250277879</v>
+      </c>
+      <c r="AP8">
+        <f t="shared" ref="AP8:BF9" si="0">_xlfn.FORECAST.ETS(AP$7,$B8:$AM8, $B$7:$AM$7)</f>
+        <v>520216.5453592214</v>
+      </c>
+      <c r="AQ8">
+        <f t="shared" si="0"/>
+        <v>522273.07821566408</v>
+      </c>
+      <c r="AR8">
+        <f t="shared" si="0"/>
+        <v>524329.61107210675</v>
+      </c>
+      <c r="AS8">
+        <f t="shared" si="0"/>
+        <v>526386.14392854937</v>
+      </c>
+      <c r="AT8">
+        <f t="shared" si="0"/>
+        <v>528442.67678499199</v>
+      </c>
+      <c r="AU8">
+        <f t="shared" si="0"/>
+        <v>530499.2096414346</v>
+      </c>
+      <c r="AV8">
+        <f t="shared" si="0"/>
+        <v>532555.74249787733</v>
+      </c>
+      <c r="AW8">
+        <f t="shared" si="0"/>
+        <v>534612.27535431995</v>
+      </c>
+      <c r="AX8">
+        <f t="shared" si="0"/>
+        <v>536668.80821076257</v>
+      </c>
+      <c r="AY8">
+        <f t="shared" si="0"/>
+        <v>538725.34106720518</v>
+      </c>
+      <c r="AZ8">
+        <f t="shared" si="0"/>
+        <v>540781.87392364792</v>
+      </c>
+      <c r="BA8">
+        <f t="shared" si="0"/>
+        <v>542838.40678009053</v>
+      </c>
+      <c r="BB8">
+        <f t="shared" si="0"/>
+        <v>544894.93963653315</v>
+      </c>
+      <c r="BC8">
+        <f t="shared" si="0"/>
+        <v>546951.47249297576</v>
+      </c>
+      <c r="BD8">
+        <f t="shared" si="0"/>
+        <v>549008.0053494185</v>
+      </c>
+      <c r="BE8">
+        <f t="shared" si="0"/>
+        <v>551064.53820586111</v>
+      </c>
+      <c r="BF8">
+        <f t="shared" si="0"/>
+        <v>553121.07106230373</v>
+      </c>
+      <c r="BG8">
+        <f>_xlfn.FORECAST.ETS(BG$7,$B8:$AM8, $B$7:$AM$7)</f>
+        <v>555177.60391874635</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -10862,8 +15921,88 @@
       <c r="AM9">
         <v>513568</v>
       </c>
-    </row>
-    <row r="10" spans="1:39">
+      <c r="AN9">
+        <f>_xlfn.FORECAST.ETS(AN$7,$B9:$AM9, $B$7:$AM$7)</f>
+        <v>516103.47964633611</v>
+      </c>
+      <c r="AO9">
+        <f>_xlfn.FORECAST.ETS(AO$7,$B9:$AM9, $B$7:$AM$7)</f>
+        <v>518160.01250277879</v>
+      </c>
+      <c r="AP9">
+        <f t="shared" si="0"/>
+        <v>520216.5453592214</v>
+      </c>
+      <c r="AQ9">
+        <f t="shared" si="0"/>
+        <v>522273.07821566408</v>
+      </c>
+      <c r="AR9">
+        <f t="shared" si="0"/>
+        <v>524329.61107210675</v>
+      </c>
+      <c r="AS9">
+        <f t="shared" si="0"/>
+        <v>526386.14392854937</v>
+      </c>
+      <c r="AT9">
+        <f t="shared" si="0"/>
+        <v>528442.67678499199</v>
+      </c>
+      <c r="AU9">
+        <f t="shared" si="0"/>
+        <v>530499.2096414346</v>
+      </c>
+      <c r="AV9">
+        <f t="shared" si="0"/>
+        <v>532555.74249787733</v>
+      </c>
+      <c r="AW9">
+        <f t="shared" si="0"/>
+        <v>534612.27535431995</v>
+      </c>
+      <c r="AX9">
+        <f t="shared" si="0"/>
+        <v>536668.80821076257</v>
+      </c>
+      <c r="AY9">
+        <f t="shared" si="0"/>
+        <v>538725.34106720518</v>
+      </c>
+      <c r="AZ9">
+        <f t="shared" si="0"/>
+        <v>540781.87392364792</v>
+      </c>
+      <c r="BA9">
+        <f t="shared" si="0"/>
+        <v>542838.40678009053</v>
+      </c>
+      <c r="BB9">
+        <f t="shared" si="0"/>
+        <v>544894.93963653315</v>
+      </c>
+      <c r="BC9">
+        <f t="shared" si="0"/>
+        <v>546951.47249297576</v>
+      </c>
+      <c r="BD9">
+        <f t="shared" si="0"/>
+        <v>549008.0053494185</v>
+      </c>
+      <c r="BE9">
+        <f t="shared" si="0"/>
+        <v>551064.53820586111</v>
+      </c>
+      <c r="BF9">
+        <f t="shared" si="0"/>
+        <v>553121.07106230373</v>
+      </c>
+      <c r="BG9">
+        <f>_xlfn.FORECAST.ETS(BG$7,$B9:$AM9, $B$7:$AM$7)</f>
+        <v>555177.60391874635</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -10875,124 +16014,209 @@
         <v>1.0389259539579119</v>
       </c>
       <c r="J10">
-        <f t="shared" ref="J10:AM10" si="0">J9/$H$9</f>
+        <f t="shared" ref="J10:AO10" si="1">J9/$H$9</f>
         <v>1.08325532161317</v>
       </c>
       <c r="K10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1275846892684278</v>
       </c>
       <c r="L10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1719140569236859</v>
       </c>
       <c r="M10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2162434245789442</v>
       </c>
       <c r="N10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2605727922342023</v>
       </c>
       <c r="O10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3049021598894603</v>
       </c>
       <c r="P10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3492315275447184</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3935608951999763</v>
       </c>
       <c r="R10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4378902628552346</v>
       </c>
       <c r="S10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4822196305104927</v>
       </c>
       <c r="T10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5140271339648614</v>
       </c>
       <c r="U10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5458346374192304</v>
       </c>
       <c r="V10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5776421408735992</v>
       </c>
       <c r="W10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.609449644327968</v>
       </c>
       <c r="X10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6412571477823368</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6730646512367053</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7048721546910743</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7366796581454431</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7684871615998119</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8002946650541807</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8139240281305486</v>
       </c>
       <c r="AE10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8275533912069164</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8411827542832842</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8548121173596519</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8684414804360199</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8820708435123878</v>
       </c>
       <c r="AJ10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8957002065887554</v>
       </c>
       <c r="AK10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9093295696651233</v>
       </c>
       <c r="AL10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9229589327414911</v>
       </c>
       <c r="AM10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9365882958178589</v>
+      </c>
+      <c r="AN10">
+        <f t="shared" si="1"/>
+        <v>1.9461492112319403</v>
+      </c>
+      <c r="AO10">
+        <f t="shared" si="1"/>
+        <v>1.9539040897675028</v>
+      </c>
+      <c r="AP10">
+        <f t="shared" ref="AP10:BG10" si="2">AP9/$H$9</f>
+        <v>1.961658968303065</v>
+      </c>
+      <c r="AQ10">
+        <f t="shared" si="2"/>
+        <v>1.9694138468386275</v>
+      </c>
+      <c r="AR10">
+        <f t="shared" si="2"/>
+        <v>1.9771687253741901</v>
+      </c>
+      <c r="AS10">
+        <f t="shared" si="2"/>
+        <v>1.9849236039097522</v>
+      </c>
+      <c r="AT10">
+        <f t="shared" si="2"/>
+        <v>1.9926784824453145</v>
+      </c>
+      <c r="AU10">
+        <f t="shared" si="2"/>
+        <v>2.0004333609808769</v>
+      </c>
+      <c r="AV10">
+        <f t="shared" si="2"/>
+        <v>2.0081882395164397</v>
+      </c>
+      <c r="AW10">
+        <f t="shared" si="2"/>
+        <v>2.0159431180520015</v>
+      </c>
+      <c r="AX10">
+        <f t="shared" si="2"/>
+        <v>2.0236979965875639</v>
+      </c>
+      <c r="AY10">
+        <f t="shared" si="2"/>
+        <v>2.0314528751231262</v>
+      </c>
+      <c r="AZ10">
+        <f t="shared" si="2"/>
+        <v>2.039207753658689</v>
+      </c>
+      <c r="BA10">
+        <f t="shared" si="2"/>
+        <v>2.0469626321942513</v>
+      </c>
+      <c r="BB10">
+        <f t="shared" si="2"/>
+        <v>2.0547175107298137</v>
+      </c>
+      <c r="BC10">
+        <f t="shared" si="2"/>
+        <v>2.0624723892653756</v>
+      </c>
+      <c r="BD10">
+        <f t="shared" si="2"/>
+        <v>2.0702272678009384</v>
+      </c>
+      <c r="BE10">
+        <f t="shared" si="2"/>
+        <v>2.0779821463365007</v>
+      </c>
+      <c r="BF10">
+        <f t="shared" si="2"/>
+        <v>2.085737024872063</v>
+      </c>
+      <c r="BG10">
+        <f t="shared" si="2"/>
+        <v>2.0934919034076254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:59">
+      <c r="AU13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="25" ht="99" customHeight="1"/>

--- a/InputData/trans/BCDTRtSY/BAU Cargo Dist Transported Relative to Start Yr.xlsx
+++ b/InputData/trans/BCDTRtSY/BAU Cargo Dist Transported Relative to Start Yr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anima\OneDrive\Desktop\Models\eps-brazil-cpl2\InputData\trans\BCDTRtSY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA9C29D-BF0B-47ED-9931-208093D38F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E69CCA-3936-4787-B78A-08D7B79977A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="742" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="742" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,6 @@
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -577,7 +576,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -738,12 +737,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,7 +1247,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="155">
     <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3736,7 +3729,7 @@
   </sheetPr>
   <dimension ref="A1:BA7"/>
   <sheetViews>
-    <sheetView topLeftCell="AL1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AZ8" sqref="AZ8"/>
     </sheetView>
   </sheetViews>
@@ -4040,83 +4033,83 @@
       </c>
       <c r="AH2" s="18">
         <f>'psgr-Road'!AL27</f>
-        <v>1.7325653109582373</v>
+        <v>1.7377591593476174</v>
       </c>
       <c r="AI2" s="18">
         <f>'psgr-Road'!AM27</f>
-        <v>1.7434866324880931</v>
+        <v>1.7569331954858938</v>
       </c>
       <c r="AJ2" s="18">
         <f>'psgr-Road'!AN27</f>
-        <v>1.7544079540179489</v>
+        <v>1.7794307120644119</v>
       </c>
       <c r="AK2" s="18">
         <f>'psgr-Road'!AO27</f>
-        <v>1.7653292755478054</v>
+        <v>1.804977725124125</v>
       </c>
       <c r="AL2" s="18">
         <f>'psgr-Road'!AP27</f>
-        <v>1.7762505970776614</v>
+        <v>1.8333228465618456</v>
       </c>
       <c r="AM2" s="18">
         <f>'psgr-Road'!AQ27</f>
-        <v>1.7871719186075177</v>
+        <v>1.8642354182370995</v>
       </c>
       <c r="AN2" s="18">
         <f>'psgr-Road'!AR27</f>
-        <v>1.7980932401373733</v>
+        <v>1.8975038008041718</v>
       </c>
       <c r="AO2" s="18">
         <f>'psgr-Road'!AS27</f>
-        <v>1.8090145616672295</v>
+        <v>1.9329338042603892</v>
       </c>
       <c r="AP2" s="18">
         <f>'psgr-Road'!AT27</f>
-        <v>1.8199358831970855</v>
+        <v>1.970347248345883</v>
       </c>
       <c r="AQ2" s="18">
         <f>'psgr-Road'!AU27</f>
-        <v>1.8308572047269414</v>
+        <v>2.0095806419592139</v>
       </c>
       <c r="AR2" s="18">
         <f>'psgr-Road'!AV27</f>
-        <v>1.8417785262567974</v>
+        <v>2.0504839716829713</v>
       </c>
       <c r="AS2" s="18">
         <f>'psgr-Road'!AW27</f>
-        <v>1.8526998477866536</v>
+        <v>2.0929195903562299</v>
       </c>
       <c r="AT2" s="18">
         <f>'psgr-Road'!AX27</f>
-        <v>1.8636211693165097</v>
+        <v>2.1367611973966887</v>
       </c>
       <c r="AU2" s="18">
         <f>'psgr-Road'!AY27</f>
-        <v>1.8745424908463657</v>
+        <v>2.1818929032729195</v>
       </c>
       <c r="AV2" s="18">
         <f>'psgr-Road'!AZ27</f>
-        <v>1.885463812376222</v>
+        <v>2.2282083711634426</v>
       </c>
       <c r="AW2" s="18">
         <f>'psgr-Road'!BA27</f>
-        <v>1.896385133906078</v>
+        <v>2.2756100294205761</v>
       </c>
       <c r="AX2" s="18">
         <f>'psgr-Road'!BB27</f>
-        <v>1.9073064554359338</v>
+        <v>2.3240083489882699</v>
       </c>
       <c r="AY2" s="18">
         <f>'psgr-Road'!BC27</f>
-        <v>1.9182277769657901</v>
+        <v>2.3733211804092784</v>
       </c>
       <c r="AZ2" s="18">
         <f>'psgr-Road'!BD27</f>
-        <v>1.9291490984956463</v>
+        <v>2.4234731455020411</v>
       </c>
       <c r="BA2" s="18">
         <f>'psgr-Road'!BE27</f>
-        <v>1.9400704200255023</v>
+        <v>2.474395079195213</v>
       </c>
     </row>
     <row r="3" spans="1:53">
@@ -5196,8 +5189,8 @@
   </sheetPr>
   <dimension ref="A1:BA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AY10" sqref="AY10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AN16" sqref="AN16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6704,8 +6697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BE31"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="BF13" sqref="BF13"/>
+    <sheetView tabSelected="1" topLeftCell="AH6" workbookViewId="0">
+      <selection activeCell="AL14" sqref="AL14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7224,84 +7217,84 @@
         <v>6132</v>
       </c>
       <c r="AL11" s="24">
-        <f>_xlfn.FORECAST.ETS(AL$9,$B11:$AK11,$B$9:$AK$9)</f>
-        <v>3952.6713359210848</v>
+        <f>(AK11+AK11*($AK$11-$AJ$11)/$AJ$11)</f>
+        <v>4601.2511013215862</v>
       </c>
       <c r="AM11" s="24">
-        <f t="shared" ref="AM11:AM13" si="1">_xlfn.FORECAST.ETS(AM$9,$B11:$AK11,$B$9:$AK$9)</f>
-        <v>1776.0439092894344</v>
+        <f t="shared" ref="AM11:BE11" si="1">(AL11+AL11*($AK$11-$AJ$11)/$AJ$11)</f>
+        <v>3452.6274783778717</v>
       </c>
       <c r="AN11" s="24">
-        <f t="shared" si="0"/>
-        <v>-400.58351734180309</v>
+        <f t="shared" si="1"/>
+        <v>2590.7380931734106</v>
       </c>
       <c r="AO11" s="24">
-        <f t="shared" si="0"/>
-        <v>-2577.2109439734536</v>
+        <f t="shared" si="1"/>
+        <v>1944.0046484752024</v>
       </c>
       <c r="AP11" s="24">
-        <f t="shared" si="0"/>
-        <v>-4753.8383706046898</v>
+        <f t="shared" si="1"/>
+        <v>1458.7171444505557</v>
       </c>
       <c r="AQ11" s="24">
-        <f t="shared" si="0"/>
-        <v>-6930.465797236342</v>
+        <f t="shared" si="1"/>
+        <v>1094.5733638975535</v>
       </c>
       <c r="AR11" s="24">
-        <f t="shared" si="0"/>
-        <v>-9107.0932238675796</v>
+        <f t="shared" si="1"/>
+        <v>821.33184868083674</v>
       </c>
       <c r="AS11" s="24">
-        <f t="shared" si="0"/>
-        <v>-11283.72065049923</v>
+        <f t="shared" si="1"/>
+        <v>616.30040334200817</v>
       </c>
       <c r="AT11" s="24">
-        <f t="shared" si="0"/>
-        <v>-13460.348077130466</v>
+        <f t="shared" si="1"/>
+        <v>462.45155081903988</v>
       </c>
       <c r="AU11" s="24">
-        <f t="shared" si="0"/>
-        <v>-15636.975503762116</v>
+        <f t="shared" si="1"/>
+        <v>347.00843240606366</v>
       </c>
       <c r="AV11" s="24">
-        <f t="shared" si="0"/>
-        <v>-17813.602930393357</v>
+        <f t="shared" si="1"/>
+        <v>260.38371359691416</v>
       </c>
       <c r="AW11" s="24">
-        <f t="shared" si="0"/>
-        <v>-19990.230357025004</v>
+        <f t="shared" si="1"/>
+        <v>195.38337393248625</v>
       </c>
       <c r="AX11" s="24">
-        <f t="shared" si="0"/>
-        <v>-22166.857783656244</v>
+        <f t="shared" si="1"/>
+        <v>146.60925709177749</v>
       </c>
       <c r="AY11" s="24">
-        <f t="shared" si="0"/>
-        <v>-24343.485210287894</v>
+        <f t="shared" si="1"/>
+        <v>110.01076413200926</v>
       </c>
       <c r="AZ11" s="24">
-        <f t="shared" si="0"/>
-        <v>-26520.112636919133</v>
+        <f t="shared" si="1"/>
+        <v>82.548458842080365</v>
       </c>
       <c r="BA11" s="24">
-        <f t="shared" si="0"/>
-        <v>-28696.74006355078</v>
+        <f t="shared" si="1"/>
+        <v>61.941648264762208</v>
       </c>
       <c r="BB11" s="24">
-        <f t="shared" si="0"/>
-        <v>-30873.36749018202</v>
+        <f t="shared" si="1"/>
+        <v>46.478975423338454</v>
       </c>
       <c r="BC11" s="24">
-        <f t="shared" si="0"/>
-        <v>-33049.994916813666</v>
+        <f t="shared" si="1"/>
+        <v>34.87629433381197</v>
       </c>
       <c r="BD11" s="24">
-        <f t="shared" si="0"/>
-        <v>-35226.622343444906</v>
+        <f t="shared" si="1"/>
+        <v>26.170024088954357</v>
       </c>
       <c r="BE11" s="24">
-        <f t="shared" si="0"/>
-        <v>-37403.249770076553</v>
+        <f t="shared" si="1"/>
+        <v>19.637125270860025</v>
       </c>
     </row>
     <row r="12" spans="1:57">
@@ -7417,84 +7410,84 @@
         <v>584844513.65279996</v>
       </c>
       <c r="AL12" s="24">
-        <f>_xlfn.FORECAST.ETS(AL$9,$B12:$AK12,$B$9:$AK$9)</f>
-        <v>530942109.15174592</v>
+        <f>(AK12+AK12*($AK$12-$AJ$12)/$AJ$12)</f>
+        <v>536639381.01910388</v>
       </c>
       <c r="AM12" s="24">
-        <f t="shared" si="1"/>
-        <v>477657600.61346012</v>
+        <f t="shared" ref="AM12:BE12" si="2">(AL12+AL12*($AK$12-$AJ$12)/$AJ$12)</f>
+        <v>492407500.69091159</v>
       </c>
       <c r="AN12" s="24">
-        <f t="shared" si="0"/>
-        <v>424373092.07517433</v>
+        <f t="shared" si="2"/>
+        <v>451821381.94222194</v>
       </c>
       <c r="AO12" s="24">
-        <f t="shared" si="0"/>
-        <v>371088583.5368886</v>
+        <f t="shared" si="2"/>
+        <v>414580527.09136379</v>
       </c>
       <c r="AP12" s="24">
-        <f t="shared" si="0"/>
-        <v>317804074.99860287</v>
+        <f t="shared" si="2"/>
+        <v>380409206.63053596</v>
       </c>
       <c r="AQ12" s="24">
-        <f t="shared" si="0"/>
-        <v>264519566.46031708</v>
+        <f t="shared" si="2"/>
+        <v>349054417.73772186</v>
       </c>
       <c r="AR12" s="24">
-        <f t="shared" si="0"/>
-        <v>211235057.92203128</v>
+        <f t="shared" si="2"/>
+        <v>320284011.05589819</v>
       </c>
       <c r="AS12" s="24">
-        <f t="shared" si="0"/>
-        <v>157950549.38374555</v>
+        <f t="shared" si="2"/>
+        <v>293884971.87030107</v>
       </c>
       <c r="AT12" s="24">
-        <f t="shared" si="0"/>
-        <v>104666040.84545982</v>
+        <f t="shared" si="2"/>
+        <v>269661842.95766807</v>
       </c>
       <c r="AU12" s="24">
-        <f t="shared" si="0"/>
-        <v>51381532.307174034</v>
+        <f t="shared" si="2"/>
+        <v>247435277.43030745</v>
       </c>
       <c r="AV12" s="24">
-        <f t="shared" si="0"/>
-        <v>-1902976.2311117703</v>
+        <f t="shared" si="2"/>
+        <v>227040710.86032104</v>
       </c>
       <c r="AW12" s="24">
-        <f t="shared" si="0"/>
-        <v>-55187484.76939749</v>
+        <f t="shared" si="2"/>
+        <v>208327142.85245261</v>
       </c>
       <c r="AX12" s="24">
-        <f t="shared" si="0"/>
-        <v>-108471993.30768323</v>
+        <f t="shared" si="2"/>
+        <v>191156019.04438481</v>
       </c>
       <c r="AY12" s="24">
-        <f t="shared" si="0"/>
-        <v>-161756501.84596908</v>
+        <f t="shared" si="2"/>
+        <v>175400205.25686875</v>
       </c>
       <c r="AZ12" s="24">
-        <f t="shared" si="0"/>
-        <v>-215041010.38425481</v>
+        <f t="shared" si="2"/>
+        <v>160943046.19834262</v>
       </c>
       <c r="BA12" s="24">
-        <f t="shared" si="0"/>
-        <v>-268325518.92254055</v>
+        <f t="shared" si="2"/>
+        <v>147677501.7547335</v>
       </c>
       <c r="BB12" s="24">
-        <f t="shared" si="0"/>
-        <v>-321610027.46082628</v>
+        <f t="shared" si="2"/>
+        <v>135505354.46957323</v>
       </c>
       <c r="BC12" s="24">
-        <f t="shared" si="0"/>
-        <v>-374894535.99911201</v>
+        <f t="shared" si="2"/>
+        <v>124336482.34664926</v>
       </c>
       <c r="BD12" s="24">
-        <f t="shared" si="0"/>
-        <v>-428179044.53739786</v>
+        <f t="shared" si="2"/>
+        <v>114088191.59105597</v>
       </c>
       <c r="BE12" s="24">
-        <f t="shared" si="0"/>
-        <v>-481463553.07568359</v>
+        <f t="shared" si="2"/>
+        <v>104684604.34829301</v>
       </c>
     </row>
     <row r="13" spans="1:57">
@@ -7614,7 +7607,7 @@
         <v>807264646.60744405</v>
       </c>
       <c r="AM13">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AM13" si="3">_xlfn.FORECAST.ETS(AM$9,$B13:$AK13,$B$9:$AK$9)</f>
         <v>858241495.23508525</v>
       </c>
       <c r="AN13">
@@ -7980,79 +7973,79 @@
         <v>36526243.387515634</v>
       </c>
       <c r="AM15">
-        <f t="shared" ref="AM15:BE15" si="2">_xlfn.FORECAST.ETS(AM$9,$AA15:$AK15,$AA$9:$AK$9)</f>
+        <f t="shared" ref="AM15:BE15" si="4">_xlfn.FORECAST.ETS(AM$9,$AA15:$AK15,$AA$9:$AK$9)</f>
         <v>41350044.825934231</v>
       </c>
       <c r="AN15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>46173846.264352828</v>
       </c>
       <c r="AO15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50997647.702771425</v>
       </c>
       <c r="AP15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>55821449.141190022</v>
       </c>
       <c r="AQ15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60645250.579608619</v>
       </c>
       <c r="AR15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>65469052.018027216</v>
       </c>
       <c r="AS15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>70292853.456445813</v>
       </c>
       <c r="AT15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>75116654.89486441</v>
       </c>
       <c r="AU15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>79940456.333283007</v>
       </c>
       <c r="AV15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>84764257.771701604</v>
       </c>
       <c r="AW15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>89588059.210120201</v>
       </c>
       <c r="AX15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>94411860.648538798</v>
       </c>
       <c r="AY15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>99235662.086957395</v>
       </c>
       <c r="AZ15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>104059463.52537599</v>
       </c>
       <c r="BA15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>108883264.96379459</v>
       </c>
       <c r="BB15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>113707066.40221319</v>
       </c>
       <c r="BC15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>118530867.84063178</v>
       </c>
       <c r="BD15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>123354669.27905038</v>
       </c>
       <c r="BE15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>128178470.71746898</v>
       </c>
     </row>
@@ -8169,83 +8162,83 @@
         <v>75065821.800000012</v>
       </c>
       <c r="AL16">
-        <f t="shared" ref="AL16:BA24" si="3">_xlfn.FORECAST.ETS(AL$9,$B16:$AK16,$B$9:$AK$9)</f>
+        <f t="shared" ref="AL16:BA24" si="5">_xlfn.FORECAST.ETS(AL$9,$B16:$AK16,$B$9:$AK$9)</f>
         <v>76553687.588376924</v>
       </c>
       <c r="AM16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>78041967.935434446</v>
       </c>
       <c r="AN16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>79530248.282491982</v>
       </c>
       <c r="AO16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>81018528.629549503</v>
       </c>
       <c r="AP16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>82506808.97660704</v>
       </c>
       <c r="AQ16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>83995089.323664561</v>
       </c>
       <c r="AR16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>85483369.670722097</v>
       </c>
       <c r="AS16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>86971650.017779619</v>
       </c>
       <c r="AT16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>88459930.364837155</v>
       </c>
       <c r="AU16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>89948210.711894691</v>
       </c>
       <c r="AV16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>91436491.058952212</v>
       </c>
       <c r="AW16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>92924771.406009734</v>
       </c>
       <c r="AX16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>94413051.75306727</v>
       </c>
       <c r="AY16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>95901332.100124806</v>
       </c>
       <c r="AZ16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>97389612.447182328</v>
       </c>
       <c r="BA16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>98877892.794239864</v>
       </c>
       <c r="BB16">
-        <f t="shared" ref="BB16:BE24" si="4">_xlfn.FORECAST.ETS(BB$9,$B16:$AK16,$B$9:$AK$9)</f>
+        <f t="shared" ref="BB16:BE24" si="6">_xlfn.FORECAST.ETS(BB$9,$B16:$AK16,$B$9:$AK$9)</f>
         <v>100366173.14129739</v>
       </c>
       <c r="BC16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>101854453.48835492</v>
       </c>
       <c r="BD16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>103342733.83541244</v>
       </c>
       <c r="BE16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>104831014.18246998</v>
       </c>
     </row>
@@ -8362,84 +8355,84 @@
         <v>339</v>
       </c>
       <c r="AL17" s="24">
-        <f t="shared" si="3"/>
-        <v>153.17517794080695</v>
+        <f>AK17+AK17*($AK$17-$AJ$17)/$AJ$17</f>
+        <v>222.71511627906978</v>
       </c>
       <c r="AM17" s="24">
-        <f t="shared" si="3"/>
-        <v>-32.477519366991046</v>
+        <f>AL17+AL17*($AK$17-$AJ$17)/$AJ$17</f>
+        <v>146.31865197404002</v>
       </c>
       <c r="AN17" s="24">
-        <f t="shared" si="3"/>
-        <v>-218.13021667474933</v>
+        <f t="shared" ref="AN17:BE17" si="7">AM17+AM17*($AK$17-$AJ$17)/$AJ$17</f>
+        <v>96.127951587596073</v>
       </c>
       <c r="AO17" s="24">
-        <f t="shared" si="3"/>
-        <v>-403.78291398254737</v>
+        <f t="shared" si="7"/>
+        <v>63.15382865929277</v>
       </c>
       <c r="AP17" s="24">
-        <f t="shared" si="3"/>
-        <v>-589.43561129030581</v>
+        <f t="shared" si="7"/>
+        <v>41.490596735465601</v>
       </c>
       <c r="AQ17" s="24">
-        <f t="shared" si="3"/>
-        <v>-775.08830859810359</v>
+        <f t="shared" si="7"/>
+        <v>27.258357157602404</v>
       </c>
       <c r="AR17" s="24">
-        <f t="shared" si="3"/>
-        <v>-960.74100590586204</v>
+        <f t="shared" si="7"/>
+        <v>17.908106737262045</v>
       </c>
       <c r="AS17" s="24">
-        <f t="shared" si="3"/>
-        <v>-1146.39370321366</v>
+        <f t="shared" si="7"/>
+        <v>11.765209658782624</v>
       </c>
       <c r="AT17" s="24">
-        <f t="shared" si="3"/>
-        <v>-1332.0464005214185</v>
+        <f t="shared" si="7"/>
+        <v>7.7294691362932353</v>
       </c>
       <c r="AU17" s="24">
-        <f t="shared" si="3"/>
-        <v>-1517.6990978292165</v>
+        <f t="shared" si="7"/>
+        <v>5.0780814674484631</v>
       </c>
       <c r="AV17" s="24">
-        <f t="shared" si="3"/>
-        <v>-1703.3517951369745</v>
+        <f t="shared" si="7"/>
+        <v>3.3361814291957925</v>
       </c>
       <c r="AW17" s="24">
-        <f t="shared" si="3"/>
-        <v>-1889.0044924447725</v>
+        <f t="shared" si="7"/>
+        <v>2.1917936133670031</v>
       </c>
       <c r="AX17" s="24">
-        <f t="shared" si="3"/>
-        <v>-2074.6571897525309</v>
+        <f t="shared" si="7"/>
+        <v>1.4399574320376241</v>
       </c>
       <c r="AY17" s="24">
-        <f t="shared" si="3"/>
-        <v>-2260.3098870603289</v>
+        <f t="shared" si="7"/>
+        <v>0.9460185454665786</v>
       </c>
       <c r="AZ17" s="24">
-        <f t="shared" si="3"/>
-        <v>-2445.9625843680874</v>
+        <f t="shared" si="7"/>
+        <v>0.62151218394025221</v>
       </c>
       <c r="BA17" s="24">
-        <f t="shared" si="3"/>
-        <v>-2631.6152816758854</v>
+        <f t="shared" si="7"/>
+        <v>0.40831905107702615</v>
       </c>
       <c r="BB17" s="24">
-        <f t="shared" si="4"/>
-        <v>-2817.2679789836434</v>
+        <f t="shared" si="7"/>
+        <v>0.2682561207657207</v>
       </c>
       <c r="BC17" s="24">
-        <f t="shared" si="4"/>
-        <v>-3002.9206762914419</v>
+        <f t="shared" si="7"/>
+        <v>0.17623803282864209</v>
       </c>
       <c r="BD17" s="24">
-        <f t="shared" si="4"/>
-        <v>-3188.5733735991998</v>
+        <f t="shared" si="7"/>
+        <v>0.11578428900951486</v>
       </c>
       <c r="BE17" s="24">
-        <f t="shared" si="4"/>
-        <v>-3374.2260709069983</v>
+        <f t="shared" si="7"/>
+        <v>7.606758522136732E-2</v>
       </c>
     </row>
     <row r="18" spans="1:57">
@@ -8555,83 +8548,83 @@
         <v>244305924.89999998</v>
       </c>
       <c r="AL18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>249161818.94366381</v>
       </c>
       <c r="AM18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>254017737.49323514</v>
       </c>
       <c r="AN18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>258873656.04280648</v>
       </c>
       <c r="AO18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>263729574.59237781</v>
       </c>
       <c r="AP18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>268585493.14194912</v>
       </c>
       <c r="AQ18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>273441411.69152045</v>
       </c>
       <c r="AR18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>278297330.24109179</v>
       </c>
       <c r="AS18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>283153248.79066312</v>
       </c>
       <c r="AT18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>288009167.34023446</v>
       </c>
       <c r="AU18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>292865085.88980579</v>
       </c>
       <c r="AV18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>297721004.43937713</v>
       </c>
       <c r="AW18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>302576922.98894846</v>
       </c>
       <c r="AX18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>307432841.5385198</v>
       </c>
       <c r="AY18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>312288760.08809114</v>
       </c>
       <c r="AZ18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>317144678.63766247</v>
       </c>
       <c r="BA18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>322000597.18723381</v>
       </c>
       <c r="BB18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>326856515.73680514</v>
       </c>
       <c r="BC18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>331712434.28637648</v>
       </c>
       <c r="BD18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>336568352.83594775</v>
       </c>
       <c r="BE18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>341424271.38551915</v>
       </c>
     </row>
@@ -8748,83 +8741,83 @@
         <v>154019823.60000002</v>
       </c>
       <c r="AL19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>157158287.09569967</v>
       </c>
       <c r="AM19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>160297681.1531989</v>
       </c>
       <c r="AN19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>163437075.21069816</v>
       </c>
       <c r="AO19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>166576469.26819739</v>
       </c>
       <c r="AP19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>169715863.32569662</v>
       </c>
       <c r="AQ19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>172855257.38319585</v>
       </c>
       <c r="AR19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>175994651.44069508</v>
       </c>
       <c r="AS19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>179134045.49819434</v>
       </c>
       <c r="AT19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>182273439.55569357</v>
       </c>
       <c r="AU19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>185412833.6131928</v>
       </c>
       <c r="AV19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>188552227.67069203</v>
       </c>
       <c r="AW19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>191691621.72819126</v>
       </c>
       <c r="AX19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>194831015.78569049</v>
       </c>
       <c r="AY19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>197970409.84318972</v>
       </c>
       <c r="AZ19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>201109803.90068898</v>
       </c>
       <c r="BA19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>204249197.95818821</v>
       </c>
       <c r="BB19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>207388592.01568744</v>
       </c>
       <c r="BC19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>210527986.0731867</v>
       </c>
       <c r="BD19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>213667380.13068593</v>
       </c>
       <c r="BE19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>216806774.18818516</v>
       </c>
     </row>
@@ -8941,83 +8934,83 @@
         <v>200315491.59999999</v>
       </c>
       <c r="AL20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>200940299.5959391</v>
       </c>
       <c r="AM20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>201560047.89391908</v>
       </c>
       <c r="AN20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>202179796.19189903</v>
       </c>
       <c r="AO20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>202799544.48987898</v>
       </c>
       <c r="AP20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>203419292.78785896</v>
       </c>
       <c r="AQ20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>204039041.08583891</v>
       </c>
       <c r="AR20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>204658789.38381889</v>
       </c>
       <c r="AS20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>205278537.68179885</v>
       </c>
       <c r="AT20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>205898285.9797788</v>
       </c>
       <c r="AU20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>206518034.27775878</v>
       </c>
       <c r="AV20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>207137782.57573873</v>
       </c>
       <c r="AW20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>207757530.87371868</v>
       </c>
       <c r="AX20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>208377279.17169866</v>
       </c>
       <c r="AY20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>208997027.46967861</v>
       </c>
       <c r="AZ20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>209616775.76765856</v>
       </c>
       <c r="BA20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>210236524.06563854</v>
       </c>
       <c r="BB20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>210856272.36361849</v>
       </c>
       <c r="BC20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>211476020.66159847</v>
       </c>
       <c r="BD20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>212095768.95957842</v>
       </c>
       <c r="BE20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>212715517.25755838</v>
       </c>
     </row>
@@ -9134,83 +9127,83 @@
         <v>171748966.80000001</v>
       </c>
       <c r="AL21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>172324700.85233432</v>
       </c>
       <c r="AM21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>172895657.20532733</v>
       </c>
       <c r="AN21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>173466613.55832034</v>
       </c>
       <c r="AO21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>174037569.91131335</v>
       </c>
       <c r="AP21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>174608526.26430637</v>
       </c>
       <c r="AQ21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>175179482.61729938</v>
       </c>
       <c r="AR21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>175750438.97029239</v>
       </c>
       <c r="AS21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>176321395.3232854</v>
       </c>
       <c r="AT21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>176892351.67627841</v>
       </c>
       <c r="AU21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>177463308.02927142</v>
       </c>
       <c r="AV21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>178034264.38226444</v>
       </c>
       <c r="AW21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>178605220.73525745</v>
       </c>
       <c r="AX21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>179176177.08825046</v>
       </c>
       <c r="AY21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>179747133.44124347</v>
       </c>
       <c r="AZ21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>180318089.79423648</v>
       </c>
       <c r="BA21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>180889046.14722949</v>
       </c>
       <c r="BB21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>181460002.5002225</v>
       </c>
       <c r="BC21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>182030958.85321552</v>
       </c>
       <c r="BD21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>182601915.20620853</v>
       </c>
       <c r="BE21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>183172871.55920154</v>
       </c>
     </row>
@@ -9327,83 +9320,83 @@
         <v>1345392355.9862399</v>
       </c>
       <c r="AL22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1370726766.8061244</v>
       </c>
       <c r="AM22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1396080655.6909919</v>
       </c>
       <c r="AN22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1421434544.5758595</v>
       </c>
       <c r="AO22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1446788433.4607272</v>
       </c>
       <c r="AP22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1472142322.3455949</v>
       </c>
       <c r="AQ22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1497496211.2304623</v>
       </c>
       <c r="AR22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1522850100.11533</v>
       </c>
       <c r="AS22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1548203989.0001976</v>
       </c>
       <c r="AT22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1573557877.8850651</v>
       </c>
       <c r="AU22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1598911766.7699327</v>
       </c>
       <c r="AV22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1624265655.6548004</v>
       </c>
       <c r="AW22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1649619544.5396681</v>
       </c>
       <c r="AX22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1674973433.4245355</v>
       </c>
       <c r="AY22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1700327322.3094032</v>
       </c>
       <c r="AZ22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1725681211.1942708</v>
       </c>
       <c r="BA22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1751035100.0791383</v>
       </c>
       <c r="BB22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1776388988.9640059</v>
       </c>
       <c r="BC22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1801742877.8488736</v>
       </c>
       <c r="BD22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1827096766.7337413</v>
       </c>
       <c r="BE22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1852450655.618609</v>
       </c>
     </row>
@@ -9520,83 +9513,83 @@
         <v>141550517.17199999</v>
       </c>
       <c r="AL23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>144320137.39682016</v>
       </c>
       <c r="AM23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>147090394.96174118</v>
       </c>
       <c r="AN23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>149860652.52666217</v>
       </c>
       <c r="AO23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>152630910.09158316</v>
       </c>
       <c r="AP23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>155401167.65650418</v>
       </c>
       <c r="AQ23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>158171425.22142518</v>
       </c>
       <c r="AR23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>160941682.78634617</v>
       </c>
       <c r="AS23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>163711940.35126719</v>
       </c>
       <c r="AT23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>166482197.91618818</v>
       </c>
       <c r="AU23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>169252455.48110917</v>
       </c>
       <c r="AV23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>172022713.04603019</v>
       </c>
       <c r="AW23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>174792970.61095119</v>
       </c>
       <c r="AX23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>177563228.17587218</v>
       </c>
       <c r="AY23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>180333485.74079317</v>
       </c>
       <c r="AZ23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>183103743.30571419</v>
       </c>
       <c r="BA23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>185874000.87063518</v>
       </c>
       <c r="BB23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>188644258.43555617</v>
       </c>
       <c r="BC23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>191414516.00047719</v>
       </c>
       <c r="BD23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>194184773.56539819</v>
       </c>
       <c r="BE23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>196955031.13031918</v>
       </c>
     </row>
@@ -9713,83 +9706,83 @@
         <v>414151161.44</v>
       </c>
       <c r="AL24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>422636799.15813917</v>
       </c>
       <c r="AM24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>431126065.97491556</v>
       </c>
       <c r="AN24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>439615332.79169202</v>
       </c>
       <c r="AO24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>448104599.60846841</v>
       </c>
       <c r="AP24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>456593866.42524487</v>
       </c>
       <c r="AQ24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>465083133.24202126</v>
       </c>
       <c r="AR24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>473572400.05879772</v>
       </c>
       <c r="AS24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>482061666.87557411</v>
       </c>
       <c r="AT24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>490550933.69235057</v>
       </c>
       <c r="AU24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>499040200.50912696</v>
       </c>
       <c r="AV24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>507529467.32590342</v>
       </c>
       <c r="AW24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>516018734.14267981</v>
       </c>
       <c r="AX24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>524508000.95945626</v>
       </c>
       <c r="AY24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>532997267.77623272</v>
       </c>
       <c r="AZ24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>541486534.59300911</v>
       </c>
       <c r="BA24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>549975801.40978551</v>
       </c>
       <c r="BB24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>558465068.22656202</v>
       </c>
       <c r="BC24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>566954335.04333842</v>
       </c>
       <c r="BD24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>575443601.86011481</v>
       </c>
       <c r="BE24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>583932868.67689121</v>
       </c>
     </row>
@@ -9838,220 +9831,220 @@
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12">
-        <f t="shared" ref="D26:AK26" si="5">SUM(D10:D19)</f>
+        <f t="shared" ref="D26:AK26" si="8">SUM(D10:D19)</f>
         <v>989775411.30000007</v>
       </c>
       <c r="E26" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1043366804.6999999</v>
       </c>
       <c r="F26" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1097065135.5000002</v>
       </c>
       <c r="G26" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1146922634.8420799</v>
       </c>
       <c r="H26" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1196123055.37024</v>
       </c>
       <c r="I26" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1244994084.1339202</v>
       </c>
       <c r="J26" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1293564118.6380804</v>
       </c>
       <c r="K26" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1341897239.5156</v>
       </c>
       <c r="L26" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1388591545.9526401</v>
       </c>
       <c r="M26" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1432434569.9120798</v>
       </c>
       <c r="N26" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1473622950.2416</v>
       </c>
       <c r="O26" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1512284076.3396003</v>
       </c>
       <c r="P26" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1548505635.8655999</v>
       </c>
       <c r="Q26" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1582401680.0936797</v>
       </c>
       <c r="R26" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1614176387.4864001</v>
       </c>
       <c r="S26" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1644021391.7981596</v>
       </c>
       <c r="T26" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1672060612.6231997</v>
       </c>
       <c r="U26" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1698418045.8419998</v>
       </c>
       <c r="V26" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1722637259.7964802</v>
       </c>
       <c r="W26" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1744321335.9344001</v>
       </c>
       <c r="X26" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1763693338.2561603</v>
       </c>
       <c r="Y26" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1780963443.5694404</v>
       </c>
       <c r="Z26" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1796319171.7031999</v>
       </c>
       <c r="AA26" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1809942888.0350399</v>
       </c>
       <c r="AB26" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1822006104.6111999</v>
       </c>
       <c r="AC26" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1832657807.2966399</v>
       </c>
       <c r="AD26" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1842052002.7622397</v>
       </c>
       <c r="AE26" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1850282279.5599997</v>
       </c>
       <c r="AF26" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1857478565.0144002</v>
       </c>
       <c r="AG26" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1863761395.9024801</v>
       </c>
       <c r="AH26" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1869243527.1329603</v>
       </c>
       <c r="AI26" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1874029435.3288002</v>
       </c>
       <c r="AJ26" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1878208781.8559999</v>
       </c>
       <c r="AK26" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1892521818.204</v>
       </c>
       <c r="AL26" s="12">
-        <f t="shared" ref="AL26:BE26" si="6">SUM(AL10:AL19)</f>
-        <v>1900736997.6289988</v>
+        <f t="shared" ref="AL26:BE26" si="9">SUM(AL10:AL19)</f>
+        <v>1906434987.6160603</v>
       </c>
       <c r="AM26" s="12">
-        <f t="shared" si="6"/>
-        <v>1912718398.7129891</v>
+        <f t="shared" si="9"/>
+        <v>1927470154.1701806</v>
       </c>
       <c r="AN26" s="12">
-        <f t="shared" si="6"/>
-        <v>1924699799.7969794</v>
+        <f t="shared" si="9"/>
+        <v>1952151395.2438059</v>
       </c>
       <c r="AO26" s="12">
-        <f t="shared" si="6"/>
-        <v>1936681200.8809705</v>
+        <f t="shared" si="9"/>
+        <v>1980178132.5877805</v>
       </c>
       <c r="AP26" s="12">
-        <f t="shared" si="6"/>
-        <v>1948662601.9649611</v>
+        <f t="shared" si="9"/>
+        <v>2011274577.0786173</v>
       </c>
       <c r="AQ26" s="12">
-        <f t="shared" si="6"/>
-        <v>1960644003.0489519</v>
+        <f t="shared" si="9"/>
+        <v>2045187681.7121832</v>
       </c>
       <c r="AR26" s="12">
-        <f t="shared" si="6"/>
-        <v>1972625404.132942</v>
+        <f t="shared" si="9"/>
+        <v>2081685264.3409941</v>
       </c>
       <c r="AS26" s="12">
-        <f t="shared" si="6"/>
-        <v>1984606805.2169328</v>
+        <f t="shared" si="9"/>
+        <v>2120554285.8834548</v>
       </c>
       <c r="AT26" s="12">
-        <f t="shared" si="6"/>
-        <v>1996588206.3009233</v>
+        <f t="shared" si="9"/>
+        <v>2161599270.9886289</v>
       </c>
       <c r="AU26" s="12">
-        <f t="shared" si="6"/>
-        <v>2008569607.3849137</v>
+        <f t="shared" si="9"/>
+        <v>2204640859.2691627</v>
       </c>
       <c r="AV26" s="12">
-        <f t="shared" si="6"/>
-        <v>2020551008.4689043</v>
+        <f t="shared" si="9"/>
+        <v>2249514476.2349577</v>
       </c>
       <c r="AW26" s="12">
-        <f t="shared" si="6"/>
-        <v>2032532409.5528951</v>
+        <f t="shared" si="9"/>
+        <v>2296069113.9847622</v>
       </c>
       <c r="AX26" s="12">
-        <f t="shared" si="6"/>
-        <v>2044513810.6368856</v>
+        <f t="shared" si="9"/>
+        <v>2344166212.5531411</v>
       </c>
       <c r="AY26" s="12">
-        <f t="shared" si="6"/>
-        <v>2056495211.7208762</v>
+        <f t="shared" si="9"/>
+        <v>2393678633.5755944</v>
       </c>
       <c r="AZ26" s="12">
-        <f t="shared" si="6"/>
-        <v>2068476612.804867</v>
+        <f t="shared" si="9"/>
+        <v>2444489718.6326571</v>
       </c>
       <c r="BA26" s="12">
-        <f t="shared" si="6"/>
-        <v>2080458013.8888576</v>
+        <f t="shared" si="9"/>
+        <v>2496492425.2714438</v>
       </c>
       <c r="BB26" s="12">
-        <f t="shared" si="6"/>
-        <v>2092439414.9728479</v>
+        <f t="shared" si="9"/>
+        <v>2549588534.2859483</v>
       </c>
       <c r="BC26" s="12">
-        <f t="shared" si="6"/>
-        <v>2104420816.0568388</v>
+        <f t="shared" si="9"/>
+        <v>2603687922.3707256</v>
       </c>
       <c r="BD26" s="12">
-        <f t="shared" si="6"/>
-        <v>2116402217.1408296</v>
+        <f t="shared" si="9"/>
+        <v>2658707894.7508087</v>
       </c>
       <c r="BE26" s="12">
-        <f t="shared" si="6"/>
-        <v>2128383618.2248201</v>
+        <f t="shared" si="9"/>
+        <v>2714572572.8378301</v>
       </c>
     </row>
     <row r="27" spans="1:57">
@@ -10070,204 +10063,204 @@
         <v>1.045446252668814</v>
       </c>
       <c r="H27" s="22">
-        <f t="shared" ref="H27:AK27" si="7">H26/$F$26</f>
+        <f t="shared" ref="H27:AK27" si="10">H26/$F$26</f>
         <v>1.0902935629479218</v>
       </c>
       <c r="I27" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1348406250887735</v>
       </c>
       <c r="J27" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1791133240676028</v>
       </c>
       <c r="K27" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2231700708490882</v>
       </c>
       <c r="L27" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2657330007299641</v>
       </c>
       <c r="M27" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3056969213220244</v>
       </c>
       <c r="N27" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.343241073439071</v>
       </c>
       <c r="O27" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3784815754356821</v>
       </c>
       <c r="P27" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4114983566220527</v>
       </c>
       <c r="Q27" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4423953773469262</v>
       </c>
       <c r="R27" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4713587509557675</v>
       </c>
       <c r="S27" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4985631560052062</v>
       </c>
       <c r="T27" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.524121548043853</v>
       </c>
       <c r="U27" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.5481469521569711</v>
       </c>
       <c r="V27" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.5702233204333562</v>
       </c>
       <c r="W27" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.5899888525209629</v>
       </c>
       <c r="X27" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.6076468763655829</v>
       </c>
       <c r="Y27" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.6233889729416526</v>
       </c>
       <c r="Z27" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.6373860708685328</v>
       </c>
       <c r="AA27" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.6498044003651045</v>
       </c>
       <c r="AB27" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.66080029859011</v>
       </c>
       <c r="AC27" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.6705095695720791</v>
       </c>
       <c r="AD27" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.6790725939191413</v>
       </c>
       <c r="AE27" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.6865746797401524</v>
       </c>
       <c r="AF27" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.6931342587674456</v>
       </c>
       <c r="AG27" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.6988612030342658</v>
       </c>
       <c r="AH27" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.7038582912226363</v>
       </c>
       <c r="AI27" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.70822075616749</v>
       </c>
       <c r="AJ27" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.7120303262576879</v>
       </c>
       <c r="AK27" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.7250769867383136</v>
       </c>
       <c r="AL27" s="22">
-        <f t="shared" ref="AL27:BE27" si="8">AL26/$F$26</f>
-        <v>1.7325653109582373</v>
+        <f t="shared" ref="AL27:BE27" si="11">AL26/$F$26</f>
+        <v>1.7377591593476174</v>
       </c>
       <c r="AM27" s="22">
-        <f t="shared" si="8"/>
-        <v>1.7434866324880931</v>
+        <f t="shared" si="11"/>
+        <v>1.7569331954858938</v>
       </c>
       <c r="AN27" s="22">
-        <f t="shared" si="8"/>
-        <v>1.7544079540179489</v>
+        <f t="shared" si="11"/>
+        <v>1.7794307120644119</v>
       </c>
       <c r="AO27" s="22">
-        <f t="shared" si="8"/>
-        <v>1.7653292755478054</v>
+        <f t="shared" si="11"/>
+        <v>1.804977725124125</v>
       </c>
       <c r="AP27" s="22">
-        <f t="shared" si="8"/>
-        <v>1.7762505970776614</v>
+        <f t="shared" si="11"/>
+        <v>1.8333228465618456</v>
       </c>
       <c r="AQ27" s="22">
-        <f t="shared" si="8"/>
-        <v>1.7871719186075177</v>
+        <f t="shared" si="11"/>
+        <v>1.8642354182370995</v>
       </c>
       <c r="AR27" s="22">
-        <f t="shared" si="8"/>
-        <v>1.7980932401373733</v>
+        <f t="shared" si="11"/>
+        <v>1.8975038008041718</v>
       </c>
       <c r="AS27" s="22">
-        <f t="shared" si="8"/>
-        <v>1.8090145616672295</v>
+        <f t="shared" si="11"/>
+        <v>1.9329338042603892</v>
       </c>
       <c r="AT27" s="22">
-        <f t="shared" si="8"/>
-        <v>1.8199358831970855</v>
+        <f t="shared" si="11"/>
+        <v>1.970347248345883</v>
       </c>
       <c r="AU27" s="22">
-        <f t="shared" si="8"/>
-        <v>1.8308572047269414</v>
+        <f t="shared" si="11"/>
+        <v>2.0095806419592139</v>
       </c>
       <c r="AV27" s="22">
-        <f t="shared" si="8"/>
-        <v>1.8417785262567974</v>
+        <f t="shared" si="11"/>
+        <v>2.0504839716829713</v>
       </c>
       <c r="AW27" s="22">
-        <f t="shared" si="8"/>
-        <v>1.8526998477866536</v>
+        <f t="shared" si="11"/>
+        <v>2.0929195903562299</v>
       </c>
       <c r="AX27" s="22">
-        <f t="shared" si="8"/>
-        <v>1.8636211693165097</v>
+        <f t="shared" si="11"/>
+        <v>2.1367611973966887</v>
       </c>
       <c r="AY27" s="22">
-        <f t="shared" si="8"/>
-        <v>1.8745424908463657</v>
+        <f t="shared" si="11"/>
+        <v>2.1818929032729195</v>
       </c>
       <c r="AZ27" s="22">
-        <f t="shared" si="8"/>
-        <v>1.885463812376222</v>
+        <f t="shared" si="11"/>
+        <v>2.2282083711634426</v>
       </c>
       <c r="BA27" s="22">
-        <f t="shared" si="8"/>
-        <v>1.896385133906078</v>
+        <f t="shared" si="11"/>
+        <v>2.2756100294205761</v>
       </c>
       <c r="BB27" s="22">
-        <f t="shared" si="8"/>
-        <v>1.9073064554359338</v>
+        <f t="shared" si="11"/>
+        <v>2.3240083489882699</v>
       </c>
       <c r="BC27" s="22">
-        <f t="shared" si="8"/>
-        <v>1.9182277769657901</v>
+        <f t="shared" si="11"/>
+        <v>2.3733211804092784</v>
       </c>
       <c r="BD27" s="22">
-        <f t="shared" si="8"/>
-        <v>1.9291490984956463</v>
+        <f t="shared" si="11"/>
+        <v>2.4234731455020411</v>
       </c>
       <c r="BE27" s="22">
-        <f t="shared" si="8"/>
-        <v>1.9400704200255023</v>
+        <f t="shared" si="11"/>
+        <v>2.474395079195213</v>
       </c>
     </row>
     <row r="28" spans="1:57">
@@ -10277,219 +10270,219 @@
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12">
-        <f t="shared" ref="D28:AK28" si="9">SUM(D22:D24)</f>
+        <f t="shared" ref="D28:AK28" si="12">SUM(D22:D24)</f>
         <v>907807385.39999998</v>
       </c>
       <c r="E28" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>943438747.95799994</v>
       </c>
       <c r="F28" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>979219048.10399997</v>
       </c>
       <c r="G28" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1011940078.2191572</v>
       </c>
       <c r="H28" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1044093803.3242985</v>
       </c>
       <c r="I28" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1075961571.3385758</v>
       </c>
       <c r="J28" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1107389967.2860107</v>
       </c>
       <c r="K28" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1138283036.8378398</v>
       </c>
       <c r="L28" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1168680473.2905602</v>
       </c>
       <c r="M28" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1198507898.9810665</v>
       </c>
       <c r="N28" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1228014416.9768372</v>
       </c>
       <c r="O28" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1257219459.9887362</v>
       </c>
       <c r="P28" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1286132926.1620533</v>
       </c>
       <c r="Q28" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1314784743.9401495</v>
       </c>
       <c r="R28" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1343303867.717952</v>
       </c>
       <c r="S28" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1371769575.9252961</v>
       </c>
       <c r="T28" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1400333885.2930613</v>
       </c>
       <c r="U28" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1429046922.6066401</v>
       </c>
       <c r="V28" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1457974182.2628372</v>
       </c>
       <c r="W28" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1486974761.0378399</v>
       </c>
       <c r="X28" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1516228391.8038721</v>
       </c>
       <c r="Y28" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1545759339.2190614</v>
       </c>
       <c r="Z28" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1575374141.54176</v>
       </c>
       <c r="AA28" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1604914431.2285438</v>
       </c>
       <c r="AB28" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1634376052.2719519</v>
       </c>
       <c r="AC28" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1663705884.5842931</v>
       </c>
       <c r="AD28" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1692901072.3099999</v>
       </c>
       <c r="AE28" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1721932832.0525331</v>
       </c>
       <c r="AF28" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1750738496.1391201</v>
       </c>
       <c r="AG28" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1779309479.7194881</v>
       </c>
       <c r="AH28" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1807642729.869072</v>
       </c>
       <c r="AI28" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1835714190.149312</v>
       </c>
       <c r="AJ28" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1863496875.90272</v>
       </c>
       <c r="AK28" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1901094034.5982399</v>
       </c>
       <c r="AL28" s="12">
-        <f t="shared" ref="AL28:BE28" si="10">SUM(AL22:AL24)</f>
+        <f t="shared" ref="AL28:BE28" si="13">SUM(AL22:AL24)</f>
         <v>1937683703.3610837</v>
       </c>
       <c r="AM28" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1974297116.6276486</v>
       </c>
       <c r="AN28" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2010910529.8942137</v>
       </c>
       <c r="AO28" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2047523943.160779</v>
       </c>
       <c r="AP28" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2084137356.4273438</v>
       </c>
       <c r="AQ28" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2120750769.6939089</v>
       </c>
       <c r="AR28" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2157364182.960474</v>
       </c>
       <c r="AS28" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2193977596.2270389</v>
       </c>
       <c r="AT28" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2230591009.4936037</v>
       </c>
       <c r="AU28" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2267204422.760169</v>
       </c>
       <c r="AV28" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2303817836.0267344</v>
       </c>
       <c r="AW28" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2340431249.2932992</v>
       </c>
       <c r="AX28" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2377044662.559864</v>
       </c>
       <c r="AY28" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2413658075.8264294</v>
       </c>
       <c r="AZ28" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2450271489.0929942</v>
       </c>
       <c r="BA28" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2486884902.3595591</v>
       </c>
       <c r="BB28" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2523498315.6261244</v>
       </c>
       <c r="BC28" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2560111728.8926892</v>
       </c>
       <c r="BD28" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2596725142.1592541</v>
       </c>
       <c r="BE28" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2633338555.4258194</v>
       </c>
     </row>
@@ -10509,203 +10502,203 @@
         <v>1.0334154346553133</v>
       </c>
       <c r="H29" s="22">
-        <f t="shared" ref="H29:AK29" si="11">H28/$F$28</f>
+        <f t="shared" ref="H29:AK29" si="14">H28/$F$28</f>
         <v>1.066251524973816</v>
       </c>
       <c r="I29" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0987955896302184</v>
       </c>
       <c r="J29" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1308909578813648</v>
       </c>
       <c r="K29" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1624396390591314</v>
       </c>
       <c r="L29" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.193482168829745</v>
       </c>
       <c r="M29" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2239425910899728</v>
       </c>
       <c r="N29" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2540752953637533</v>
       </c>
       <c r="O29" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2839001267622507</v>
       </c>
       <c r="P29" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3134271934888433</v>
       </c>
       <c r="Q29" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3426870591272548</v>
       </c>
       <c r="R29" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3718114147380063</v>
       </c>
       <c r="S29" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4008812211949582</v>
       </c>
       <c r="T29" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4300517213226596</v>
       </c>
       <c r="U29" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4593741056953635</v>
       </c>
       <c r="V29" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4889152586296401</v>
       </c>
       <c r="W29" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.5185312866584604</v>
       </c>
       <c r="X29" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.5484057369386854</v>
       </c>
       <c r="Y29" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.5785633890721567</v>
       </c>
       <c r="Z29" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.6088066756790091</v>
       </c>
       <c r="AA29" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.6389738683454314</v>
       </c>
       <c r="AB29" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.6690607228653191</v>
       </c>
       <c r="AC29" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.6990129918383652</v>
       </c>
       <c r="AD29" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.7288277588021368</v>
       </c>
       <c r="AE29" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.758475629519874</v>
       </c>
       <c r="AF29" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.7878926063876766</v>
       </c>
       <c r="AG29" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.8170699223678837</v>
       </c>
       <c r="AH29" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.8460044597468732</v>
       </c>
       <c r="AI29" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.8746716515612003</v>
       </c>
       <c r="AJ29" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.9030439404859325</v>
       </c>
       <c r="AK29" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.941438984749335</v>
       </c>
       <c r="AL29" s="22">
-        <f t="shared" ref="AL29:BE29" si="12">AL28/$F$28</f>
+        <f t="shared" ref="AL29:BE29" si="15">AL28/$F$28</f>
         <v>1.9788051581644561</v>
       </c>
       <c r="AM29" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.0161955799883136</v>
       </c>
       <c r="AN29" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.0535860018121714</v>
       </c>
       <c r="AO29" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.0909764236360293</v>
       </c>
       <c r="AP29" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.1283668454598872</v>
       </c>
       <c r="AQ29" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.1657572672837451</v>
       </c>
       <c r="AR29" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.2031476891076029</v>
       </c>
       <c r="AS29" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.2405381109314604</v>
       </c>
       <c r="AT29" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.2779285327553178</v>
       </c>
       <c r="AU29" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.3153189545791761</v>
       </c>
       <c r="AV29" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.352709376403034</v>
       </c>
       <c r="AW29" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.3900997982268914</v>
       </c>
       <c r="AX29" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.4274902200507493</v>
       </c>
       <c r="AY29" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.4648806418746072</v>
       </c>
       <c r="AZ29" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.5022710636984646</v>
       </c>
       <c r="BA29" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.5396614855223225</v>
       </c>
       <c r="BB29" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.5770519073461804</v>
       </c>
       <c r="BC29" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.6144423291700383</v>
       </c>
       <c r="BD29" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.6518327509938957</v>
       </c>
       <c r="BE29" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.6892231728177536</v>
       </c>
     </row>
@@ -10716,219 +10709,219 @@
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12">
-        <f t="shared" ref="D30:AK30" si="13">SUM(D20:D21)</f>
+        <f t="shared" ref="D30:AK30" si="16">SUM(D20:D21)</f>
         <v>164878851.19999999</v>
       </c>
       <c r="E30" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>172476613.60000002</v>
       </c>
       <c r="F30" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>180682556</v>
       </c>
       <c r="G30" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>189542353.19999999</v>
       </c>
       <c r="H30" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>199181827.19999999</v>
       </c>
       <c r="I30" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>209680173.60000002</v>
       </c>
       <c r="J30" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>221066006.39999998</v>
       </c>
       <c r="K30" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>233314040.40000001</v>
       </c>
       <c r="L30" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>245509882.40000001</v>
       </c>
       <c r="M30" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>256889526.40000001</v>
       </c>
       <c r="N30" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>267522012.40000001</v>
       </c>
       <c r="O30" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>277454900.80000001</v>
       </c>
       <c r="P30" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>286732554.80000001</v>
       </c>
       <c r="Q30" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>295396411.60000002</v>
       </c>
       <c r="R30" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>303509750</v>
       </c>
       <c r="S30" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>311128921.19999999</v>
       </c>
       <c r="T30" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>318299719.19999999</v>
       </c>
       <c r="U30" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>325074235.19999999</v>
       </c>
       <c r="V30" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>331258311.60000002</v>
       </c>
       <c r="W30" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>336744190</v>
       </c>
       <c r="X30" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>341618388.80000001</v>
       </c>
       <c r="Y30" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>345928121.19999999</v>
       </c>
       <c r="Z30" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>349737644.80000001</v>
       </c>
       <c r="AA30" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>353104055.60000002</v>
       </c>
       <c r="AB30" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>356081074.39999998</v>
       </c>
       <c r="AC30" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>358717915.60000002</v>
       </c>
       <c r="AD30" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>361057940.39999998</v>
       </c>
       <c r="AE30" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>363141744.80000001</v>
       </c>
       <c r="AF30" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>365004732.39999998</v>
       </c>
       <c r="AG30" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>366680940</v>
       </c>
       <c r="AH30" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>368200799.20000005</v>
       </c>
       <c r="AI30" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>369590208.39999998</v>
       </c>
       <c r="AJ30" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>370871730.39999998</v>
       </c>
       <c r="AK30" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>372064458.39999998</v>
       </c>
       <c r="AL30" s="12">
-        <f t="shared" ref="AL30:BE30" si="14">SUM(AL20:AL21)</f>
+        <f t="shared" ref="AL30:BE30" si="17">SUM(AL20:AL21)</f>
         <v>373265000.44827342</v>
       </c>
       <c r="AM30" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>374455705.09924638</v>
       </c>
       <c r="AN30" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>375646409.75021935</v>
       </c>
       <c r="AO30" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>376837114.40119231</v>
       </c>
       <c r="AP30" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>378027819.05216533</v>
       </c>
       <c r="AQ30" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>379218523.70313829</v>
       </c>
       <c r="AR30" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>380409228.35411131</v>
       </c>
       <c r="AS30" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>381599933.00508428</v>
       </c>
       <c r="AT30" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>382790637.65605724</v>
       </c>
       <c r="AU30" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>383981342.3070302</v>
       </c>
       <c r="AV30" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>385172046.95800316</v>
       </c>
       <c r="AW30" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>386362751.60897613</v>
       </c>
       <c r="AX30" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>387553456.25994909</v>
       </c>
       <c r="AY30" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>388744160.91092205</v>
       </c>
       <c r="AZ30" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>389934865.56189501</v>
       </c>
       <c r="BA30" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>391125570.21286803</v>
       </c>
       <c r="BB30" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>392316274.863841</v>
       </c>
       <c r="BC30" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>393506979.51481402</v>
       </c>
       <c r="BD30" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>394697684.16578698</v>
       </c>
       <c r="BE30" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>395888388.81675994</v>
       </c>
     </row>
@@ -10948,208 +10941,211 @@
         <v>1.0490351553361907</v>
       </c>
       <c r="H31" s="22">
-        <f t="shared" ref="H31:AK31" si="15">H30/$F$30</f>
+        <f t="shared" ref="H31:AK31" si="18">H30/$F$30</f>
         <v>1.1023854854034718</v>
       </c>
       <c r="I31" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1604893036824209</v>
       </c>
       <c r="J31" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2235049763187984</v>
       </c>
       <c r="K31" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2912925606387813</v>
       </c>
       <c r="L31" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3587912847546832</v>
       </c>
       <c r="M31" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4217727050529438</v>
       </c>
       <c r="N31" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4806189281493229</v>
       </c>
       <c r="O31" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.5355931803399991</v>
       </c>
       <c r="P31" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.5869409927984415</v>
       </c>
       <c r="Q31" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.6348917025504113</v>
       </c>
       <c r="R31" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.6797955304550816</v>
       </c>
       <c r="S31" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.7219643560942319</v>
       </c>
       <c r="T31" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.7616516295020754</v>
       </c>
       <c r="U31" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.7991456529981786</v>
       </c>
       <c r="V31" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.833371848027211</v>
       </c>
       <c r="W31" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.8637338183327448</v>
       </c>
       <c r="X31" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.8907104059342619</v>
       </c>
       <c r="Y31" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.9145629155257244</v>
       </c>
       <c r="Z31" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.9356469852020468</v>
       </c>
       <c r="AA31" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.9542786166916968</v>
       </c>
       <c r="AB31" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.9707551314472216</v>
       </c>
       <c r="AC31" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.9853489099412565</v>
       </c>
       <c r="AD31" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.9982999377095372</v>
       </c>
       <c r="AE31" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.0098328960987248</v>
       </c>
       <c r="AF31" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.0201437287615081</v>
       </c>
       <c r="AG31" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.029420814702223</v>
       </c>
       <c r="AH31" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.0378325796985077</v>
       </c>
       <c r="AI31" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.0455223602216472</v>
       </c>
       <c r="AJ31" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.0526150316359262</v>
       </c>
       <c r="AK31" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.0592162665664304</v>
       </c>
       <c r="AL31" s="22">
-        <f t="shared" ref="AL31:BE31" si="16">AL30/$F$30</f>
+        <f t="shared" ref="AL31:BE31" si="19">AL30/$F$30</f>
         <v>2.0658607488831042</v>
       </c>
       <c r="AM31" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.0724507854496279</v>
       </c>
       <c r="AN31" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.0790408220161516</v>
       </c>
       <c r="AO31" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.0856308585826753</v>
       </c>
       <c r="AP31" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.0922208951491994</v>
       </c>
       <c r="AQ31" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.0988109317157231</v>
       </c>
       <c r="AR31" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.1054009682822468</v>
       </c>
       <c r="AS31" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.1119910048487704</v>
       </c>
       <c r="AT31" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.1185810414152941</v>
       </c>
       <c r="AU31" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.1251710779818178</v>
       </c>
       <c r="AV31" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.1317611145483415</v>
       </c>
       <c r="AW31" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.1383511511148652</v>
       </c>
       <c r="AX31" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.1449411876813889</v>
       </c>
       <c r="AY31" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.1515312242479125</v>
       </c>
       <c r="AZ31" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.1581212608144362</v>
       </c>
       <c r="BA31" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.1647112973809604</v>
       </c>
       <c r="BB31" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.171301333947484</v>
       </c>
       <c r="BC31" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.1778913705140082</v>
       </c>
       <c r="BD31" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.1844814070805318</v>
       </c>
       <c r="BE31" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.1910714436470555</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="AL17 BE17" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -14652,35 +14648,35 @@
         <v>2051</v>
       </c>
       <c r="B49">
-        <f>_xlfn.FORECAST.ETS($A49,B$10:B$48,$A$10:$A$48)</f>
+        <f t="shared" ref="B49:G49" si="2">_xlfn.FORECAST.ETS($A49,B$10:B$48,$A$10:$A$48)</f>
         <v>12641555665.394356</v>
       </c>
       <c r="C49">
-        <f>_xlfn.FORECAST.ETS($A49,C$10:C$48,$A$10:$A$48)</f>
+        <f t="shared" si="2"/>
         <v>5688364881.7719059</v>
       </c>
       <c r="D49">
-        <f>_xlfn.FORECAST.ETS($A49,D$10:D$48,$A$10:$A$48)</f>
+        <f t="shared" si="2"/>
         <v>91242524266.150711</v>
       </c>
       <c r="E49">
-        <f>_xlfn.FORECAST.ETS($A49,E$10:E$48,$A$10:$A$48)</f>
+        <f t="shared" si="2"/>
         <v>93228043897.911652</v>
       </c>
       <c r="F49">
-        <f>_xlfn.FORECAST.ETS($A49,F$10:F$48,$A$10:$A$48)</f>
+        <f t="shared" si="2"/>
         <v>446289768777.86853</v>
       </c>
       <c r="G49">
-        <f>_xlfn.FORECAST.ETS($A49,G$10:G$48,$A$10:$A$48)</f>
+        <f t="shared" si="2"/>
         <v>889530656380.61829</v>
       </c>
       <c r="I49">
-        <f t="shared" ref="I49:I68" si="2">B49/$B$17</f>
+        <f t="shared" ref="I49:I68" si="3">B49/$B$17</f>
         <v>1.7831036240616382</v>
       </c>
       <c r="J49">
-        <f t="shared" ref="J49:J68" si="3">AVERAGE(C49:G49)/AVERAGE($C$17:$G$17)</f>
+        <f t="shared" ref="J49:J68" si="4">AVERAGE(C49:G49)/AVERAGE($C$17:$G$17)</f>
         <v>1.5300540901980531</v>
       </c>
     </row>
@@ -14693,31 +14689,31 @@
         <v>12757155238.532883</v>
       </c>
       <c r="C50">
-        <f t="shared" ref="C50:G68" si="4">_xlfn.FORECAST.ETS($A50,C$10:C$48,$A$10:$A$48)</f>
+        <f t="shared" ref="C50:G68" si="5">_xlfn.FORECAST.ETS($A50,C$10:C$48,$A$10:$A$48)</f>
         <v>5723997829.0225067</v>
       </c>
       <c r="D50">
+        <f t="shared" si="5"/>
+        <v>92179281694.841934</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="5"/>
+        <v>94121024971.838287</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="5"/>
+        <v>451165902093.38287</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="5"/>
+        <v>898175593353.70862</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="3"/>
+        <v>1.7994090553913873</v>
+      </c>
+      <c r="J50">
         <f t="shared" si="4"/>
-        <v>92179281694.841934</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="4"/>
-        <v>94121024971.838287</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="4"/>
-        <v>451165902093.38287</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="4"/>
-        <v>898175593353.70862</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="2"/>
-        <v>1.7994090553913873</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="3"/>
         <v>1.5454816174375088</v>
       </c>
     </row>
@@ -14726,35 +14722,35 @@
         <v>2053</v>
       </c>
       <c r="B51">
-        <f t="shared" ref="B51:B69" si="5">_xlfn.FORECAST.ETS($A51,B$10:B$48,$A$10:$A$48)</f>
+        <f t="shared" ref="B51:B68" si="6">_xlfn.FORECAST.ETS($A51,B$10:B$48,$A$10:$A$48)</f>
         <v>12872754811.671408</v>
       </c>
       <c r="C51">
+        <f t="shared" si="5"/>
+        <v>5759630776.2731075</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="5"/>
+        <v>93116039123.533142</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="5"/>
+        <v>95014006045.764923</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="5"/>
+        <v>456042035408.89716</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="5"/>
+        <v>906820530326.79883</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="3"/>
+        <v>1.8157144867211359</v>
+      </c>
+      <c r="J51">
         <f t="shared" si="4"/>
-        <v>5759630776.2731075</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="4"/>
-        <v>93116039123.533142</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="4"/>
-        <v>95014006045.764923</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="4"/>
-        <v>456042035408.89716</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="4"/>
-        <v>906820530326.79883</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="2"/>
-        <v>1.8157144867211359</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="3"/>
         <v>1.5609091446769645</v>
       </c>
     </row>
@@ -14763,35 +14759,35 @@
         <v>2054</v>
       </c>
       <c r="B52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12988354384.809933</v>
       </c>
       <c r="C52">
+        <f t="shared" si="5"/>
+        <v>5795263723.5237083</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="5"/>
+        <v>94052796552.224365</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="5"/>
+        <v>95906987119.691559</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="5"/>
+        <v>460918168724.41144</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="5"/>
+        <v>915465467299.88916</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="3"/>
+        <v>1.8320199180508845</v>
+      </c>
+      <c r="J52">
         <f t="shared" si="4"/>
-        <v>5795263723.5237083</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="4"/>
-        <v>94052796552.224365</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="4"/>
-        <v>95906987119.691559</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="4"/>
-        <v>460918168724.41144</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="4"/>
-        <v>915465467299.88916</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="2"/>
-        <v>1.8320199180508845</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="3"/>
         <v>1.5763366719164207</v>
       </c>
     </row>
@@ -14800,35 +14796,35 @@
         <v>2055</v>
       </c>
       <c r="B53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13103953957.94846</v>
       </c>
       <c r="C53">
+        <f t="shared" si="5"/>
+        <v>5830896670.7743092</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="5"/>
+        <v>94989553980.915588</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="5"/>
+        <v>96799968193.618195</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="5"/>
+        <v>465794302039.92578</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="5"/>
+        <v>924110404272.97949</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="3"/>
+        <v>1.8483253493806333</v>
+      </c>
+      <c r="J53">
         <f t="shared" si="4"/>
-        <v>5830896670.7743092</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="4"/>
-        <v>94989553980.915588</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="4"/>
-        <v>96799968193.618195</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="4"/>
-        <v>465794302039.92578</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="4"/>
-        <v>924110404272.97949</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="2"/>
-        <v>1.8483253493806333</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="3"/>
         <v>1.5917641991558769</v>
       </c>
     </row>
@@ -14837,35 +14833,35 @@
         <v>2056</v>
       </c>
       <c r="B54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13219553531.086985</v>
       </c>
       <c r="C54">
+        <f t="shared" si="5"/>
+        <v>5866529618.02491</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="5"/>
+        <v>95926311409.606812</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="5"/>
+        <v>97692949267.54483</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="5"/>
+        <v>470670435355.44006</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="5"/>
+        <v>932755341246.06982</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="3"/>
+        <v>1.8646307807103819</v>
+      </c>
+      <c r="J54">
         <f t="shared" si="4"/>
-        <v>5866529618.02491</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="4"/>
-        <v>95926311409.606812</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="4"/>
-        <v>97692949267.54483</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="4"/>
-        <v>470670435355.44006</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="4"/>
-        <v>932755341246.06982</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="2"/>
-        <v>1.8646307807103819</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="3"/>
         <v>1.6071917263953328</v>
       </c>
     </row>
@@ -14874,35 +14870,35 @@
         <v>2057</v>
       </c>
       <c r="B55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13335153104.22551</v>
       </c>
       <c r="C55">
+        <f t="shared" si="5"/>
+        <v>5902162565.2755098</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="5"/>
+        <v>96863068838.298019</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="5"/>
+        <v>98585930341.471466</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="5"/>
+        <v>475546568670.95435</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="5"/>
+        <v>941400278219.16016</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="3"/>
+        <v>1.8809362120401307</v>
+      </c>
+      <c r="J55">
         <f t="shared" si="4"/>
-        <v>5902162565.2755098</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="4"/>
-        <v>96863068838.298019</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="4"/>
-        <v>98585930341.471466</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="4"/>
-        <v>475546568670.95435</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="4"/>
-        <v>941400278219.16016</v>
-      </c>
-      <c r="I55">
-        <f t="shared" si="2"/>
-        <v>1.8809362120401307</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="3"/>
         <v>1.6226192536347885</v>
       </c>
     </row>
@@ -14911,35 +14907,35 @@
         <v>2058</v>
       </c>
       <c r="B56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13450752677.364037</v>
       </c>
       <c r="C56">
+        <f t="shared" si="5"/>
+        <v>5937795512.5261106</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="5"/>
+        <v>97799826266.989243</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="5"/>
+        <v>99478911415.398102</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="5"/>
+        <v>480422701986.46863</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="5"/>
+        <v>950045215192.25037</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="3"/>
+        <v>1.8972416433698795</v>
+      </c>
+      <c r="J56">
         <f t="shared" si="4"/>
-        <v>5937795512.5261106</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="4"/>
-        <v>97799826266.989243</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="4"/>
-        <v>99478911415.398102</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="4"/>
-        <v>480422701986.46863</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="4"/>
-        <v>950045215192.25037</v>
-      </c>
-      <c r="I56">
-        <f t="shared" si="2"/>
-        <v>1.8972416433698795</v>
-      </c>
-      <c r="J56">
-        <f t="shared" si="3"/>
         <v>1.6380467808742445</v>
       </c>
     </row>
@@ -14948,35 +14944,35 @@
         <v>2059</v>
       </c>
       <c r="B57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13566352250.502562</v>
       </c>
       <c r="C57">
+        <f t="shared" si="5"/>
+        <v>5973428459.7767115</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="5"/>
+        <v>98736583695.680466</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="5"/>
+        <v>100371892489.32472</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="5"/>
+        <v>485298835301.98297</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="5"/>
+        <v>958690152165.3407</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="3"/>
+        <v>1.9135470746996281</v>
+      </c>
+      <c r="J57">
         <f t="shared" si="4"/>
-        <v>5973428459.7767115</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="4"/>
-        <v>98736583695.680466</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="4"/>
-        <v>100371892489.32472</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="4"/>
-        <v>485298835301.98297</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="4"/>
-        <v>958690152165.3407</v>
-      </c>
-      <c r="I57">
-        <f t="shared" si="2"/>
-        <v>1.9135470746996281</v>
-      </c>
-      <c r="J57">
-        <f t="shared" si="3"/>
         <v>1.6534743081137004</v>
       </c>
     </row>
@@ -14985,35 +14981,35 @@
         <v>2060</v>
       </c>
       <c r="B58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13681951823.641087</v>
       </c>
       <c r="C58">
+        <f t="shared" si="5"/>
+        <v>6009061407.0273123</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="5"/>
+        <v>99673341124.371689</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="5"/>
+        <v>101264873563.25136</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="5"/>
+        <v>490174968617.49725</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="5"/>
+        <v>967335089138.43103</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="3"/>
+        <v>1.9298525060293767</v>
+      </c>
+      <c r="J58">
         <f t="shared" si="4"/>
-        <v>6009061407.0273123</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="4"/>
-        <v>99673341124.371689</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="4"/>
-        <v>101264873563.25136</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="4"/>
-        <v>490174968617.49725</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="4"/>
-        <v>967335089138.43103</v>
-      </c>
-      <c r="I58">
-        <f t="shared" si="2"/>
-        <v>1.9298525060293767</v>
-      </c>
-      <c r="J58">
-        <f t="shared" si="3"/>
         <v>1.6689018353531566</v>
       </c>
     </row>
@@ -15022,35 +15018,35 @@
         <v>2061</v>
       </c>
       <c r="B59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13797551396.779613</v>
       </c>
       <c r="C59">
+        <f t="shared" si="5"/>
+        <v>6044694354.2779131</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="5"/>
+        <v>100610098553.0629</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="5"/>
+        <v>102157854637.17799</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="5"/>
+        <v>495051101933.0116</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="5"/>
+        <v>975980026111.52136</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="3"/>
+        <v>1.9461579373591256</v>
+      </c>
+      <c r="J59">
         <f t="shared" si="4"/>
-        <v>6044694354.2779131</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="4"/>
-        <v>100610098553.0629</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="4"/>
-        <v>102157854637.17799</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="4"/>
-        <v>495051101933.0116</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="4"/>
-        <v>975980026111.52136</v>
-      </c>
-      <c r="I59">
-        <f t="shared" si="2"/>
-        <v>1.9461579373591256</v>
-      </c>
-      <c r="J59">
-        <f t="shared" si="3"/>
         <v>1.6843293625926128</v>
       </c>
     </row>
@@ -15059,35 +15055,35 @@
         <v>2062</v>
       </c>
       <c r="B60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13913150969.918139</v>
       </c>
       <c r="C60">
+        <f t="shared" si="5"/>
+        <v>6080327301.5285139</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="5"/>
+        <v>101546855981.75412</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="5"/>
+        <v>103050835711.10463</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="5"/>
+        <v>499927235248.52588</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="5"/>
+        <v>984624963084.61157</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="3"/>
+        <v>1.9624633686888744</v>
+      </c>
+      <c r="J60">
         <f t="shared" si="4"/>
-        <v>6080327301.5285139</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="4"/>
-        <v>101546855981.75412</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="4"/>
-        <v>103050835711.10463</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="4"/>
-        <v>499927235248.52588</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="4"/>
-        <v>984624963084.61157</v>
-      </c>
-      <c r="I60">
-        <f t="shared" si="2"/>
-        <v>1.9624633686888744</v>
-      </c>
-      <c r="J60">
-        <f t="shared" si="3"/>
         <v>1.6997568898320687</v>
       </c>
     </row>
@@ -15096,35 +15092,35 @@
         <v>2063</v>
       </c>
       <c r="B61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14028750543.056664</v>
       </c>
       <c r="C61">
+        <f t="shared" si="5"/>
+        <v>6115960248.7791147</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="5"/>
+        <v>102483613410.44534</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="5"/>
+        <v>103943816785.03127</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="5"/>
+        <v>504803368564.04016</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="5"/>
+        <v>993269900057.7019</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="3"/>
+        <v>1.978768800018623</v>
+      </c>
+      <c r="J61">
         <f t="shared" si="4"/>
-        <v>6115960248.7791147</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="4"/>
-        <v>102483613410.44534</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="4"/>
-        <v>103943816785.03127</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="4"/>
-        <v>504803368564.04016</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="4"/>
-        <v>993269900057.7019</v>
-      </c>
-      <c r="I61">
-        <f t="shared" si="2"/>
-        <v>1.978768800018623</v>
-      </c>
-      <c r="J61">
-        <f t="shared" si="3"/>
         <v>1.7151844170715249</v>
       </c>
     </row>
@@ -15133,35 +15129,35 @@
         <v>2064</v>
       </c>
       <c r="B62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14144350116.19519</v>
       </c>
       <c r="C62">
+        <f t="shared" si="5"/>
+        <v>6151593196.0297155</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="5"/>
+        <v>103420370839.13657</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="5"/>
+        <v>104836797858.9579</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="5"/>
+        <v>509679501879.55444</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="5"/>
+        <v>1001914837030.7922</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="3"/>
+        <v>1.9950742313483718</v>
+      </c>
+      <c r="J62">
         <f t="shared" si="4"/>
-        <v>6151593196.0297155</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="4"/>
-        <v>103420370839.13657</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="4"/>
-        <v>104836797858.9579</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="4"/>
-        <v>509679501879.55444</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="4"/>
-        <v>1001914837030.7922</v>
-      </c>
-      <c r="I62">
-        <f t="shared" si="2"/>
-        <v>1.9950742313483718</v>
-      </c>
-      <c r="J62">
-        <f t="shared" si="3"/>
         <v>1.7306119443109806</v>
       </c>
     </row>
@@ -15170,35 +15166,35 @@
         <v>2065</v>
       </c>
       <c r="B63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14259949689.333715</v>
       </c>
       <c r="C63">
+        <f t="shared" si="5"/>
+        <v>6187226143.2803164</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="5"/>
+        <v>104357128267.82777</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="5"/>
+        <v>105729778932.88454</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="5"/>
+        <v>514555635195.06879</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="5"/>
+        <v>1010559774003.8826</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="3"/>
+        <v>2.0113796626781206</v>
+      </c>
+      <c r="J63">
         <f t="shared" si="4"/>
-        <v>6187226143.2803164</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="4"/>
-        <v>104357128267.82777</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="4"/>
-        <v>105729778932.88454</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="4"/>
-        <v>514555635195.06879</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="4"/>
-        <v>1010559774003.8826</v>
-      </c>
-      <c r="I63">
-        <f t="shared" si="2"/>
-        <v>2.0113796626781206</v>
-      </c>
-      <c r="J63">
-        <f t="shared" si="3"/>
         <v>1.7460394715504366</v>
       </c>
     </row>
@@ -15207,35 +15203,35 @@
         <v>2066</v>
       </c>
       <c r="B64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14375549262.47224</v>
       </c>
       <c r="C64">
+        <f t="shared" si="5"/>
+        <v>6222859090.5309172</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="5"/>
+        <v>105293885696.519</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="5"/>
+        <v>106622760006.81117</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="5"/>
+        <v>519431768510.58307</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="5"/>
+        <v>1019204710976.9729</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="3"/>
+        <v>2.027685094007869</v>
+      </c>
+      <c r="J64">
         <f t="shared" si="4"/>
-        <v>6222859090.5309172</v>
-      </c>
-      <c r="D64">
-        <f t="shared" si="4"/>
-        <v>105293885696.519</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="4"/>
-        <v>106622760006.81117</v>
-      </c>
-      <c r="F64">
-        <f t="shared" si="4"/>
-        <v>519431768510.58307</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="4"/>
-        <v>1019204710976.9729</v>
-      </c>
-      <c r="I64">
-        <f t="shared" si="2"/>
-        <v>2.027685094007869</v>
-      </c>
-      <c r="J64">
-        <f t="shared" si="3"/>
         <v>1.7614669987898925</v>
       </c>
     </row>
@@ -15244,35 +15240,35 @@
         <v>2067</v>
       </c>
       <c r="B65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14491148835.610767</v>
       </c>
       <c r="C65">
+        <f t="shared" si="5"/>
+        <v>6258492037.781517</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="5"/>
+        <v>106230643125.21022</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="5"/>
+        <v>107515741080.73781</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="5"/>
+        <v>524307901826.09735</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="5"/>
+        <v>1027849647950.0631</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="3"/>
+        <v>2.0439905253376178</v>
+      </c>
+      <c r="J65">
         <f t="shared" si="4"/>
-        <v>6258492037.781517</v>
-      </c>
-      <c r="D65">
-        <f t="shared" si="4"/>
-        <v>106230643125.21022</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="4"/>
-        <v>107515741080.73781</v>
-      </c>
-      <c r="F65">
-        <f t="shared" si="4"/>
-        <v>524307901826.09735</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="4"/>
-        <v>1027849647950.0631</v>
-      </c>
-      <c r="I65">
-        <f t="shared" si="2"/>
-        <v>2.0439905253376178</v>
-      </c>
-      <c r="J65">
-        <f t="shared" si="3"/>
         <v>1.7768945260293487</v>
       </c>
     </row>
@@ -15281,35 +15277,35 @@
         <v>2068</v>
       </c>
       <c r="B66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14606748408.749292</v>
       </c>
       <c r="C66">
+        <f t="shared" si="5"/>
+        <v>6294124985.0321178</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="5"/>
+        <v>107167400553.90144</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="5"/>
+        <v>108408722154.66444</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="5"/>
+        <v>529184035141.61169</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="5"/>
+        <v>1036494584923.1534</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="3"/>
+        <v>2.0602959566673666</v>
+      </c>
+      <c r="J66">
         <f t="shared" si="4"/>
-        <v>6294124985.0321178</v>
-      </c>
-      <c r="D66">
-        <f t="shared" si="4"/>
-        <v>107167400553.90144</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="4"/>
-        <v>108408722154.66444</v>
-      </c>
-      <c r="F66">
-        <f t="shared" si="4"/>
-        <v>529184035141.61169</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="4"/>
-        <v>1036494584923.1534</v>
-      </c>
-      <c r="I66">
-        <f t="shared" si="2"/>
-        <v>2.0602959566673666</v>
-      </c>
-      <c r="J66">
-        <f t="shared" si="3"/>
         <v>1.7923220532688049</v>
       </c>
     </row>
@@ -15318,35 +15314,35 @@
         <v>2069</v>
       </c>
       <c r="B67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14722347981.887817</v>
       </c>
       <c r="C67">
+        <f t="shared" si="5"/>
+        <v>6329757932.2827187</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="5"/>
+        <v>108104157982.59265</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="5"/>
+        <v>109301703228.59108</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="5"/>
+        <v>534060168457.12598</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="5"/>
+        <v>1045139521896.2438</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="3"/>
+        <v>2.076601387997115</v>
+      </c>
+      <c r="J67">
         <f t="shared" si="4"/>
-        <v>6329757932.2827187</v>
-      </c>
-      <c r="D67">
-        <f t="shared" si="4"/>
-        <v>108104157982.59265</v>
-      </c>
-      <c r="E67">
-        <f t="shared" si="4"/>
-        <v>109301703228.59108</v>
-      </c>
-      <c r="F67">
-        <f t="shared" si="4"/>
-        <v>534060168457.12598</v>
-      </c>
-      <c r="G67">
-        <f t="shared" si="4"/>
-        <v>1045139521896.2438</v>
-      </c>
-      <c r="I67">
-        <f t="shared" si="2"/>
-        <v>2.076601387997115</v>
-      </c>
-      <c r="J67">
-        <f t="shared" si="3"/>
         <v>1.8077495805082608</v>
       </c>
     </row>
@@ -15355,35 +15351,35 @@
         <v>2070</v>
       </c>
       <c r="B68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14837947555.026344</v>
       </c>
       <c r="C68">
+        <f t="shared" si="5"/>
+        <v>6365390879.5333195</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="5"/>
+        <v>109040915411.28387</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="5"/>
+        <v>110194684302.51772</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="5"/>
+        <v>538936301772.64026</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="5"/>
+        <v>1053784458869.334</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="3"/>
+        <v>2.0929068193268643</v>
+      </c>
+      <c r="J68">
         <f t="shared" si="4"/>
-        <v>6365390879.5333195</v>
-      </c>
-      <c r="D68">
-        <f t="shared" si="4"/>
-        <v>109040915411.28387</v>
-      </c>
-      <c r="E68">
-        <f t="shared" si="4"/>
-        <v>110194684302.51772</v>
-      </c>
-      <c r="F68">
-        <f t="shared" si="4"/>
-        <v>538936301772.64026</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="4"/>
-        <v>1053784458869.334</v>
-      </c>
-      <c r="I68">
-        <f t="shared" si="2"/>
-        <v>2.0929068193268643</v>
-      </c>
-      <c r="J68">
-        <f t="shared" si="3"/>
         <v>1.8231771077477166</v>
       </c>
     </row>
